--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12268,10 +12268,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111470469</v>
+        <v>111470742</v>
       </c>
       <c r="B104" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12280,25 +12280,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12309,10 +12309,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>438639.4875314611</v>
+        <v>438446.2779300523</v>
       </c>
       <c r="R104" t="n">
-        <v>6953482.227441453</v>
+        <v>6953499.139833862</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12381,7 +12381,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111470428</v>
+        <v>111470729</v>
       </c>
       <c r="B105" t="n">
         <v>90660</v>
@@ -12418,14 +12418,14 @@
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>438604.941655435</v>
+        <v>438463.2458509306</v>
       </c>
       <c r="R105" t="n">
-        <v>6953527.854930924</v>
+        <v>6953496.987061457</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12494,7 +12494,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111470729</v>
+        <v>111470428</v>
       </c>
       <c r="B106" t="n">
         <v>90660</v>
@@ -12531,14 +12531,14 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>438463.2458509306</v>
+        <v>438604.941655435</v>
       </c>
       <c r="R106" t="n">
-        <v>6953496.987061457</v>
+        <v>6953527.854930924</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12607,10 +12607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111470742</v>
+        <v>111470469</v>
       </c>
       <c r="B107" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12619,25 +12619,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12648,10 +12648,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>438446.2779300523</v>
+        <v>438639.4875314611</v>
       </c>
       <c r="R107" t="n">
-        <v>6953499.139833862</v>
+        <v>6953482.227441453</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD107" t="b">

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12155,7 +12155,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111470552</v>
+        <v>111470742</v>
       </c>
       <c r="B103" t="n">
         <v>90660</v>
@@ -12196,10 +12196,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>438592.3192865716</v>
+        <v>438446.2779300523</v>
       </c>
       <c r="R103" t="n">
-        <v>6953491.82694263</v>
+        <v>6953499.139833862</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12268,7 +12268,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111470742</v>
+        <v>111470729</v>
       </c>
       <c r="B104" t="n">
         <v>90660</v>
@@ -12309,10 +12309,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>438446.2779300523</v>
+        <v>438463.2458509306</v>
       </c>
       <c r="R104" t="n">
-        <v>6953499.139833862</v>
+        <v>6953496.987061457</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12381,10 +12381,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111470729</v>
+        <v>111470469</v>
       </c>
       <c r="B105" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12393,25 +12393,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>438463.2458509306</v>
+        <v>438639.4875314611</v>
       </c>
       <c r="R105" t="n">
-        <v>6953496.987061457</v>
+        <v>6953482.227441453</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12494,7 +12494,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111470428</v>
+        <v>111470552</v>
       </c>
       <c r="B106" t="n">
         <v>90660</v>
@@ -12531,14 +12531,14 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>438604.941655435</v>
+        <v>438592.3192865716</v>
       </c>
       <c r="R106" t="n">
-        <v>6953527.854930924</v>
+        <v>6953491.82694263</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12607,10 +12607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111470469</v>
+        <v>111470428</v>
       </c>
       <c r="B107" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12619,39 +12619,39 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>438639.4875314611</v>
+        <v>438604.941655435</v>
       </c>
       <c r="R107" t="n">
-        <v>6953482.227441453</v>
+        <v>6953527.854930924</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD107" t="b">

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12155,7 +12155,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111470742</v>
+        <v>111470729</v>
       </c>
       <c r="B103" t="n">
         <v>90660</v>
@@ -12196,10 +12196,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>438446.2779300523</v>
+        <v>438463.2458509306</v>
       </c>
       <c r="R103" t="n">
-        <v>6953499.139833862</v>
+        <v>6953496.987061457</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12268,7 +12268,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111470729</v>
+        <v>111470742</v>
       </c>
       <c r="B104" t="n">
         <v>90660</v>
@@ -12309,10 +12309,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>438463.2458509306</v>
+        <v>438446.2779300523</v>
       </c>
       <c r="R104" t="n">
-        <v>6953496.987061457</v>
+        <v>6953499.139833862</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12381,10 +12381,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111470469</v>
+        <v>111470552</v>
       </c>
       <c r="B105" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12393,25 +12393,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>438639.4875314611</v>
+        <v>438592.3192865716</v>
       </c>
       <c r="R105" t="n">
-        <v>6953482.227441453</v>
+        <v>6953491.82694263</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12494,7 +12494,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111470552</v>
+        <v>111470428</v>
       </c>
       <c r="B106" t="n">
         <v>90660</v>
@@ -12531,14 +12531,14 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>438592.3192865716</v>
+        <v>438604.941655435</v>
       </c>
       <c r="R106" t="n">
-        <v>6953491.82694263</v>
+        <v>6953527.854930924</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12607,10 +12607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111470428</v>
+        <v>111470469</v>
       </c>
       <c r="B107" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12619,39 +12619,39 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>438604.941655435</v>
+        <v>438639.4875314611</v>
       </c>
       <c r="R107" t="n">
-        <v>6953527.854930924</v>
+        <v>6953482.227441453</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD107" t="b">

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12381,7 +12381,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111470552</v>
+        <v>111470428</v>
       </c>
       <c r="B105" t="n">
         <v>90660</v>
@@ -12418,14 +12418,14 @@
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>438592.3192865716</v>
+        <v>438604.941655435</v>
       </c>
       <c r="R105" t="n">
-        <v>6953491.82694263</v>
+        <v>6953527.854930924</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12494,7 +12494,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111470428</v>
+        <v>111470552</v>
       </c>
       <c r="B106" t="n">
         <v>90660</v>
@@ -12531,14 +12531,14 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>438604.941655435</v>
+        <v>438592.3192865716</v>
       </c>
       <c r="R106" t="n">
-        <v>6953527.854930924</v>
+        <v>6953491.82694263</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -22729,10 +22729,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973745</v>
+        <v>111973694</v>
       </c>
       <c r="B185" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22741,25 +22741,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22778,10 +22778,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>437646.7856703376</v>
+        <v>438325.5423512529</v>
       </c>
       <c r="R185" t="n">
-        <v>6953396.18633649</v>
+        <v>6953163.533631108</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
@@ -22803,7 +22803,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
@@ -22837,7 +22837,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22859,10 +22859,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973694</v>
+        <v>111973687</v>
       </c>
       <c r="B186" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22871,25 +22871,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22908,10 +22908,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>438325.5423512529</v>
+        <v>438548.7713177125</v>
       </c>
       <c r="R186" t="n">
-        <v>6953163.533631108</v>
+        <v>6953054.237334216</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22989,10 +22989,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973687</v>
+        <v>111973722</v>
       </c>
       <c r="B187" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23001,25 +23001,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>438548.7713177125</v>
+        <v>437913.6481065798</v>
       </c>
       <c r="R187" t="n">
-        <v>6953054.237334216</v>
+        <v>6953091.381175105</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23119,10 +23119,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973722</v>
+        <v>111973684</v>
       </c>
       <c r="B188" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23131,25 +23131,25 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -23168,10 +23168,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>437913.6481065798</v>
+        <v>438577.1343039292</v>
       </c>
       <c r="R188" t="n">
-        <v>6953091.381175105</v>
+        <v>6953120.735309405</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23249,10 +23249,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973684</v>
+        <v>111973670</v>
       </c>
       <c r="B189" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23265,21 +23265,21 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23298,10 +23298,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>438577.1343039292</v>
+        <v>437925.5671573002</v>
       </c>
       <c r="R189" t="n">
-        <v>6953120.735309405</v>
+        <v>6953260.555743226</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23379,10 +23379,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973670</v>
+        <v>111973745</v>
       </c>
       <c r="B190" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23395,21 +23395,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -23428,10 +23428,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>437925.5671573002</v>
+        <v>437646.7856703376</v>
       </c>
       <c r="R190" t="n">
-        <v>6953260.555743226</v>
+        <v>6953396.18633649</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23443,7 +23443,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
@@ -23453,7 +23453,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -23487,7 +23487,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12268,7 +12268,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111470729</v>
+        <v>111470428</v>
       </c>
       <c r="B104" t="n">
         <v>90660</v>
@@ -12305,14 +12305,14 @@
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>438463.2458509306</v>
+        <v>438604.941655435</v>
       </c>
       <c r="R104" t="n">
-        <v>6953496.987061457</v>
+        <v>6953527.854930924</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12381,7 +12381,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111470428</v>
+        <v>111470729</v>
       </c>
       <c r="B105" t="n">
         <v>90660</v>
@@ -12418,14 +12418,14 @@
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>438604.941655435</v>
+        <v>438463.2458509306</v>
       </c>
       <c r="R105" t="n">
-        <v>6953527.854930924</v>
+        <v>6953496.987061457</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12494,10 +12494,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111470552</v>
+        <v>111470469</v>
       </c>
       <c r="B106" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12506,25 +12506,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12535,10 +12535,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>438592.3192865716</v>
+        <v>438639.4875314611</v>
       </c>
       <c r="R106" t="n">
-        <v>6953491.82694263</v>
+        <v>6953482.227441453</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12607,10 +12607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111470469</v>
+        <v>111470552</v>
       </c>
       <c r="B107" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12619,25 +12619,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12648,10 +12648,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>438639.4875314611</v>
+        <v>438592.3192865716</v>
       </c>
       <c r="R107" t="n">
-        <v>6953482.227441453</v>
+        <v>6953491.82694263</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12720,10 +12720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973763</v>
+        <v>111973716</v>
       </c>
       <c r="B108" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12736,21 +12736,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>437630.1355663574</v>
+        <v>437942.142677932</v>
       </c>
       <c r="R108" t="n">
-        <v>6953220.681589473</v>
+        <v>6953188.629084867</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973691</v>
+        <v>111973655</v>
       </c>
       <c r="B109" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12866,21 +12866,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12899,10 +12899,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>438380.4570261125</v>
+        <v>438489.0756873108</v>
       </c>
       <c r="R109" t="n">
-        <v>6953076.200047398</v>
+        <v>6953526.341858554</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="AI109" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT109" t="inlineStr"/>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973669</v>
+        <v>111973767</v>
       </c>
       <c r="B110" t="n">
         <v>90660</v>
@@ -13029,10 +13029,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>437912.8137109271</v>
+        <v>437702.0952541633</v>
       </c>
       <c r="R110" t="n">
-        <v>6953242.433193879</v>
+        <v>6953233.552758955</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13110,10 +13110,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973719</v>
+        <v>111973703</v>
       </c>
       <c r="B111" t="n">
-        <v>90682</v>
+        <v>88010</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13122,25 +13122,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -13159,10 +13159,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>437937.8271789091</v>
+        <v>438029.3740389285</v>
       </c>
       <c r="R111" t="n">
-        <v>6953154.738653069</v>
+        <v>6953011.159128131</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13240,10 +13240,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973802</v>
+        <v>111973650</v>
       </c>
       <c r="B112" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13252,25 +13252,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -13289,10 +13289,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>437785.6957705052</v>
+        <v>438617.2579858238</v>
       </c>
       <c r="R112" t="n">
-        <v>6953083.69221758</v>
+        <v>6953572.150569057</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr"/>
@@ -13370,7 +13370,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973649</v>
+        <v>111973692</v>
       </c>
       <c r="B113" t="n">
         <v>90682</v>
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>438643.9109478882</v>
+        <v>438375.4788469387</v>
       </c>
       <c r="R113" t="n">
-        <v>6953596.441367409</v>
+        <v>6953080.424831095</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13500,10 +13500,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973720</v>
+        <v>111973705</v>
       </c>
       <c r="B114" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13516,21 +13516,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -13549,10 +13549,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>437936.1394948753</v>
+        <v>438039.6778841515</v>
       </c>
       <c r="R114" t="n">
-        <v>6953113.912172817</v>
+        <v>6953070.188645583</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13630,10 +13630,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973735</v>
+        <v>111973712</v>
       </c>
       <c r="B115" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13646,21 +13646,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -13679,10 +13679,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>437908.4053289952</v>
+        <v>438007.0616481225</v>
       </c>
       <c r="R115" t="n">
-        <v>6953423.383435746</v>
+        <v>6953193.835261973</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13694,7 +13694,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13738,7 +13738,7 @@
       </c>
       <c r="AI115" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT115" t="inlineStr"/>
@@ -13760,10 +13760,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973651</v>
+        <v>111973688</v>
       </c>
       <c r="B116" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13772,25 +13772,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>438594.9557070844</v>
+        <v>438543.8591373209</v>
       </c>
       <c r="R116" t="n">
-        <v>6953584.041166852</v>
+        <v>6953037.342524837</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -13890,10 +13890,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973666</v>
+        <v>111973654</v>
       </c>
       <c r="B117" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13906,21 +13906,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13939,10 +13939,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>438213.507009695</v>
+        <v>438507.0138575528</v>
       </c>
       <c r="R117" t="n">
-        <v>6953416.276142</v>
+        <v>6953526.92536923</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr"/>
@@ -14020,10 +14020,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973675</v>
+        <v>111973761</v>
       </c>
       <c r="B118" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14036,21 +14036,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -14069,10 +14069,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>438160.5186564626</v>
+        <v>437571.0975250818</v>
       </c>
       <c r="R118" t="n">
-        <v>6953262.568950667</v>
+        <v>6953283.313539348</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14150,10 +14150,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973723</v>
+        <v>111973701</v>
       </c>
       <c r="B119" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14166,21 +14166,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -14199,10 +14199,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>437903.5547303436</v>
+        <v>438134.3562496312</v>
       </c>
       <c r="R119" t="n">
-        <v>6953092.489357711</v>
+        <v>6953093.202189791</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973727</v>
+        <v>111973696</v>
       </c>
       <c r="B120" t="n">
         <v>90660</v>
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>437870.6858627723</v>
+        <v>438244.0616158294</v>
       </c>
       <c r="R120" t="n">
-        <v>6953178.038412376</v>
+        <v>6953108.59152039</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14410,7 +14410,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973744</v>
+        <v>111973721</v>
       </c>
       <c r="B121" t="n">
         <v>90660</v>
@@ -14459,10 +14459,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>437686.9991506658</v>
+        <v>437964.8874965879</v>
       </c>
       <c r="R121" t="n">
-        <v>6953383.491049132</v>
+        <v>6953078.02169135</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14474,7 +14474,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14540,10 +14540,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973706</v>
+        <v>111973762</v>
       </c>
       <c r="B122" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14556,21 +14556,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14589,10 +14589,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>438039.4596956634</v>
+        <v>437599.103955319</v>
       </c>
       <c r="R122" t="n">
-        <v>6953083.047228135</v>
+        <v>6953281.406344013</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14670,10 +14670,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973692</v>
+        <v>111973743</v>
       </c>
       <c r="B123" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14686,21 +14686,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -14719,10 +14719,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>438375.4788469387</v>
+        <v>437633.050214521</v>
       </c>
       <c r="R123" t="n">
-        <v>6953080.424831095</v>
+        <v>6953301.881070362</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -14800,7 +14800,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973713</v>
+        <v>111973744</v>
       </c>
       <c r="B124" t="n">
         <v>90660</v>
@@ -14849,10 +14849,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>438002.4574124058</v>
+        <v>437686.9991506658</v>
       </c>
       <c r="R124" t="n">
-        <v>6953193.462733216</v>
+        <v>6953383.491049132</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14930,7 +14930,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973695</v>
+        <v>111973718</v>
       </c>
       <c r="B125" t="n">
         <v>90652</v>
@@ -14979,10 +14979,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>438290.0744879689</v>
+        <v>437913.625653744</v>
       </c>
       <c r="R125" t="n">
-        <v>6953135.275183067</v>
+        <v>6953163.457536075</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111973653</v>
+        <v>111973662</v>
       </c>
       <c r="B126" t="n">
         <v>88032</v>
@@ -15109,10 +15109,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>438544.6107581231</v>
+        <v>438148.3758962485</v>
       </c>
       <c r="R126" t="n">
-        <v>6953546.421492521</v>
+        <v>6953350.476376175</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -15190,10 +15190,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973739</v>
+        <v>111973679</v>
       </c>
       <c r="B127" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15206,21 +15206,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -15239,10 +15239,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>437780.5956911595</v>
+        <v>438324.49743335</v>
       </c>
       <c r="R127" t="n">
-        <v>6953422.578950249</v>
+        <v>6953230.577437581</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -15264,7 +15264,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15320,10 +15320,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973677</v>
+        <v>111973720</v>
       </c>
       <c r="B128" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15336,21 +15336,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15369,10 +15369,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>438218.2330045793</v>
+        <v>437936.1394948753</v>
       </c>
       <c r="R128" t="n">
-        <v>6953251.387939887</v>
+        <v>6953113.912172817</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="AI128" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT128" t="inlineStr"/>
@@ -15450,10 +15450,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973704</v>
+        <v>111973699</v>
       </c>
       <c r="B129" t="n">
-        <v>90658</v>
+        <v>90654</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15462,25 +15462,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4361</v>
+        <v>149</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>438039.8702126255</v>
+        <v>438167.2097542446</v>
       </c>
       <c r="R129" t="n">
-        <v>6953055.95322452</v>
+        <v>6953104.522341937</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15580,10 +15580,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973721</v>
+        <v>111973763</v>
       </c>
       <c r="B130" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15596,21 +15596,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15629,10 +15629,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>437964.8874965879</v>
+        <v>437630.1355663574</v>
       </c>
       <c r="R130" t="n">
-        <v>6953078.02169135</v>
+        <v>6953220.681589473</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15710,10 +15710,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973738</v>
+        <v>111973656</v>
       </c>
       <c r="B131" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15722,25 +15722,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15759,10 +15759,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>437818.6501005701</v>
+        <v>438305.464494833</v>
       </c>
       <c r="R131" t="n">
-        <v>6953417.270802823</v>
+        <v>6953417.308850316</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr"/>
@@ -15840,10 +15840,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973740</v>
+        <v>111973691</v>
       </c>
       <c r="B132" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15856,21 +15856,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15889,10 +15889,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>437784.9752950897</v>
+        <v>438380.4570261125</v>
       </c>
       <c r="R132" t="n">
-        <v>6953386.690837187</v>
+        <v>6953076.200047398</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -15970,10 +15970,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973674</v>
+        <v>111973734</v>
       </c>
       <c r="B133" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15986,21 +15986,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -16019,10 +16019,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>438160.5186564626</v>
+        <v>437925.1695921989</v>
       </c>
       <c r="R133" t="n">
-        <v>6953262.568950667</v>
+        <v>6953361.555738406</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973660</v>
+        <v>111973695</v>
       </c>
       <c r="B134" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16116,21 +16116,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -16149,10 +16149,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>438117.6502478332</v>
+        <v>438290.0744879689</v>
       </c>
       <c r="R134" t="n">
-        <v>6953329.936377568</v>
+        <v>6953135.275183067</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="AI134" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT134" t="inlineStr"/>
@@ -16230,10 +16230,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973737</v>
+        <v>111973741</v>
       </c>
       <c r="B135" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16242,25 +16242,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16279,10 +16279,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>437826.2275051199</v>
+        <v>437770.6617250814</v>
       </c>
       <c r="R135" t="n">
-        <v>6953429.063032418</v>
+        <v>6953334.629086277</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16338,7 +16338,7 @@
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16360,10 +16360,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973718</v>
+        <v>111973667</v>
       </c>
       <c r="B136" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16376,21 +16376,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>437913.625653744</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R136" t="n">
-        <v>6953163.457536075</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16490,10 +16490,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973683</v>
+        <v>111973649</v>
       </c>
       <c r="B137" t="n">
-        <v>88010</v>
+        <v>90682</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16502,25 +16502,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1596</v>
+        <v>2059</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16539,10 +16539,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>438569.6720420276</v>
+        <v>438643.9109478882</v>
       </c>
       <c r="R137" t="n">
-        <v>6953139.69648798</v>
+        <v>6953596.441367409</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -16620,10 +16620,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973689</v>
+        <v>111973677</v>
       </c>
       <c r="B138" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16636,21 +16636,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16669,10 +16669,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>438478.4845183876</v>
+        <v>438218.2330045793</v>
       </c>
       <c r="R138" t="n">
-        <v>6953007.801968225</v>
+        <v>6953251.387939887</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16750,10 +16750,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973652</v>
+        <v>111973684</v>
       </c>
       <c r="B139" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16766,21 +16766,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16799,10 +16799,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>438537.7865028595</v>
+        <v>438577.1343039292</v>
       </c>
       <c r="R139" t="n">
-        <v>6953550.220835418</v>
+        <v>6953120.735309405</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="AI139" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT139" t="inlineStr"/>
@@ -16880,10 +16880,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973676</v>
+        <v>111973704</v>
       </c>
       <c r="B140" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16896,21 +16896,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16929,10 +16929,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438195.4617540331</v>
+        <v>438039.8702126255</v>
       </c>
       <c r="R140" t="n">
-        <v>6953262.832081575</v>
+        <v>6953055.95322452</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16988,7 +16988,7 @@
       </c>
       <c r="AI140" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT140" t="inlineStr"/>
@@ -17010,10 +17010,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973665</v>
+        <v>111973711</v>
       </c>
       <c r="B141" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -17022,25 +17022,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -17059,10 +17059,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>438214.6362894689</v>
+        <v>438030.8777618795</v>
       </c>
       <c r="R141" t="n">
-        <v>6953402.942781798</v>
+        <v>6953140.134856743</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17140,10 +17140,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973729</v>
+        <v>111973739</v>
       </c>
       <c r="B142" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17156,21 +17156,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -17189,10 +17189,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>437849.4557670459</v>
+        <v>437780.5956911595</v>
       </c>
       <c r="R142" t="n">
-        <v>6953246.83996963</v>
+        <v>6953422.578950249</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -17214,7 +17214,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -17270,10 +17270,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973654</v>
+        <v>111973666</v>
       </c>
       <c r="B143" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17286,21 +17286,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -17319,10 +17319,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>438507.0138575528</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R143" t="n">
-        <v>6953526.92536923</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="AI143" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT143" t="inlineStr"/>
@@ -17400,10 +17400,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973803</v>
+        <v>111973722</v>
       </c>
       <c r="B144" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17412,25 +17412,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -17449,10 +17449,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>437808.5351863222</v>
+        <v>437913.6481065798</v>
       </c>
       <c r="R144" t="n">
-        <v>6953100.247750094</v>
+        <v>6953091.381175105</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17508,7 +17508,7 @@
       </c>
       <c r="AI144" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT144" t="inlineStr"/>
@@ -17530,7 +17530,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973734</v>
+        <v>111973663</v>
       </c>
       <c r="B145" t="n">
         <v>90660</v>
@@ -17579,10 +17579,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>437925.1695921989</v>
+        <v>438169.8244046976</v>
       </c>
       <c r="R145" t="n">
-        <v>6953361.555738406</v>
+        <v>6953366.599956161</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr"/>
@@ -17660,10 +17660,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973679</v>
+        <v>111973737</v>
       </c>
       <c r="B146" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17672,25 +17672,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -17709,10 +17709,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>438324.49743335</v>
+        <v>437826.2275051199</v>
       </c>
       <c r="R146" t="n">
-        <v>6953230.577437581</v>
+        <v>6953429.063032418</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17724,7 +17724,7 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
@@ -17734,7 +17734,7 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -17790,10 +17790,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973686</v>
+        <v>111973680</v>
       </c>
       <c r="B147" t="n">
-        <v>90300</v>
+        <v>90660</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17806,21 +17806,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -17839,10 +17839,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>438557.4797566309</v>
+        <v>438403.109237605</v>
       </c>
       <c r="R147" t="n">
-        <v>6953077.488546882</v>
+        <v>6953181.365192754</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17920,10 +17920,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973742</v>
+        <v>111973676</v>
       </c>
       <c r="B148" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17936,21 +17936,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -17969,10 +17969,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>437768.9973591214</v>
+        <v>438195.4617540331</v>
       </c>
       <c r="R148" t="n">
-        <v>6953319.511656794</v>
+        <v>6953262.832081575</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr"/>
@@ -18050,10 +18050,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973768</v>
+        <v>111973803</v>
       </c>
       <c r="B149" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -18066,21 +18066,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -18099,10 +18099,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>437637.973121325</v>
+        <v>437808.5351863222</v>
       </c>
       <c r="R149" t="n">
-        <v>6953148.917516032</v>
+        <v>6953100.247750094</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="AI149" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -18180,7 +18180,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973650</v>
+        <v>111973723</v>
       </c>
       <c r="B150" t="n">
         <v>90652</v>
@@ -18229,10 +18229,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>438617.2579858238</v>
+        <v>437903.5547303436</v>
       </c>
       <c r="R150" t="n">
-        <v>6953572.150569057</v>
+        <v>6953092.489357711</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -18310,10 +18310,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973699</v>
+        <v>111973745</v>
       </c>
       <c r="B151" t="n">
-        <v>90654</v>
+        <v>90652</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18322,25 +18322,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -18359,10 +18359,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>438167.2097542446</v>
+        <v>437646.7856703376</v>
       </c>
       <c r="R151" t="n">
-        <v>6953104.522341937</v>
+        <v>6953396.18633649</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18374,7 +18374,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -18440,10 +18440,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973711</v>
+        <v>111973694</v>
       </c>
       <c r="B152" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18452,25 +18452,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -18489,10 +18489,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>438030.8777618795</v>
+        <v>438325.5423512529</v>
       </c>
       <c r="R152" t="n">
-        <v>6953140.134856743</v>
+        <v>6953163.533631108</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18570,7 +18570,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973712</v>
+        <v>111973681</v>
       </c>
       <c r="B153" t="n">
         <v>90652</v>
@@ -18619,10 +18619,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438007.0616481225</v>
+        <v>438493.2177188767</v>
       </c>
       <c r="R153" t="n">
-        <v>6953193.835261973</v>
+        <v>6953181.51986871</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18700,10 +18700,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973678</v>
+        <v>111973658</v>
       </c>
       <c r="B154" t="n">
-        <v>90654</v>
+        <v>90652</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18712,25 +18712,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18749,10 +18749,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438245.3208427017</v>
+        <v>438250.4063445947</v>
       </c>
       <c r="R154" t="n">
-        <v>6953249.503443779</v>
+        <v>6953324.693784647</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18808,7 +18808,7 @@
       </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973716</v>
+        <v>111973735</v>
       </c>
       <c r="B155" t="n">
         <v>90660</v>
@@ -18879,10 +18879,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>437942.142677932</v>
+        <v>437908.4053289952</v>
       </c>
       <c r="R155" t="n">
-        <v>6953188.629084867</v>
+        <v>6953423.383435746</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="AI155" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr"/>
@@ -18960,10 +18960,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973707</v>
+        <v>111973766</v>
       </c>
       <c r="B156" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18976,21 +18976,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -19009,10 +19009,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>438067.7466216629</v>
+        <v>437707.7139296347</v>
       </c>
       <c r="R156" t="n">
-        <v>6953071.497848171</v>
+        <v>6953238.955457177</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -19090,7 +19090,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973764</v>
+        <v>111973707</v>
       </c>
       <c r="B157" t="n">
         <v>90660</v>
@@ -19139,10 +19139,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>437776.3383109252</v>
+        <v>438067.7466216629</v>
       </c>
       <c r="R157" t="n">
-        <v>6953123.809258236</v>
+        <v>6953071.497848171</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973702</v>
+        <v>111973669</v>
       </c>
       <c r="B158" t="n">
         <v>90660</v>
@@ -19269,10 +19269,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>438081.9879022668</v>
+        <v>437912.8137109271</v>
       </c>
       <c r="R158" t="n">
-        <v>6953046.43956603</v>
+        <v>6953242.433193879</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973703</v>
+        <v>111973725</v>
       </c>
       <c r="B159" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -19362,25 +19362,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -19399,10 +19399,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>438029.3740389285</v>
+        <v>437859.825927439</v>
       </c>
       <c r="R159" t="n">
-        <v>6953011.159128131</v>
+        <v>6953089.64020811</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19480,10 +19480,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973673</v>
+        <v>111973690</v>
       </c>
       <c r="B160" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19492,25 +19492,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19529,10 +19529,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>438126.6098378488</v>
+        <v>438392.7937311309</v>
       </c>
       <c r="R160" t="n">
-        <v>6953243.924237223</v>
+        <v>6953047.506099407</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -19610,10 +19610,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973680</v>
+        <v>111973714</v>
       </c>
       <c r="B161" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19626,21 +19626,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19659,10 +19659,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>438403.109237605</v>
+        <v>437974.9333715859</v>
       </c>
       <c r="R161" t="n">
-        <v>6953181.365192754</v>
+        <v>6953221.065410748</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19740,10 +19740,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973662</v>
+        <v>111973801</v>
       </c>
       <c r="B162" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19752,25 +19752,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19789,10 +19789,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>438148.3758962485</v>
+        <v>437774.9523556355</v>
       </c>
       <c r="R162" t="n">
-        <v>6953350.476376175</v>
+        <v>6953074.713081508</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19848,7 +19848,7 @@
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -19870,10 +19870,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973733</v>
+        <v>111973768</v>
       </c>
       <c r="B163" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19886,21 +19886,21 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -19919,10 +19919,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>437876.3203048867</v>
+        <v>437637.973121325</v>
       </c>
       <c r="R163" t="n">
-        <v>6953355.130729643</v>
+        <v>6953148.917516032</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -19978,7 +19978,7 @@
       </c>
       <c r="AI163" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -20000,10 +20000,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973717</v>
+        <v>111973689</v>
       </c>
       <c r="B164" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -20012,25 +20012,25 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -20049,10 +20049,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>437925.4602650506</v>
+        <v>438478.4845183876</v>
       </c>
       <c r="R164" t="n">
-        <v>6953181.597826566</v>
+        <v>6953007.801968225</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -20130,10 +20130,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973761</v>
+        <v>111973700</v>
       </c>
       <c r="B165" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -20146,21 +20146,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>437571.0975250818</v>
+        <v>438151.4465756729</v>
       </c>
       <c r="R165" t="n">
-        <v>6953283.313539348</v>
+        <v>6953097.472532819</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -20194,7 +20194,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
@@ -20260,10 +20260,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973801</v>
+        <v>111973726</v>
       </c>
       <c r="B166" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -20276,21 +20276,21 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -20309,10 +20309,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>437774.9523556355</v>
+        <v>437857.8639418939</v>
       </c>
       <c r="R166" t="n">
-        <v>6953074.713081508</v>
+        <v>6953131.912996286</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -20368,7 +20368,7 @@
       </c>
       <c r="AI166" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -20390,10 +20390,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973726</v>
+        <v>111973697</v>
       </c>
       <c r="B167" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -20402,25 +20402,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -20439,10 +20439,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>437857.8639418939</v>
+        <v>438216.5943784415</v>
       </c>
       <c r="R167" t="n">
-        <v>6953131.912996286</v>
+        <v>6953090.283452681</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -20520,10 +20520,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973732</v>
+        <v>111973670</v>
       </c>
       <c r="B168" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -20536,21 +20536,21 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -20569,10 +20569,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>437870.3376588458</v>
+        <v>437925.5671573002</v>
       </c>
       <c r="R168" t="n">
-        <v>6953354.784377262</v>
+        <v>6953260.555743226</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20628,7 +20628,7 @@
       </c>
       <c r="AI168" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -20650,10 +20650,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973700</v>
+        <v>111973719</v>
       </c>
       <c r="B169" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20666,21 +20666,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -20699,10 +20699,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>438151.4465756729</v>
+        <v>437937.8271789091</v>
       </c>
       <c r="R169" t="n">
-        <v>6953097.472532819</v>
+        <v>6953154.738653069</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20780,10 +20780,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973656</v>
+        <v>111973708</v>
       </c>
       <c r="B170" t="n">
-        <v>88032</v>
+        <v>90654</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20796,21 +20796,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6276</v>
+        <v>149</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -20829,10 +20829,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>438305.464494833</v>
+        <v>438068.6025824957</v>
       </c>
       <c r="R170" t="n">
-        <v>6953417.308850316</v>
+        <v>6953092.599814337</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="AI170" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>
@@ -20910,10 +20910,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973762</v>
+        <v>111973672</v>
       </c>
       <c r="B171" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20926,21 +20926,21 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -20959,10 +20959,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>437599.103955319</v>
+        <v>438161.9732156845</v>
       </c>
       <c r="R171" t="n">
-        <v>6953281.406344013</v>
+        <v>6953217.553276672</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -20974,7 +20974,7 @@
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
@@ -21018,7 +21018,7 @@
       </c>
       <c r="AI171" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT171" t="inlineStr"/>
@@ -21040,7 +21040,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973725</v>
+        <v>111973740</v>
       </c>
       <c r="B172" t="n">
         <v>90660</v>
@@ -21089,10 +21089,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>437859.825927439</v>
+        <v>437784.9752950897</v>
       </c>
       <c r="R172" t="n">
-        <v>6953089.64020811</v>
+        <v>6953386.690837187</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr"/>
@@ -21170,10 +21170,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973693</v>
+        <v>111973706</v>
       </c>
       <c r="B173" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21186,21 +21186,21 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -21219,10 +21219,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>438340.8243944077</v>
+        <v>438039.4596956634</v>
       </c>
       <c r="R173" t="n">
-        <v>6953144.884858144</v>
+        <v>6953083.047228135</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -21300,10 +21300,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973663</v>
+        <v>111973800</v>
       </c>
       <c r="B174" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -21316,21 +21316,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -21349,10 +21349,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>438169.8244046976</v>
+        <v>437771.6747036168</v>
       </c>
       <c r="R174" t="n">
-        <v>6953366.599956161</v>
+        <v>6953071.561281924</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -21430,10 +21430,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973730</v>
+        <v>111973678</v>
       </c>
       <c r="B175" t="n">
-        <v>90682</v>
+        <v>90654</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -21442,25 +21442,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -21479,10 +21479,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>437841.7707476557</v>
+        <v>438245.3208427017</v>
       </c>
       <c r="R175" t="n">
-        <v>6953302.531346441</v>
+        <v>6953249.503443779</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="AI175" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT175" t="inlineStr"/>
@@ -21560,7 +21560,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973696</v>
+        <v>111973675</v>
       </c>
       <c r="B176" t="n">
         <v>90660</v>
@@ -21609,10 +21609,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>438244.0616158294</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R176" t="n">
-        <v>6953108.59152039</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -21668,7 +21668,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -21690,10 +21690,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973715</v>
+        <v>111973693</v>
       </c>
       <c r="B177" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21702,25 +21702,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21739,10 +21739,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>437962.8122493967</v>
+        <v>438340.8243944077</v>
       </c>
       <c r="R177" t="n">
-        <v>6953212.111986059</v>
+        <v>6953144.884858144</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21820,10 +21820,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973731</v>
+        <v>111973702</v>
       </c>
       <c r="B178" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21832,25 +21832,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21869,10 +21869,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>437841.7707476557</v>
+        <v>438081.9879022668</v>
       </c>
       <c r="R178" t="n">
-        <v>6953302.531346441</v>
+        <v>6953046.43956603</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21950,10 +21950,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973724</v>
+        <v>111973729</v>
       </c>
       <c r="B179" t="n">
-        <v>88489</v>
+        <v>90652</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21966,34 +21966,43 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr"/>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P179" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>437892.4817196695</v>
+        <v>437849.4557670459</v>
       </c>
       <c r="R179" t="n">
-        <v>6953090.40240525</v>
+        <v>6953246.83996963</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -22050,14 +22059,6 @@
       <c r="AI179" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN179" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO179" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT179" t="inlineStr"/>
@@ -22079,10 +22080,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973743</v>
+        <v>111973742</v>
       </c>
       <c r="B180" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -22095,21 +22096,21 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -22128,10 +22129,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>437633.050214521</v>
+        <v>437768.9973591214</v>
       </c>
       <c r="R180" t="n">
-        <v>6953301.881070362</v>
+        <v>6953319.511656794</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -22143,7 +22144,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
@@ -22153,7 +22154,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr">
@@ -22187,7 +22188,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT180" t="inlineStr"/>
@@ -22209,10 +22210,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973741</v>
+        <v>111973683</v>
       </c>
       <c r="B181" t="n">
-        <v>90682</v>
+        <v>88010</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -22221,25 +22222,25 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -22258,10 +22259,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>437770.6617250814</v>
+        <v>438569.6720420276</v>
       </c>
       <c r="R181" t="n">
-        <v>6953334.629086277</v>
+        <v>6953139.69648798</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -22273,7 +22274,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
@@ -22283,7 +22284,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
@@ -22317,7 +22318,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -22339,10 +22340,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973708</v>
+        <v>111973648</v>
       </c>
       <c r="B182" t="n">
-        <v>90654</v>
+        <v>90682</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22351,25 +22352,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>149</v>
+        <v>2059</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -22388,10 +22389,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>438068.6025824957</v>
+        <v>438637.1037644488</v>
       </c>
       <c r="R182" t="n">
-        <v>6953092.599814337</v>
+        <v>6953601.158154471</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -22447,7 +22448,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22469,10 +22470,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973698</v>
+        <v>111973738</v>
       </c>
       <c r="B183" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22485,21 +22486,21 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -22518,10 +22519,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>438207.123851296</v>
+        <v>437818.6501005701</v>
       </c>
       <c r="R183" t="n">
-        <v>6953100.10165237</v>
+        <v>6953417.270802823</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22533,7 +22534,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
@@ -22543,7 +22544,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -22577,7 +22578,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -22599,10 +22600,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973705</v>
+        <v>111973717</v>
       </c>
       <c r="B184" t="n">
-        <v>90682</v>
+        <v>88010</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22611,25 +22612,25 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -22648,10 +22649,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>438039.6778841515</v>
+        <v>437925.4602650506</v>
       </c>
       <c r="R184" t="n">
-        <v>6953070.188645583</v>
+        <v>6953181.597826566</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22729,7 +22730,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973694</v>
+        <v>111973665</v>
       </c>
       <c r="B185" t="n">
         <v>88032</v>
@@ -22778,10 +22779,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438325.5423512529</v>
+        <v>438214.6362894689</v>
       </c>
       <c r="R185" t="n">
-        <v>6953163.533631108</v>
+        <v>6953402.942781798</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22859,10 +22860,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973687</v>
+        <v>111973802</v>
       </c>
       <c r="B186" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22871,25 +22872,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22908,10 +22909,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>438548.7713177125</v>
+        <v>437785.6957705052</v>
       </c>
       <c r="R186" t="n">
-        <v>6953054.237334216</v>
+        <v>6953083.69221758</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22967,7 +22968,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -22989,10 +22990,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973722</v>
+        <v>111973732</v>
       </c>
       <c r="B187" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23001,25 +23002,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -23038,10 +23039,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>437913.6481065798</v>
+        <v>437870.3376588458</v>
       </c>
       <c r="R187" t="n">
-        <v>6953091.381175105</v>
+        <v>6953354.784377262</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23097,7 +23098,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr"/>
@@ -23119,10 +23120,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973684</v>
+        <v>111973764</v>
       </c>
       <c r="B188" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23135,21 +23136,21 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -23168,10 +23169,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>438577.1343039292</v>
+        <v>437776.3383109252</v>
       </c>
       <c r="R188" t="n">
-        <v>6953120.735309405</v>
+        <v>6953123.809258236</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23249,7 +23250,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973670</v>
+        <v>111973727</v>
       </c>
       <c r="B189" t="n">
         <v>90660</v>
@@ -23298,10 +23299,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>437925.5671573002</v>
+        <v>437870.6858627723</v>
       </c>
       <c r="R189" t="n">
-        <v>6953260.555743226</v>
+        <v>6953178.038412376</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23379,10 +23380,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973745</v>
+        <v>111973651</v>
       </c>
       <c r="B190" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23395,21 +23396,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -23428,10 +23429,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>437646.7856703376</v>
+        <v>438594.9557070844</v>
       </c>
       <c r="R190" t="n">
-        <v>6953396.18633649</v>
+        <v>6953584.041166852</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23443,7 +23444,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
@@ -23453,7 +23454,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -23487,7 +23488,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -23509,10 +23510,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973648</v>
+        <v>111973724</v>
       </c>
       <c r="B191" t="n">
-        <v>90682</v>
+        <v>88489</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -23525,43 +23526,34 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="P191" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>438637.1037644488</v>
+        <v>437892.4817196695</v>
       </c>
       <c r="R191" t="n">
-        <v>6953601.158154471</v>
+        <v>6953090.40240525</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -23617,7 +23609,15 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO191" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr"/>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973688</v>
+        <v>111973713</v>
       </c>
       <c r="B192" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23651,25 +23651,25 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>438543.8591373209</v>
+        <v>438002.4574124058</v>
       </c>
       <c r="R192" t="n">
-        <v>6953037.342524837</v>
+        <v>6953193.462733216</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -23769,10 +23769,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973800</v>
+        <v>111973671</v>
       </c>
       <c r="B193" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23781,25 +23781,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -23818,10 +23818,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>437771.6747036168</v>
+        <v>438033.4411253001</v>
       </c>
       <c r="R193" t="n">
-        <v>6953071.561281924</v>
+        <v>6953252.100307667</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23899,10 +23899,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973767</v>
+        <v>111973709</v>
       </c>
       <c r="B194" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23915,21 +23915,21 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23948,10 +23948,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>437702.0952541633</v>
+        <v>438062.0622929674</v>
       </c>
       <c r="R194" t="n">
-        <v>6953233.552758955</v>
+        <v>6953111.545111132</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -24029,10 +24029,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973667</v>
+        <v>111973674</v>
       </c>
       <c r="B195" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24045,21 +24045,21 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -24078,10 +24078,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>438213.507009695</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R195" t="n">
-        <v>6953416.276142</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24137,7 +24137,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -24159,10 +24159,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973655</v>
+        <v>111973673</v>
       </c>
       <c r="B196" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -24175,21 +24175,21 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -24208,10 +24208,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>438489.0756873108</v>
+        <v>438126.6098378488</v>
       </c>
       <c r="R196" t="n">
-        <v>6953526.341858554</v>
+        <v>6953243.924237223</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -24267,7 +24267,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -24289,10 +24289,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973658</v>
+        <v>111973653</v>
       </c>
       <c r="B197" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24301,25 +24301,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -24338,10 +24338,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>438250.4063445947</v>
+        <v>438544.6107581231</v>
       </c>
       <c r="R197" t="n">
-        <v>6953324.693784647</v>
+        <v>6953546.421492521</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24419,10 +24419,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973690</v>
+        <v>111973715</v>
       </c>
       <c r="B198" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24431,25 +24431,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -24468,10 +24468,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>438392.7937311309</v>
+        <v>437962.8122493967</v>
       </c>
       <c r="R198" t="n">
-        <v>6953047.506099407</v>
+        <v>6953212.111986059</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24549,10 +24549,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973714</v>
+        <v>111973652</v>
       </c>
       <c r="B199" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -24565,21 +24565,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>437974.9333715859</v>
+        <v>438537.7865028595</v>
       </c>
       <c r="R199" t="n">
-        <v>6953221.065410748</v>
+        <v>6953550.220835418</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24657,7 +24657,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24679,10 +24679,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973701</v>
+        <v>111973733</v>
       </c>
       <c r="B200" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -24695,21 +24695,21 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -24728,10 +24728,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>438134.3562496312</v>
+        <v>437876.3203048867</v>
       </c>
       <c r="R200" t="n">
-        <v>6953093.202189791</v>
+        <v>6953355.130729643</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -24809,7 +24809,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973736</v>
+        <v>111973698</v>
       </c>
       <c r="B201" t="n">
         <v>90660</v>
@@ -24858,10 +24858,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>437842.6892572012</v>
+        <v>438207.123851296</v>
       </c>
       <c r="R201" t="n">
-        <v>6953497.608170006</v>
+        <v>6953100.10165237</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24873,7 +24873,7 @@
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
@@ -24883,7 +24883,7 @@
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -24939,10 +24939,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973766</v>
+        <v>111973686</v>
       </c>
       <c r="B202" t="n">
-        <v>90652</v>
+        <v>90300</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24955,21 +24955,21 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3100</v>
+        <v>4745</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24988,10 +24988,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>437707.7139296347</v>
+        <v>438557.4797566309</v>
       </c>
       <c r="R202" t="n">
-        <v>6953238.955457177</v>
+        <v>6953077.488546882</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -25069,10 +25069,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973671</v>
+        <v>111973730</v>
       </c>
       <c r="B203" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -25081,25 +25081,25 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -25118,10 +25118,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>438033.4411253001</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R203" t="n">
-        <v>6953252.100307667</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -25199,10 +25199,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973681</v>
+        <v>111973731</v>
       </c>
       <c r="B204" t="n">
-        <v>90652</v>
+        <v>88010</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -25211,25 +25211,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -25248,10 +25248,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>438493.2177188767</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R204" t="n">
-        <v>6953181.51986871</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -25329,10 +25329,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973709</v>
+        <v>111973687</v>
       </c>
       <c r="B205" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -25345,21 +25345,21 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -25378,10 +25378,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>438062.0622929674</v>
+        <v>438548.7713177125</v>
       </c>
       <c r="R205" t="n">
-        <v>6953111.545111132</v>
+        <v>6953054.237334216</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -25459,10 +25459,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973672</v>
+        <v>111973660</v>
       </c>
       <c r="B206" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -25475,21 +25475,21 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -25508,10 +25508,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438161.9732156845</v>
+        <v>438117.6502478332</v>
       </c>
       <c r="R206" t="n">
-        <v>6953217.553276672</v>
+        <v>6953329.936377568</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -25567,7 +25567,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -25589,10 +25589,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973697</v>
+        <v>111973736</v>
       </c>
       <c r="B207" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -25601,25 +25601,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -25638,10 +25638,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>438216.5943784415</v>
+        <v>437842.6892572012</v>
       </c>
       <c r="R207" t="n">
-        <v>6953090.283452681</v>
+        <v>6953497.608170006</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -25653,7 +25653,7 @@
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
@@ -25663,7 +25663,7 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
@@ -25697,7 +25697,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -23120,10 +23120,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973764</v>
+        <v>111973724</v>
       </c>
       <c r="B188" t="n">
-        <v>90660</v>
+        <v>88489</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23136,43 +23136,34 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>437776.3383109252</v>
+        <v>437892.4817196695</v>
       </c>
       <c r="R188" t="n">
-        <v>6953123.809258236</v>
+        <v>6953090.40240525</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23229,6 +23220,14 @@
       <c r="AI188" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO188" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT188" t="inlineStr"/>
@@ -23250,10 +23249,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973727</v>
+        <v>111973651</v>
       </c>
       <c r="B189" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23266,21 +23265,21 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23299,10 +23298,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>437870.6858627723</v>
+        <v>438594.9557070844</v>
       </c>
       <c r="R189" t="n">
-        <v>6953178.038412376</v>
+        <v>6953584.041166852</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23358,7 +23357,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -23380,10 +23379,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973651</v>
+        <v>111973764</v>
       </c>
       <c r="B190" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23396,21 +23395,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -23429,10 +23428,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>438594.9557070844</v>
+        <v>437776.3383109252</v>
       </c>
       <c r="R190" t="n">
-        <v>6953584.041166852</v>
+        <v>6953123.809258236</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23488,7 +23487,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -23510,10 +23509,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973724</v>
+        <v>111973727</v>
       </c>
       <c r="B191" t="n">
-        <v>88489</v>
+        <v>90660</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -23526,34 +23525,43 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P191" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>437892.4817196695</v>
+        <v>437870.6858627723</v>
       </c>
       <c r="R191" t="n">
-        <v>6953090.40240525</v>
+        <v>6953178.038412376</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -23610,14 +23618,6 @@
       <c r="AI191" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN191" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO191" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr"/>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973713</v>
+        <v>111973715</v>
       </c>
       <c r="B192" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23651,25 +23651,25 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>438002.4574124058</v>
+        <v>437962.8122493967</v>
       </c>
       <c r="R192" t="n">
-        <v>6953193.462733216</v>
+        <v>6953212.111986059</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -23769,10 +23769,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973671</v>
+        <v>111973713</v>
       </c>
       <c r="B193" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23781,25 +23781,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -23818,10 +23818,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>438033.4411253001</v>
+        <v>438002.4574124058</v>
       </c>
       <c r="R193" t="n">
-        <v>6953252.100307667</v>
+        <v>6953193.462733216</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23899,10 +23899,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973709</v>
+        <v>111973652</v>
       </c>
       <c r="B194" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23915,21 +23915,21 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23948,10 +23948,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>438062.0622929674</v>
+        <v>438537.7865028595</v>
       </c>
       <c r="R194" t="n">
-        <v>6953111.545111132</v>
+        <v>6953550.220835418</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -24007,7 +24007,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -24029,10 +24029,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973674</v>
+        <v>111973671</v>
       </c>
       <c r="B195" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24041,25 +24041,25 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -24078,10 +24078,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>438160.5186564626</v>
+        <v>438033.4411253001</v>
       </c>
       <c r="R195" t="n">
-        <v>6953262.568950667</v>
+        <v>6953252.100307667</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24137,7 +24137,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -24159,10 +24159,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973673</v>
+        <v>111973733</v>
       </c>
       <c r="B196" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -24175,21 +24175,21 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -24208,10 +24208,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>438126.6098378488</v>
+        <v>437876.3203048867</v>
       </c>
       <c r="R196" t="n">
-        <v>6953243.924237223</v>
+        <v>6953355.130729643</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -24267,7 +24267,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -24289,10 +24289,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973653</v>
+        <v>111973709</v>
       </c>
       <c r="B197" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24301,25 +24301,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -24338,10 +24338,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>438544.6107581231</v>
+        <v>438062.0622929674</v>
       </c>
       <c r="R197" t="n">
-        <v>6953546.421492521</v>
+        <v>6953111.545111132</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24397,7 +24397,7 @@
       </c>
       <c r="AI197" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT197" t="inlineStr"/>
@@ -24419,10 +24419,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973715</v>
+        <v>111973674</v>
       </c>
       <c r="B198" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24431,25 +24431,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -24468,10 +24468,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>437962.8122493967</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R198" t="n">
-        <v>6953212.111986059</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24527,7 +24527,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -24549,10 +24549,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973652</v>
+        <v>111973673</v>
       </c>
       <c r="B199" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -24565,21 +24565,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>438537.7865028595</v>
+        <v>438126.6098378488</v>
       </c>
       <c r="R199" t="n">
-        <v>6953550.220835418</v>
+        <v>6953243.924237223</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24657,7 +24657,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24679,7 +24679,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973733</v>
+        <v>111973698</v>
       </c>
       <c r="B200" t="n">
         <v>90660</v>
@@ -24728,10 +24728,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>437876.3203048867</v>
+        <v>438207.123851296</v>
       </c>
       <c r="R200" t="n">
-        <v>6953355.130729643</v>
+        <v>6953100.10165237</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -24809,10 +24809,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973698</v>
+        <v>111973653</v>
       </c>
       <c r="B201" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -24821,25 +24821,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -24858,10 +24858,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>438207.123851296</v>
+        <v>438544.6107581231</v>
       </c>
       <c r="R201" t="n">
-        <v>6953100.10165237</v>
+        <v>6953546.421492521</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24917,7 +24917,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12268,10 +12268,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111470428</v>
+        <v>111470469</v>
       </c>
       <c r="B104" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12280,39 +12280,39 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>438604.941655435</v>
+        <v>438639.4875314611</v>
       </c>
       <c r="R104" t="n">
-        <v>6953527.854930924</v>
+        <v>6953482.227441453</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12381,7 +12381,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111470729</v>
+        <v>111470552</v>
       </c>
       <c r="B105" t="n">
         <v>90660</v>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>438463.2458509306</v>
+        <v>438592.3192865716</v>
       </c>
       <c r="R105" t="n">
-        <v>6953496.987061457</v>
+        <v>6953491.82694263</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12494,10 +12494,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111470469</v>
+        <v>111470729</v>
       </c>
       <c r="B106" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12506,25 +12506,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12535,10 +12535,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>438639.4875314611</v>
+        <v>438463.2458509306</v>
       </c>
       <c r="R106" t="n">
-        <v>6953482.227441453</v>
+        <v>6953496.987061457</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12607,7 +12607,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111470552</v>
+        <v>111470428</v>
       </c>
       <c r="B107" t="n">
         <v>90660</v>
@@ -12644,14 +12644,14 @@
       <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Aloppmoarna (Aloppmoarna), Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>438592.3192865716</v>
+        <v>438604.941655435</v>
       </c>
       <c r="R107" t="n">
-        <v>6953491.82694263</v>
+        <v>6953527.854930924</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12720,7 +12720,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973716</v>
+        <v>111973735</v>
       </c>
       <c r="B108" t="n">
         <v>90660</v>
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>437942.142677932</v>
+        <v>437908.4053289952</v>
       </c>
       <c r="R108" t="n">
-        <v>6953188.629084867</v>
+        <v>6953423.383435746</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12784,7 +12784,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT108" t="inlineStr"/>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973655</v>
+        <v>111973651</v>
       </c>
       <c r="B109" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12866,21 +12866,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12899,10 +12899,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>438489.0756873108</v>
+        <v>438594.9557070844</v>
       </c>
       <c r="R109" t="n">
-        <v>6953526.341858554</v>
+        <v>6953584.041166852</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973767</v>
+        <v>111973734</v>
       </c>
       <c r="B110" t="n">
         <v>90660</v>
@@ -13029,10 +13029,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>437702.0952541633</v>
+        <v>437925.1695921989</v>
       </c>
       <c r="R110" t="n">
-        <v>6953233.552758955</v>
+        <v>6953361.555738406</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13088,7 +13088,7 @@
       </c>
       <c r="AI110" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT110" t="inlineStr"/>
@@ -13110,10 +13110,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973703</v>
+        <v>111973729</v>
       </c>
       <c r="B111" t="n">
-        <v>88010</v>
+        <v>90652</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13122,25 +13122,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -13159,10 +13159,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>438029.3740389285</v>
+        <v>437849.4557670459</v>
       </c>
       <c r="R111" t="n">
-        <v>6953011.159128131</v>
+        <v>6953246.83996963</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13240,10 +13240,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973650</v>
+        <v>111973689</v>
       </c>
       <c r="B112" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13256,21 +13256,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -13289,10 +13289,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>438617.2579858238</v>
+        <v>438478.4845183876</v>
       </c>
       <c r="R112" t="n">
-        <v>6953572.150569057</v>
+        <v>6953007.801968225</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr"/>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973692</v>
+        <v>111973711</v>
       </c>
       <c r="B113" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13386,21 +13386,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>438375.4788469387</v>
+        <v>438030.8777618795</v>
       </c>
       <c r="R113" t="n">
-        <v>6953080.424831095</v>
+        <v>6953140.134856743</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13500,10 +13500,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973705</v>
+        <v>111973658</v>
       </c>
       <c r="B114" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13516,21 +13516,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -13549,10 +13549,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>438039.6778841515</v>
+        <v>438250.4063445947</v>
       </c>
       <c r="R114" t="n">
-        <v>6953070.188645583</v>
+        <v>6953324.693784647</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr"/>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973712</v>
+        <v>111973666</v>
       </c>
       <c r="B115" t="n">
         <v>90652</v>
@@ -13679,10 +13679,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>438007.0616481225</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R115" t="n">
-        <v>6953193.835261973</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13760,10 +13760,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973688</v>
+        <v>111973669</v>
       </c>
       <c r="B116" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13772,25 +13772,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>438543.8591373209</v>
+        <v>437912.8137109271</v>
       </c>
       <c r="R116" t="n">
-        <v>6953037.342524837</v>
+        <v>6953242.433193879</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13890,10 +13890,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973654</v>
+        <v>111973727</v>
       </c>
       <c r="B117" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13906,21 +13906,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13939,10 +13939,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>438507.0138575528</v>
+        <v>437870.6858627723</v>
       </c>
       <c r="R117" t="n">
-        <v>6953526.92536923</v>
+        <v>6953178.038412376</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr"/>
@@ -14020,7 +14020,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973761</v>
+        <v>111973677</v>
       </c>
       <c r="B118" t="n">
         <v>90300</v>
@@ -14069,10 +14069,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>437571.0975250818</v>
+        <v>438218.2330045793</v>
       </c>
       <c r="R118" t="n">
-        <v>6953283.313539348</v>
+        <v>6953251.387939887</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14150,10 +14150,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973701</v>
+        <v>111973732</v>
       </c>
       <c r="B119" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14166,21 +14166,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -14199,10 +14199,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>438134.3562496312</v>
+        <v>437870.3376588458</v>
       </c>
       <c r="R119" t="n">
-        <v>6953093.202189791</v>
+        <v>6953354.784377262</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="AI119" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT119" t="inlineStr"/>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973696</v>
+        <v>111973705</v>
       </c>
       <c r="B120" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14296,21 +14296,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>438244.0616158294</v>
+        <v>438039.6778841515</v>
       </c>
       <c r="R120" t="n">
-        <v>6953108.59152039</v>
+        <v>6953070.188645583</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14410,10 +14410,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973721</v>
+        <v>111973803</v>
       </c>
       <c r="B121" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14426,21 +14426,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -14459,10 +14459,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>437964.8874965879</v>
+        <v>437808.5351863222</v>
       </c>
       <c r="R121" t="n">
-        <v>6953078.02169135</v>
+        <v>6953100.247750094</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973762</v>
+        <v>111973675</v>
       </c>
       <c r="B122" t="n">
         <v>90660</v>
@@ -14589,10 +14589,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>437599.103955319</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R122" t="n">
-        <v>6953281.406344013</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr"/>
@@ -14670,7 +14670,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973743</v>
+        <v>111973713</v>
       </c>
       <c r="B123" t="n">
         <v>90660</v>
@@ -14719,10 +14719,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>437633.050214521</v>
+        <v>438002.4574124058</v>
       </c>
       <c r="R123" t="n">
-        <v>6953301.881070362</v>
+        <v>6953193.462733216</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr"/>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973744</v>
+        <v>111973665</v>
       </c>
       <c r="B124" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14812,25 +14812,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -14849,10 +14849,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>437686.9991506658</v>
+        <v>438214.6362894689</v>
       </c>
       <c r="R124" t="n">
-        <v>6953383.491049132</v>
+        <v>6953402.942781798</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14930,10 +14930,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973718</v>
+        <v>111973679</v>
       </c>
       <c r="B125" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14946,21 +14946,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -14979,10 +14979,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>437913.625653744</v>
+        <v>438324.49743335</v>
       </c>
       <c r="R125" t="n">
-        <v>6953163.457536075</v>
+        <v>6953230.577437581</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -15060,10 +15060,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111973662</v>
+        <v>111973745</v>
       </c>
       <c r="B126" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15072,25 +15072,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -15109,10 +15109,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>438148.3758962485</v>
+        <v>437646.7856703376</v>
       </c>
       <c r="R126" t="n">
-        <v>6953350.476376175</v>
+        <v>6953396.18633649</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="AI126" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr"/>
@@ -15190,10 +15190,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973679</v>
+        <v>111973717</v>
       </c>
       <c r="B127" t="n">
-        <v>90660</v>
+        <v>88010</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15202,25 +15202,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -15239,10 +15239,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>438324.49743335</v>
+        <v>437925.4602650506</v>
       </c>
       <c r="R127" t="n">
-        <v>6953230.577437581</v>
+        <v>6953181.597826566</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973720</v>
+        <v>111973650</v>
       </c>
       <c r="B128" t="n">
         <v>90652</v>
@@ -15369,10 +15369,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>437936.1394948753</v>
+        <v>438617.2579858238</v>
       </c>
       <c r="R128" t="n">
-        <v>6953113.912172817</v>
+        <v>6953572.150569057</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="AI128" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT128" t="inlineStr"/>
@@ -15450,10 +15450,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973699</v>
+        <v>111973670</v>
       </c>
       <c r="B129" t="n">
-        <v>90654</v>
+        <v>90660</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15462,25 +15462,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>438167.2097542446</v>
+        <v>437925.5671573002</v>
       </c>
       <c r="R129" t="n">
-        <v>6953104.522341937</v>
+        <v>6953260.555743226</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15580,10 +15580,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973763</v>
+        <v>111973698</v>
       </c>
       <c r="B130" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15596,21 +15596,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15629,10 +15629,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>437630.1355663574</v>
+        <v>438207.123851296</v>
       </c>
       <c r="R130" t="n">
-        <v>6953220.681589473</v>
+        <v>6953100.10165237</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15710,10 +15710,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973656</v>
+        <v>111973686</v>
       </c>
       <c r="B131" t="n">
-        <v>88032</v>
+        <v>90300</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15722,25 +15722,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15759,10 +15759,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>438305.464494833</v>
+        <v>438557.4797566309</v>
       </c>
       <c r="R131" t="n">
-        <v>6953417.308850316</v>
+        <v>6953077.488546882</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr"/>
@@ -15840,10 +15840,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973691</v>
+        <v>111973696</v>
       </c>
       <c r="B132" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15856,21 +15856,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15889,10 +15889,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>438380.4570261125</v>
+        <v>438244.0616158294</v>
       </c>
       <c r="R132" t="n">
-        <v>6953076.200047398</v>
+        <v>6953108.59152039</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15970,10 +15970,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973734</v>
+        <v>111973648</v>
       </c>
       <c r="B133" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15986,21 +15986,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -16019,10 +16019,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>437925.1695921989</v>
+        <v>438637.1037644488</v>
       </c>
       <c r="R133" t="n">
-        <v>6953361.555738406</v>
+        <v>6953601.158154471</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973695</v>
+        <v>111973693</v>
       </c>
       <c r="B134" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16116,21 +16116,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -16149,10 +16149,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>438290.0744879689</v>
+        <v>438340.8243944077</v>
       </c>
       <c r="R134" t="n">
-        <v>6953135.275183067</v>
+        <v>6953144.884858144</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16230,10 +16230,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973741</v>
+        <v>111973695</v>
       </c>
       <c r="B135" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16246,21 +16246,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16279,10 +16279,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>437770.6617250814</v>
+        <v>438290.0744879689</v>
       </c>
       <c r="R135" t="n">
-        <v>6953334.629086277</v>
+        <v>6953135.275183067</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973667</v>
+        <v>111973764</v>
       </c>
       <c r="B136" t="n">
         <v>90660</v>
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>438213.507009695</v>
+        <v>437776.3383109252</v>
       </c>
       <c r="R136" t="n">
-        <v>6953416.276142</v>
+        <v>6953123.809258236</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16490,7 +16490,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973649</v>
+        <v>111973719</v>
       </c>
       <c r="B137" t="n">
         <v>90682</v>
@@ -16539,10 +16539,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>438643.9109478882</v>
+        <v>437937.8271789091</v>
       </c>
       <c r="R137" t="n">
-        <v>6953596.441367409</v>
+        <v>6953154.738653069</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -16620,10 +16620,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973677</v>
+        <v>111973768</v>
       </c>
       <c r="B138" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16636,21 +16636,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16669,10 +16669,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>438218.2330045793</v>
+        <v>437637.973121325</v>
       </c>
       <c r="R138" t="n">
-        <v>6953251.387939887</v>
+        <v>6953148.917516032</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16750,10 +16750,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973684</v>
+        <v>111973673</v>
       </c>
       <c r="B139" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16766,21 +16766,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16799,10 +16799,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>438577.1343039292</v>
+        <v>438126.6098378488</v>
       </c>
       <c r="R139" t="n">
-        <v>6953120.735309405</v>
+        <v>6953243.924237223</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="AI139" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT139" t="inlineStr"/>
@@ -16880,10 +16880,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973704</v>
+        <v>111973718</v>
       </c>
       <c r="B140" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16896,21 +16896,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16929,10 +16929,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438039.8702126255</v>
+        <v>437913.625653744</v>
       </c>
       <c r="R140" t="n">
-        <v>6953055.95322452</v>
+        <v>6953163.457536075</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -17010,10 +17010,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973711</v>
+        <v>111973662</v>
       </c>
       <c r="B141" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -17022,25 +17022,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -17059,10 +17059,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>438030.8777618795</v>
+        <v>438148.3758962485</v>
       </c>
       <c r="R141" t="n">
-        <v>6953140.134856743</v>
+        <v>6953350.476376175</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="AI141" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr"/>
@@ -17140,7 +17140,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973739</v>
+        <v>111973692</v>
       </c>
       <c r="B142" t="n">
         <v>90682</v>
@@ -17189,10 +17189,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>437780.5956911595</v>
+        <v>438375.4788469387</v>
       </c>
       <c r="R142" t="n">
-        <v>6953422.578950249</v>
+        <v>6953080.424831095</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -17214,7 +17214,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -17270,7 +17270,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973666</v>
+        <v>111973723</v>
       </c>
       <c r="B143" t="n">
         <v>90652</v>
@@ -17319,10 +17319,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>438213.507009695</v>
+        <v>437903.5547303436</v>
       </c>
       <c r="R143" t="n">
-        <v>6953416.276142</v>
+        <v>6953092.489357711</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17400,10 +17400,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973722</v>
+        <v>111973738</v>
       </c>
       <c r="B144" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17412,25 +17412,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -17449,10 +17449,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>437913.6481065798</v>
+        <v>437818.6501005701</v>
       </c>
       <c r="R144" t="n">
-        <v>6953091.381175105</v>
+        <v>6953417.270802823</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="AI144" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT144" t="inlineStr"/>
@@ -17530,10 +17530,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973663</v>
+        <v>111973653</v>
       </c>
       <c r="B145" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17542,25 +17542,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -17579,10 +17579,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>438169.8244046976</v>
+        <v>438544.6107581231</v>
       </c>
       <c r="R145" t="n">
-        <v>6953366.599956161</v>
+        <v>6953546.421492521</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr"/>
@@ -17660,10 +17660,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973737</v>
+        <v>111973762</v>
       </c>
       <c r="B146" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17672,25 +17672,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -17709,10 +17709,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>437826.2275051199</v>
+        <v>437599.103955319</v>
       </c>
       <c r="R146" t="n">
-        <v>6953429.063032418</v>
+        <v>6953281.406344013</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17768,7 +17768,7 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -17790,10 +17790,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973680</v>
+        <v>111973763</v>
       </c>
       <c r="B147" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17806,21 +17806,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -17839,10 +17839,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>438403.109237605</v>
+        <v>437630.1355663574</v>
       </c>
       <c r="R147" t="n">
-        <v>6953181.365192754</v>
+        <v>6953220.681589473</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17920,10 +17920,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973676</v>
+        <v>111973731</v>
       </c>
       <c r="B148" t="n">
-        <v>90660</v>
+        <v>88010</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17932,25 +17932,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -17969,10 +17969,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>438195.4617540331</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R148" t="n">
-        <v>6953262.832081575</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr"/>
@@ -18050,10 +18050,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973803</v>
+        <v>111973767</v>
       </c>
       <c r="B149" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -18066,21 +18066,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -18099,10 +18099,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>437808.5351863222</v>
+        <v>437702.0952541633</v>
       </c>
       <c r="R149" t="n">
-        <v>6953100.247750094</v>
+        <v>6953233.552758955</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="AI149" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -18180,7 +18180,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973723</v>
+        <v>111973681</v>
       </c>
       <c r="B150" t="n">
         <v>90652</v>
@@ -18229,10 +18229,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>437903.5547303436</v>
+        <v>438493.2177188767</v>
       </c>
       <c r="R150" t="n">
-        <v>6953092.489357711</v>
+        <v>6953181.51986871</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18310,10 +18310,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973745</v>
+        <v>111973736</v>
       </c>
       <c r="B151" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18326,21 +18326,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -18359,10 +18359,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>437646.7856703376</v>
+        <v>437842.6892572012</v>
       </c>
       <c r="R151" t="n">
-        <v>6953396.18633649</v>
+        <v>6953497.608170006</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -18570,7 +18570,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973681</v>
+        <v>111973706</v>
       </c>
       <c r="B153" t="n">
         <v>90652</v>
@@ -18619,10 +18619,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438493.2177188767</v>
+        <v>438039.4596956634</v>
       </c>
       <c r="R153" t="n">
-        <v>6953181.51986871</v>
+        <v>6953083.047228135</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18700,10 +18700,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973658</v>
+        <v>111973697</v>
       </c>
       <c r="B154" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18712,25 +18712,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18749,10 +18749,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438250.4063445947</v>
+        <v>438216.5943784415</v>
       </c>
       <c r="R154" t="n">
-        <v>6953324.693784647</v>
+        <v>6953090.283452681</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18808,7 +18808,7 @@
       </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973735</v>
+        <v>111973655</v>
       </c>
       <c r="B155" t="n">
         <v>90660</v>
@@ -18879,10 +18879,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>437908.4053289952</v>
+        <v>438489.0756873108</v>
       </c>
       <c r="R155" t="n">
-        <v>6953423.383435746</v>
+        <v>6953526.341858554</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="AI155" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr"/>
@@ -18960,10 +18960,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973766</v>
+        <v>111973740</v>
       </c>
       <c r="B156" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18976,21 +18976,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -19009,10 +19009,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>437707.7139296347</v>
+        <v>437784.9752950897</v>
       </c>
       <c r="R156" t="n">
-        <v>6953238.955457177</v>
+        <v>6953386.690837187</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -19024,7 +19024,7 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
@@ -19034,7 +19034,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="AI156" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -19090,10 +19090,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973707</v>
+        <v>111973802</v>
       </c>
       <c r="B157" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -19102,25 +19102,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -19139,10 +19139,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>438067.7466216629</v>
+        <v>437785.6957705052</v>
       </c>
       <c r="R157" t="n">
-        <v>6953071.497848171</v>
+        <v>6953083.69221758</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973669</v>
+        <v>111973660</v>
       </c>
       <c r="B158" t="n">
         <v>90660</v>
@@ -19269,10 +19269,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>437912.8137109271</v>
+        <v>438117.6502478332</v>
       </c>
       <c r="R158" t="n">
-        <v>6953242.433193879</v>
+        <v>6953329.936377568</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -19328,7 +19328,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973725</v>
+        <v>111973739</v>
       </c>
       <c r="B159" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -19366,21 +19366,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -19399,10 +19399,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>437859.825927439</v>
+        <v>437780.5956911595</v>
       </c>
       <c r="R159" t="n">
-        <v>6953089.64020811</v>
+        <v>6953422.578950249</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19414,7 +19414,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
@@ -19424,7 +19424,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="AI159" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr"/>
@@ -19480,10 +19480,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973690</v>
+        <v>111973720</v>
       </c>
       <c r="B160" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19492,25 +19492,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19529,10 +19529,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>438392.7937311309</v>
+        <v>437936.1394948753</v>
       </c>
       <c r="R160" t="n">
-        <v>6953047.506099407</v>
+        <v>6953113.912172817</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19610,10 +19610,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973714</v>
+        <v>111973701</v>
       </c>
       <c r="B161" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19626,21 +19626,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19659,10 +19659,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>437974.9333715859</v>
+        <v>438134.3562496312</v>
       </c>
       <c r="R161" t="n">
-        <v>6953221.065410748</v>
+        <v>6953093.202189791</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19740,10 +19740,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973801</v>
+        <v>111973703</v>
       </c>
       <c r="B162" t="n">
-        <v>90660</v>
+        <v>88010</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19752,25 +19752,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19789,10 +19789,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>437774.9523556355</v>
+        <v>438029.3740389285</v>
       </c>
       <c r="R162" t="n">
-        <v>6953074.713081508</v>
+        <v>6953011.159128131</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19848,7 +19848,7 @@
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -19870,10 +19870,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973768</v>
+        <v>111973716</v>
       </c>
       <c r="B163" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19886,21 +19886,21 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -19919,10 +19919,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>437637.973121325</v>
+        <v>437942.142677932</v>
       </c>
       <c r="R163" t="n">
-        <v>6953148.917516032</v>
+        <v>6953188.629084867</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -20000,10 +20000,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973689</v>
+        <v>111973761</v>
       </c>
       <c r="B164" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -20016,21 +20016,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -20049,10 +20049,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>438478.4845183876</v>
+        <v>437571.0975250818</v>
       </c>
       <c r="R164" t="n">
-        <v>6953007.801968225</v>
+        <v>6953283.313539348</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
@@ -20074,7 +20074,7 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
@@ -20130,10 +20130,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973700</v>
+        <v>111973715</v>
       </c>
       <c r="B165" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -20142,25 +20142,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>438151.4465756729</v>
+        <v>437962.8122493967</v>
       </c>
       <c r="R165" t="n">
-        <v>6953097.472532819</v>
+        <v>6953212.111986059</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -20260,10 +20260,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973726</v>
+        <v>111973663</v>
       </c>
       <c r="B166" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -20276,21 +20276,21 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -20309,10 +20309,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>437857.8639418939</v>
+        <v>438169.8244046976</v>
       </c>
       <c r="R166" t="n">
-        <v>6953131.912996286</v>
+        <v>6953366.599956161</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -20390,10 +20390,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973697</v>
+        <v>111973704</v>
       </c>
       <c r="B167" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -20402,25 +20402,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -20439,10 +20439,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>438216.5943784415</v>
+        <v>438039.8702126255</v>
       </c>
       <c r="R167" t="n">
-        <v>6953090.283452681</v>
+        <v>6953055.95322452</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -20520,10 +20520,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973670</v>
+        <v>111973766</v>
       </c>
       <c r="B168" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -20536,21 +20536,21 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -20569,10 +20569,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>437925.5671573002</v>
+        <v>437707.7139296347</v>
       </c>
       <c r="R168" t="n">
-        <v>6953260.555743226</v>
+        <v>6953238.955457177</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20650,10 +20650,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973719</v>
+        <v>111973707</v>
       </c>
       <c r="B169" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20666,21 +20666,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -20699,10 +20699,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>437937.8271789091</v>
+        <v>438067.7466216629</v>
       </c>
       <c r="R169" t="n">
-        <v>6953154.738653069</v>
+        <v>6953071.497848171</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20780,10 +20780,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973708</v>
+        <v>111973691</v>
       </c>
       <c r="B170" t="n">
-        <v>90654</v>
+        <v>90652</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20792,25 +20792,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -20829,10 +20829,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>438068.6025824957</v>
+        <v>438380.4570261125</v>
       </c>
       <c r="R170" t="n">
-        <v>6953092.599814337</v>
+        <v>6953076.200047398</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20910,10 +20910,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973672</v>
+        <v>111973667</v>
       </c>
       <c r="B171" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20926,21 +20926,21 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -20959,10 +20959,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>438161.9732156845</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R171" t="n">
-        <v>6953217.553276672</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="AI171" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT171" t="inlineStr"/>
@@ -21040,10 +21040,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973740</v>
+        <v>111973714</v>
       </c>
       <c r="B172" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -21056,21 +21056,21 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -21089,10 +21089,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>437784.9752950897</v>
+        <v>437974.9333715859</v>
       </c>
       <c r="R172" t="n">
-        <v>6953386.690837187</v>
+        <v>6953221.065410748</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr"/>
@@ -21170,10 +21170,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973706</v>
+        <v>111973684</v>
       </c>
       <c r="B173" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21186,21 +21186,21 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -21219,10 +21219,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>438039.4596956634</v>
+        <v>438577.1343039292</v>
       </c>
       <c r="R173" t="n">
-        <v>6953083.047228135</v>
+        <v>6953120.735309405</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -21300,7 +21300,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973800</v>
+        <v>111973709</v>
       </c>
       <c r="B174" t="n">
         <v>90682</v>
@@ -21349,10 +21349,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>437771.6747036168</v>
+        <v>438062.0622929674</v>
       </c>
       <c r="R174" t="n">
-        <v>6953071.561281924</v>
+        <v>6953111.545111132</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -21430,10 +21430,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973678</v>
+        <v>111973721</v>
       </c>
       <c r="B175" t="n">
-        <v>90654</v>
+        <v>90660</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -21442,25 +21442,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -21479,10 +21479,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>438245.3208427017</v>
+        <v>437964.8874965879</v>
       </c>
       <c r="R175" t="n">
-        <v>6953249.503443779</v>
+        <v>6953078.02169135</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="AI175" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT175" t="inlineStr"/>
@@ -21560,10 +21560,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973675</v>
+        <v>111973737</v>
       </c>
       <c r="B176" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -21572,25 +21572,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -21609,10 +21609,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>438160.5186564626</v>
+        <v>437826.2275051199</v>
       </c>
       <c r="R176" t="n">
-        <v>6953262.568950667</v>
+        <v>6953429.063032418</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -21624,7 +21624,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -21634,7 +21634,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -21690,10 +21690,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973693</v>
+        <v>111973690</v>
       </c>
       <c r="B177" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21702,25 +21702,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21739,10 +21739,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>438340.8243944077</v>
+        <v>438392.7937311309</v>
       </c>
       <c r="R177" t="n">
-        <v>6953144.884858144</v>
+        <v>6953047.506099407</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21820,10 +21820,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973702</v>
+        <v>111973672</v>
       </c>
       <c r="B178" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21836,21 +21836,21 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21869,10 +21869,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>438081.9879022668</v>
+        <v>438161.9732156845</v>
       </c>
       <c r="R178" t="n">
-        <v>6953046.43956603</v>
+        <v>6953217.553276672</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21928,7 +21928,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr"/>
@@ -21950,10 +21950,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973729</v>
+        <v>111973730</v>
       </c>
       <c r="B179" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21966,21 +21966,21 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -21999,10 +21999,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>437849.4557670459</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R179" t="n">
-        <v>6953246.83996963</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -22080,10 +22080,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973742</v>
+        <v>111973800</v>
       </c>
       <c r="B180" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -22096,21 +22096,21 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -22129,10 +22129,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>437768.9973591214</v>
+        <v>437771.6747036168</v>
       </c>
       <c r="R180" t="n">
-        <v>6953319.511656794</v>
+        <v>6953071.561281924</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -22188,7 +22188,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT180" t="inlineStr"/>
@@ -22210,10 +22210,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973683</v>
+        <v>111973654</v>
       </c>
       <c r="B181" t="n">
-        <v>88010</v>
+        <v>90682</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -22222,25 +22222,25 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1596</v>
+        <v>2059</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -22259,10 +22259,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>438569.6720420276</v>
+        <v>438507.0138575528</v>
       </c>
       <c r="R181" t="n">
-        <v>6953139.69648798</v>
+        <v>6953526.92536923</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -22318,7 +22318,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -22340,10 +22340,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973648</v>
+        <v>111973674</v>
       </c>
       <c r="B182" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22356,21 +22356,21 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -22389,10 +22389,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>438637.1037644488</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R182" t="n">
-        <v>6953601.158154471</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -22448,7 +22448,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22470,10 +22470,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973738</v>
+        <v>111973722</v>
       </c>
       <c r="B183" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22482,25 +22482,25 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -22519,10 +22519,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>437818.6501005701</v>
+        <v>437913.6481065798</v>
       </c>
       <c r="R183" t="n">
-        <v>6953417.270802823</v>
+        <v>6953091.381175105</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -22600,10 +22600,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973717</v>
+        <v>111973680</v>
       </c>
       <c r="B184" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22612,25 +22612,25 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -22649,10 +22649,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>437925.4602650506</v>
+        <v>438403.109237605</v>
       </c>
       <c r="R184" t="n">
-        <v>6953181.597826566</v>
+        <v>6953181.365192754</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22730,10 +22730,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973665</v>
+        <v>111973724</v>
       </c>
       <c r="B185" t="n">
-        <v>88032</v>
+        <v>88489</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22742,47 +22742,38 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6276</v>
+        <v>1962</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438214.6362894689</v>
+        <v>437892.4817196695</v>
       </c>
       <c r="R185" t="n">
-        <v>6953402.942781798</v>
+        <v>6953090.40240525</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22839,6 +22830,14 @@
       <c r="AI185" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO185" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22860,10 +22859,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973802</v>
+        <v>111973649</v>
       </c>
       <c r="B186" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22872,25 +22871,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22909,10 +22908,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>437785.6957705052</v>
+        <v>438643.9109478882</v>
       </c>
       <c r="R186" t="n">
-        <v>6953083.69221758</v>
+        <v>6953596.441367409</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22968,7 +22967,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -22990,10 +22989,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973732</v>
+        <v>111973801</v>
       </c>
       <c r="B187" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23006,21 +23005,21 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -23039,10 +23038,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>437870.3376588458</v>
+        <v>437774.9523556355</v>
       </c>
       <c r="R187" t="n">
-        <v>6953354.784377262</v>
+        <v>6953074.713081508</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23098,7 +23097,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr"/>
@@ -23120,10 +23119,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973724</v>
+        <v>111973726</v>
       </c>
       <c r="B188" t="n">
-        <v>88489</v>
+        <v>90652</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23136,34 +23135,43 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr"/>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P188" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>437892.4817196695</v>
+        <v>437857.8639418939</v>
       </c>
       <c r="R188" t="n">
-        <v>6953090.40240525</v>
+        <v>6953131.912996286</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23220,14 +23228,6 @@
       <c r="AI188" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN188" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO188" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT188" t="inlineStr"/>
@@ -23249,10 +23249,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973651</v>
+        <v>111973656</v>
       </c>
       <c r="B189" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23261,25 +23261,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23298,10 +23298,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>438594.9557070844</v>
+        <v>438305.464494833</v>
       </c>
       <c r="R189" t="n">
-        <v>6953584.041166852</v>
+        <v>6953417.308850316</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973764</v>
+        <v>111973743</v>
       </c>
       <c r="B190" t="n">
         <v>90660</v>
@@ -23428,10 +23428,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>437776.3383109252</v>
+        <v>437633.050214521</v>
       </c>
       <c r="R190" t="n">
-        <v>6953123.809258236</v>
+        <v>6953301.881070362</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23443,7 +23443,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
@@ -23453,7 +23453,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -23487,7 +23487,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -23509,7 +23509,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973727</v>
+        <v>111973725</v>
       </c>
       <c r="B191" t="n">
         <v>90660</v>
@@ -23558,10 +23558,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>437870.6858627723</v>
+        <v>437859.825927439</v>
       </c>
       <c r="R191" t="n">
-        <v>6953178.038412376</v>
+        <v>6953089.64020811</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973715</v>
+        <v>111973708</v>
       </c>
       <c r="B192" t="n">
-        <v>90678</v>
+        <v>90654</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23651,25 +23651,25 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4366</v>
+        <v>149</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>437962.8122493967</v>
+        <v>438068.6025824957</v>
       </c>
       <c r="R192" t="n">
-        <v>6953212.111986059</v>
+        <v>6953092.599814337</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -23769,10 +23769,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973713</v>
+        <v>111973699</v>
       </c>
       <c r="B193" t="n">
-        <v>90660</v>
+        <v>90654</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23781,25 +23781,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -23818,10 +23818,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>438002.4574124058</v>
+        <v>438167.2097542446</v>
       </c>
       <c r="R193" t="n">
-        <v>6953193.462733216</v>
+        <v>6953104.522341937</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23899,10 +23899,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973652</v>
+        <v>111973683</v>
       </c>
       <c r="B194" t="n">
-        <v>90660</v>
+        <v>88010</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23911,25 +23911,25 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23948,10 +23948,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>438537.7865028595</v>
+        <v>438569.6720420276</v>
       </c>
       <c r="R194" t="n">
-        <v>6953550.220835418</v>
+        <v>6953139.69648798</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -24007,7 +24007,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -24029,10 +24029,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973671</v>
+        <v>111973741</v>
       </c>
       <c r="B195" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24041,25 +24041,25 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -24078,10 +24078,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>438033.4411253001</v>
+        <v>437770.6617250814</v>
       </c>
       <c r="R195" t="n">
-        <v>6953252.100307667</v>
+        <v>6953334.629086277</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -24159,7 +24159,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973733</v>
+        <v>111973702</v>
       </c>
       <c r="B196" t="n">
         <v>90660</v>
@@ -24208,10 +24208,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>437876.3203048867</v>
+        <v>438081.9879022668</v>
       </c>
       <c r="R196" t="n">
-        <v>6953355.130729643</v>
+        <v>6953046.43956603</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -24267,7 +24267,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -24289,10 +24289,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973709</v>
+        <v>111973712</v>
       </c>
       <c r="B197" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24305,21 +24305,21 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -24338,10 +24338,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>438062.0622929674</v>
+        <v>438007.0616481225</v>
       </c>
       <c r="R197" t="n">
-        <v>6953111.545111132</v>
+        <v>6953193.835261973</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24419,7 +24419,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973674</v>
+        <v>111973742</v>
       </c>
       <c r="B198" t="n">
         <v>90652</v>
@@ -24468,10 +24468,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>438160.5186564626</v>
+        <v>437768.9973591214</v>
       </c>
       <c r="R198" t="n">
-        <v>6953262.568950667</v>
+        <v>6953319.511656794</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24527,7 +24527,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -24549,7 +24549,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973673</v>
+        <v>111973687</v>
       </c>
       <c r="B199" t="n">
         <v>90652</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>438126.6098378488</v>
+        <v>438548.7713177125</v>
       </c>
       <c r="R199" t="n">
-        <v>6953243.924237223</v>
+        <v>6953054.237334216</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24657,7 +24657,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24679,7 +24679,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973698</v>
+        <v>111973652</v>
       </c>
       <c r="B200" t="n">
         <v>90660</v>
@@ -24728,10 +24728,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>438207.123851296</v>
+        <v>438537.7865028595</v>
       </c>
       <c r="R200" t="n">
-        <v>6953100.10165237</v>
+        <v>6953550.220835418</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -24809,7 +24809,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973653</v>
+        <v>111973671</v>
       </c>
       <c r="B201" t="n">
         <v>88032</v>
@@ -24858,10 +24858,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>438544.6107581231</v>
+        <v>438033.4411253001</v>
       </c>
       <c r="R201" t="n">
-        <v>6953546.421492521</v>
+        <v>6953252.100307667</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24917,7 +24917,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -24939,10 +24939,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973686</v>
+        <v>111973733</v>
       </c>
       <c r="B202" t="n">
-        <v>90300</v>
+        <v>90660</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24955,21 +24955,21 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24988,10 +24988,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>438557.4797566309</v>
+        <v>437876.3203048867</v>
       </c>
       <c r="R202" t="n">
-        <v>6953077.488546882</v>
+        <v>6953355.130729643</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -25047,7 +25047,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr"/>
@@ -25069,10 +25069,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973730</v>
+        <v>111973676</v>
       </c>
       <c r="B203" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -25085,21 +25085,21 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -25118,10 +25118,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>437841.7707476557</v>
+        <v>438195.4617540331</v>
       </c>
       <c r="R203" t="n">
-        <v>6953302.531346441</v>
+        <v>6953262.832081575</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -25177,7 +25177,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr"/>
@@ -25199,10 +25199,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973731</v>
+        <v>111973688</v>
       </c>
       <c r="B204" t="n">
-        <v>88010</v>
+        <v>90678</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -25211,25 +25211,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1596</v>
+        <v>4366</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -25248,10 +25248,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>437841.7707476557</v>
+        <v>438543.8591373209</v>
       </c>
       <c r="R204" t="n">
-        <v>6953302.531346441</v>
+        <v>6953037.342524837</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -25329,10 +25329,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973687</v>
+        <v>111973678</v>
       </c>
       <c r="B205" t="n">
-        <v>90652</v>
+        <v>90654</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -25341,25 +25341,25 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -25378,10 +25378,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>438548.7713177125</v>
+        <v>438245.3208427017</v>
       </c>
       <c r="R205" t="n">
-        <v>6953054.237334216</v>
+        <v>6953249.503443779</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -25437,7 +25437,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT205" t="inlineStr"/>
@@ -25459,10 +25459,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973660</v>
+        <v>111973700</v>
       </c>
       <c r="B206" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -25475,21 +25475,21 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -25508,10 +25508,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438117.6502478332</v>
+        <v>438151.4465756729</v>
       </c>
       <c r="R206" t="n">
-        <v>6953329.936377568</v>
+        <v>6953097.472532819</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -25567,7 +25567,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -25589,7 +25589,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973736</v>
+        <v>111973744</v>
       </c>
       <c r="B207" t="n">
         <v>90660</v>
@@ -25638,10 +25638,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>437842.6892572012</v>
+        <v>437686.9991506658</v>
       </c>
       <c r="R207" t="n">
-        <v>6953497.608170006</v>
+        <v>6953383.491049132</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12720,10 +12720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973735</v>
+        <v>111973693</v>
       </c>
       <c r="B108" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12736,21 +12736,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>437908.4053289952</v>
+        <v>438340.8243944077</v>
       </c>
       <c r="R108" t="n">
-        <v>6953423.383435746</v>
+        <v>6953144.884858144</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12784,7 +12784,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT108" t="inlineStr"/>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973651</v>
+        <v>111973676</v>
       </c>
       <c r="B109" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12866,21 +12866,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12899,10 +12899,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>438594.9557070844</v>
+        <v>438195.4617540331</v>
       </c>
       <c r="R109" t="n">
-        <v>6953584.041166852</v>
+        <v>6953262.832081575</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="AI109" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT109" t="inlineStr"/>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973734</v>
+        <v>111973702</v>
       </c>
       <c r="B110" t="n">
         <v>90660</v>
@@ -13029,10 +13029,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>437925.1695921989</v>
+        <v>438081.9879022668</v>
       </c>
       <c r="R110" t="n">
-        <v>6953361.555738406</v>
+        <v>6953046.43956603</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13088,7 +13088,7 @@
       </c>
       <c r="AI110" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT110" t="inlineStr"/>
@@ -13110,10 +13110,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973729</v>
+        <v>111973762</v>
       </c>
       <c r="B111" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13126,21 +13126,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -13159,10 +13159,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>437849.4557670459</v>
+        <v>437599.103955319</v>
       </c>
       <c r="R111" t="n">
-        <v>6953246.83996963</v>
+        <v>6953281.406344013</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -13240,7 +13240,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973689</v>
+        <v>111973721</v>
       </c>
       <c r="B112" t="n">
         <v>90660</v>
@@ -13289,10 +13289,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>438478.4845183876</v>
+        <v>437964.8874965879</v>
       </c>
       <c r="R112" t="n">
-        <v>6953007.801968225</v>
+        <v>6953078.02169135</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973711</v>
+        <v>111973700</v>
       </c>
       <c r="B113" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13386,21 +13386,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>438030.8777618795</v>
+        <v>438151.4465756729</v>
       </c>
       <c r="R113" t="n">
-        <v>6953140.134856743</v>
+        <v>6953097.472532819</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973658</v>
+        <v>111973712</v>
       </c>
       <c r="B114" t="n">
         <v>90652</v>
@@ -13549,10 +13549,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>438250.4063445947</v>
+        <v>438007.0616481225</v>
       </c>
       <c r="R114" t="n">
-        <v>6953324.693784647</v>
+        <v>6953193.835261973</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr"/>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973666</v>
+        <v>111973723</v>
       </c>
       <c r="B115" t="n">
         <v>90652</v>
@@ -13679,10 +13679,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>438213.507009695</v>
+        <v>437903.5547303436</v>
       </c>
       <c r="R115" t="n">
-        <v>6953416.276142</v>
+        <v>6953092.489357711</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13760,10 +13760,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973669</v>
+        <v>111973677</v>
       </c>
       <c r="B116" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13776,21 +13776,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>437912.8137109271</v>
+        <v>438218.2330045793</v>
       </c>
       <c r="R116" t="n">
-        <v>6953242.433193879</v>
+        <v>6953251.387939887</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973727</v>
+        <v>111973764</v>
       </c>
       <c r="B117" t="n">
         <v>90660</v>
@@ -13939,10 +13939,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>437870.6858627723</v>
+        <v>437776.3383109252</v>
       </c>
       <c r="R117" t="n">
-        <v>6953178.038412376</v>
+        <v>6953123.809258236</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -14020,10 +14020,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973677</v>
+        <v>111973658</v>
       </c>
       <c r="B118" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14036,21 +14036,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -14069,10 +14069,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>438218.2330045793</v>
+        <v>438250.4063445947</v>
       </c>
       <c r="R118" t="n">
-        <v>6953251.387939887</v>
+        <v>6953324.693784647</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14150,10 +14150,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973732</v>
+        <v>111973708</v>
       </c>
       <c r="B119" t="n">
-        <v>90652</v>
+        <v>90654</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14162,25 +14162,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -14199,10 +14199,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>437870.3376588458</v>
+        <v>438068.6025824957</v>
       </c>
       <c r="R119" t="n">
-        <v>6953354.784377262</v>
+        <v>6953092.599814337</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="AI119" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT119" t="inlineStr"/>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973705</v>
+        <v>111973691</v>
       </c>
       <c r="B120" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14296,21 +14296,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>438039.6778841515</v>
+        <v>438380.4570261125</v>
       </c>
       <c r="R120" t="n">
-        <v>6953070.188645583</v>
+        <v>6953076.200047398</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14410,10 +14410,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973803</v>
+        <v>111973714</v>
       </c>
       <c r="B121" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14426,21 +14426,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -14459,10 +14459,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>437808.5351863222</v>
+        <v>437974.9333715859</v>
       </c>
       <c r="R121" t="n">
-        <v>6953100.247750094</v>
+        <v>6953221.065410748</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14540,10 +14540,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973675</v>
+        <v>111973800</v>
       </c>
       <c r="B122" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14556,21 +14556,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14589,10 +14589,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>438160.5186564626</v>
+        <v>437771.6747036168</v>
       </c>
       <c r="R122" t="n">
-        <v>6953262.568950667</v>
+        <v>6953071.561281924</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr"/>
@@ -14670,10 +14670,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973713</v>
+        <v>111973732</v>
       </c>
       <c r="B123" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14686,21 +14686,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -14719,10 +14719,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>438002.4574124058</v>
+        <v>437870.3376588458</v>
       </c>
       <c r="R123" t="n">
-        <v>6953193.462733216</v>
+        <v>6953354.784377262</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14778,7 +14778,7 @@
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr"/>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973665</v>
+        <v>111973672</v>
       </c>
       <c r="B124" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14812,25 +14812,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -14849,10 +14849,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>438214.6362894689</v>
+        <v>438161.9732156845</v>
       </c>
       <c r="R124" t="n">
-        <v>6953402.942781798</v>
+        <v>6953217.553276672</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14930,10 +14930,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973679</v>
+        <v>111973654</v>
       </c>
       <c r="B125" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14946,21 +14946,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -14979,10 +14979,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>438324.49743335</v>
+        <v>438507.0138575528</v>
       </c>
       <c r="R125" t="n">
-        <v>6953230.577437581</v>
+        <v>6953526.92536923</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111973745</v>
+        <v>111973718</v>
       </c>
       <c r="B126" t="n">
         <v>90652</v>
@@ -15109,10 +15109,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>437646.7856703376</v>
+        <v>437913.625653744</v>
       </c>
       <c r="R126" t="n">
-        <v>6953396.18633649</v>
+        <v>6953163.457536075</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="AI126" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr"/>
@@ -15190,10 +15190,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973717</v>
+        <v>111973652</v>
       </c>
       <c r="B127" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15202,25 +15202,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -15239,10 +15239,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>437925.4602650506</v>
+        <v>438537.7865028595</v>
       </c>
       <c r="R127" t="n">
-        <v>6953181.597826566</v>
+        <v>6953550.220835418</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15320,10 +15320,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973650</v>
+        <v>111973707</v>
       </c>
       <c r="B128" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15336,21 +15336,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15369,10 +15369,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>438617.2579858238</v>
+        <v>438067.7466216629</v>
       </c>
       <c r="R128" t="n">
-        <v>6953572.150569057</v>
+        <v>6953071.497848171</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="AI128" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT128" t="inlineStr"/>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973670</v>
+        <v>111973740</v>
       </c>
       <c r="B129" t="n">
         <v>90660</v>
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>437925.5671573002</v>
+        <v>437784.9752950897</v>
       </c>
       <c r="R129" t="n">
-        <v>6953260.555743226</v>
+        <v>6953386.690837187</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15514,7 +15514,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -15524,7 +15524,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT129" t="inlineStr"/>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973698</v>
+        <v>111973727</v>
       </c>
       <c r="B130" t="n">
         <v>90660</v>
@@ -15629,10 +15629,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>438207.123851296</v>
+        <v>437870.6858627723</v>
       </c>
       <c r="R130" t="n">
-        <v>6953100.10165237</v>
+        <v>6953178.038412376</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15710,10 +15710,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973686</v>
+        <v>111973737</v>
       </c>
       <c r="B131" t="n">
-        <v>90300</v>
+        <v>90678</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15722,25 +15722,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4745</v>
+        <v>4366</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15759,10 +15759,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>438557.4797566309</v>
+        <v>437826.2275051199</v>
       </c>
       <c r="R131" t="n">
-        <v>6953077.488546882</v>
+        <v>6953429.063032418</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr"/>
@@ -15840,10 +15840,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973696</v>
+        <v>111973741</v>
       </c>
       <c r="B132" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15856,21 +15856,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15889,10 +15889,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>438244.0616158294</v>
+        <v>437770.6617250814</v>
       </c>
       <c r="R132" t="n">
-        <v>6953108.59152039</v>
+        <v>6953334.629086277</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -15970,10 +15970,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973648</v>
+        <v>111973689</v>
       </c>
       <c r="B133" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15986,21 +15986,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -16019,10 +16019,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>438637.1037644488</v>
+        <v>438478.4845183876</v>
       </c>
       <c r="R133" t="n">
-        <v>6953601.158154471</v>
+        <v>6953007.801968225</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973693</v>
+        <v>111973701</v>
       </c>
       <c r="B134" t="n">
         <v>90682</v>
@@ -16149,10 +16149,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>438340.8243944077</v>
+        <v>438134.3562496312</v>
       </c>
       <c r="R134" t="n">
-        <v>6953144.884858144</v>
+        <v>6953093.202189791</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16230,10 +16230,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973695</v>
+        <v>111973730</v>
       </c>
       <c r="B135" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16246,21 +16246,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16279,10 +16279,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>438290.0744879689</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R135" t="n">
-        <v>6953135.275183067</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973764</v>
+        <v>111973733</v>
       </c>
       <c r="B136" t="n">
         <v>90660</v>
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>437776.3383109252</v>
+        <v>437876.3203048867</v>
       </c>
       <c r="R136" t="n">
-        <v>6953123.809258236</v>
+        <v>6953355.130729643</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="AI136" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16490,10 +16490,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973719</v>
+        <v>111973669</v>
       </c>
       <c r="B137" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16506,21 +16506,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16539,10 +16539,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>437937.8271789091</v>
+        <v>437912.8137109271</v>
       </c>
       <c r="R137" t="n">
-        <v>6953154.738653069</v>
+        <v>6953242.433193879</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16620,10 +16620,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973768</v>
+        <v>111973675</v>
       </c>
       <c r="B138" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16636,21 +16636,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16669,10 +16669,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>437637.973121325</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R138" t="n">
-        <v>6953148.917516032</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16750,10 +16750,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973673</v>
+        <v>111973715</v>
       </c>
       <c r="B139" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16762,25 +16762,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16799,10 +16799,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>438126.6098378488</v>
+        <v>437962.8122493967</v>
       </c>
       <c r="R139" t="n">
-        <v>6953243.924237223</v>
+        <v>6953212.111986059</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="AI139" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT139" t="inlineStr"/>
@@ -16880,10 +16880,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973718</v>
+        <v>111973671</v>
       </c>
       <c r="B140" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16892,25 +16892,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16929,10 +16929,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>437913.625653744</v>
+        <v>438033.4411253001</v>
       </c>
       <c r="R140" t="n">
-        <v>6953163.457536075</v>
+        <v>6953252.100307667</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -17010,10 +17010,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973662</v>
+        <v>111973801</v>
       </c>
       <c r="B141" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -17022,25 +17022,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -17059,10 +17059,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>438148.3758962485</v>
+        <v>437774.9523556355</v>
       </c>
       <c r="R141" t="n">
-        <v>6953350.476376175</v>
+        <v>6953074.713081508</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="AI141" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr"/>
@@ -17140,10 +17140,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973692</v>
+        <v>111973706</v>
       </c>
       <c r="B142" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17156,21 +17156,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -17189,10 +17189,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>438375.4788469387</v>
+        <v>438039.4596956634</v>
       </c>
       <c r="R142" t="n">
-        <v>6953080.424831095</v>
+        <v>6953083.047228135</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17248,7 +17248,7 @@
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -17270,10 +17270,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973723</v>
+        <v>111973696</v>
       </c>
       <c r="B143" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17286,21 +17286,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -17319,10 +17319,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>437903.5547303436</v>
+        <v>438244.0616158294</v>
       </c>
       <c r="R143" t="n">
-        <v>6953092.489357711</v>
+        <v>6953108.59152039</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17400,7 +17400,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973738</v>
+        <v>111973673</v>
       </c>
       <c r="B144" t="n">
         <v>90652</v>
@@ -17449,10 +17449,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>437818.6501005701</v>
+        <v>438126.6098378488</v>
       </c>
       <c r="R144" t="n">
-        <v>6953417.270802823</v>
+        <v>6953243.924237223</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="AI144" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT144" t="inlineStr"/>
@@ -17530,10 +17530,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973653</v>
+        <v>111973687</v>
       </c>
       <c r="B145" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17542,25 +17542,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -17579,10 +17579,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>438544.6107581231</v>
+        <v>438548.7713177125</v>
       </c>
       <c r="R145" t="n">
-        <v>6953546.421492521</v>
+        <v>6953054.237334216</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr"/>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973762</v>
+        <v>111973744</v>
       </c>
       <c r="B146" t="n">
         <v>90660</v>
@@ -17709,10 +17709,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>437599.103955319</v>
+        <v>437686.9991506658</v>
       </c>
       <c r="R146" t="n">
-        <v>6953281.406344013</v>
+        <v>6953383.491049132</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17768,7 +17768,7 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -17790,10 +17790,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973763</v>
+        <v>111973665</v>
       </c>
       <c r="B147" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17802,25 +17802,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -17839,10 +17839,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>437630.1355663574</v>
+        <v>438214.6362894689</v>
       </c>
       <c r="R147" t="n">
-        <v>6953220.681589473</v>
+        <v>6953402.942781798</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17920,10 +17920,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973731</v>
+        <v>111973716</v>
       </c>
       <c r="B148" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17932,25 +17932,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -17969,10 +17969,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>437841.7707476557</v>
+        <v>437942.142677932</v>
       </c>
       <c r="R148" t="n">
-        <v>6953302.531346441</v>
+        <v>6953188.629084867</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -18050,10 +18050,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973767</v>
+        <v>111973720</v>
       </c>
       <c r="B149" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -18066,21 +18066,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -18099,10 +18099,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>437702.0952541633</v>
+        <v>437936.1394948753</v>
       </c>
       <c r="R149" t="n">
-        <v>6953233.552758955</v>
+        <v>6953113.912172817</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -18180,10 +18180,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973681</v>
+        <v>111973699</v>
       </c>
       <c r="B150" t="n">
-        <v>90652</v>
+        <v>90654</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -18192,25 +18192,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -18229,10 +18229,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>438493.2177188767</v>
+        <v>438167.2097542446</v>
       </c>
       <c r="R150" t="n">
-        <v>6953181.51986871</v>
+        <v>6953104.522341937</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18440,10 +18440,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973694</v>
+        <v>111973729</v>
       </c>
       <c r="B152" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18452,25 +18452,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -18489,10 +18489,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>438325.5423512529</v>
+        <v>437849.4557670459</v>
       </c>
       <c r="R152" t="n">
-        <v>6953163.533631108</v>
+        <v>6953246.83996963</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18570,10 +18570,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973706</v>
+        <v>111973648</v>
       </c>
       <c r="B153" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18586,21 +18586,21 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -18619,10 +18619,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438039.4596956634</v>
+        <v>438637.1037644488</v>
       </c>
       <c r="R153" t="n">
-        <v>6953083.047228135</v>
+        <v>6953601.158154471</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18678,7 +18678,7 @@
       </c>
       <c r="AI153" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -18700,10 +18700,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973697</v>
+        <v>111973663</v>
       </c>
       <c r="B154" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18712,25 +18712,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18749,10 +18749,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438216.5943784415</v>
+        <v>438169.8244046976</v>
       </c>
       <c r="R154" t="n">
-        <v>6953090.283452681</v>
+        <v>6953366.599956161</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18830,10 +18830,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973655</v>
+        <v>111973662</v>
       </c>
       <c r="B155" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18842,25 +18842,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -18879,10 +18879,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>438489.0756873108</v>
+        <v>438148.3758962485</v>
       </c>
       <c r="R155" t="n">
-        <v>6953526.341858554</v>
+        <v>6953350.476376175</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18960,10 +18960,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973740</v>
+        <v>111973745</v>
       </c>
       <c r="B156" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18976,21 +18976,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -19009,10 +19009,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>437784.9752950897</v>
+        <v>437646.7856703376</v>
       </c>
       <c r="R156" t="n">
-        <v>6953386.690837187</v>
+        <v>6953396.18633649</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="AI156" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -19090,10 +19090,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973802</v>
+        <v>111973684</v>
       </c>
       <c r="B157" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -19102,25 +19102,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -19139,10 +19139,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>437785.6957705052</v>
+        <v>438577.1343039292</v>
       </c>
       <c r="R157" t="n">
-        <v>6953083.69221758</v>
+        <v>6953120.735309405</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -19220,10 +19220,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973660</v>
+        <v>111973742</v>
       </c>
       <c r="B158" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -19236,21 +19236,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -19269,10 +19269,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>438117.6502478332</v>
+        <v>437768.9973591214</v>
       </c>
       <c r="R158" t="n">
-        <v>6953329.936377568</v>
+        <v>6953319.511656794</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -19328,7 +19328,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -19350,7 +19350,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973739</v>
+        <v>111973649</v>
       </c>
       <c r="B159" t="n">
         <v>90682</v>
@@ -19399,10 +19399,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>437780.5956911595</v>
+        <v>438643.9109478882</v>
       </c>
       <c r="R159" t="n">
-        <v>6953422.578950249</v>
+        <v>6953596.441367409</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19414,7 +19414,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
@@ -19424,7 +19424,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="AI159" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr"/>
@@ -19480,10 +19480,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973720</v>
+        <v>111973680</v>
       </c>
       <c r="B160" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19496,21 +19496,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19529,10 +19529,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>437936.1394948753</v>
+        <v>438403.109237605</v>
       </c>
       <c r="R160" t="n">
-        <v>6953113.912172817</v>
+        <v>6953181.365192754</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19610,10 +19610,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973701</v>
+        <v>111973761</v>
       </c>
       <c r="B161" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19626,21 +19626,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19659,10 +19659,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>438134.3562496312</v>
+        <v>437571.0975250818</v>
       </c>
       <c r="R161" t="n">
-        <v>6953093.202189791</v>
+        <v>6953283.313539348</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19674,7 +19674,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -19740,10 +19740,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973703</v>
+        <v>111973711</v>
       </c>
       <c r="B162" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19752,25 +19752,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19789,10 +19789,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>438029.3740389285</v>
+        <v>438030.8777618795</v>
       </c>
       <c r="R162" t="n">
-        <v>6953011.159128131</v>
+        <v>6953140.134856743</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19870,10 +19870,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973716</v>
+        <v>111973688</v>
       </c>
       <c r="B163" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19882,25 +19882,25 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -19919,10 +19919,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>437942.142677932</v>
+        <v>438543.8591373209</v>
       </c>
       <c r="R163" t="n">
-        <v>6953188.629084867</v>
+        <v>6953037.342524837</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -20000,10 +20000,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973761</v>
+        <v>111973709</v>
       </c>
       <c r="B164" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -20016,21 +20016,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -20049,10 +20049,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>437571.0975250818</v>
+        <v>438062.0622929674</v>
       </c>
       <c r="R164" t="n">
-        <v>6953283.313539348</v>
+        <v>6953111.545111132</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
@@ -20074,7 +20074,7 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
@@ -20130,10 +20130,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973715</v>
+        <v>111973651</v>
       </c>
       <c r="B165" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -20142,25 +20142,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>437962.8122493967</v>
+        <v>438594.9557070844</v>
       </c>
       <c r="R165" t="n">
-        <v>6953212.111986059</v>
+        <v>6953584.041166852</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="AI165" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -20260,10 +20260,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973663</v>
+        <v>111973704</v>
       </c>
       <c r="B166" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -20276,21 +20276,21 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -20309,10 +20309,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>438169.8244046976</v>
+        <v>438039.8702126255</v>
       </c>
       <c r="R166" t="n">
-        <v>6953366.599956161</v>
+        <v>6953055.95322452</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -20390,10 +20390,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973704</v>
+        <v>111973655</v>
       </c>
       <c r="B167" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -20406,21 +20406,21 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -20439,10 +20439,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>438039.8702126255</v>
+        <v>438489.0756873108</v>
       </c>
       <c r="R167" t="n">
-        <v>6953055.95322452</v>
+        <v>6953526.341858554</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -20498,7 +20498,7 @@
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -20520,10 +20520,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973766</v>
+        <v>111973717</v>
       </c>
       <c r="B168" t="n">
-        <v>90652</v>
+        <v>88010</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -20532,25 +20532,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -20569,10 +20569,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>437707.7139296347</v>
+        <v>437925.4602650506</v>
       </c>
       <c r="R168" t="n">
-        <v>6953238.955457177</v>
+        <v>6953181.597826566</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20650,10 +20650,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973707</v>
+        <v>111973803</v>
       </c>
       <c r="B169" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20666,21 +20666,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -20699,10 +20699,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>438067.7466216629</v>
+        <v>437808.5351863222</v>
       </c>
       <c r="R169" t="n">
-        <v>6953071.497848171</v>
+        <v>6953100.247750094</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20758,7 +20758,7 @@
       </c>
       <c r="AI169" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT169" t="inlineStr"/>
@@ -20780,10 +20780,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973691</v>
+        <v>111973739</v>
       </c>
       <c r="B170" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20796,21 +20796,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -20829,10 +20829,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>438380.4570261125</v>
+        <v>437780.5956911595</v>
       </c>
       <c r="R170" t="n">
-        <v>6953076.200047398</v>
+        <v>6953422.578950249</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20844,7 +20844,7 @@
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
@@ -20854,7 +20854,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="AI170" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>
@@ -20910,10 +20910,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973667</v>
+        <v>111973724</v>
       </c>
       <c r="B171" t="n">
-        <v>90660</v>
+        <v>88489</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20926,43 +20926,34 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>438213.507009695</v>
+        <v>437892.4817196695</v>
       </c>
       <c r="R171" t="n">
-        <v>6953416.276142</v>
+        <v>6953090.40240525</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -21019,6 +21010,14 @@
       <c r="AI171" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO171" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT171" t="inlineStr"/>
@@ -21040,10 +21039,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973714</v>
+        <v>111973695</v>
       </c>
       <c r="B172" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -21056,21 +21055,21 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -21089,10 +21088,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>437974.9333715859</v>
+        <v>438290.0744879689</v>
       </c>
       <c r="R172" t="n">
-        <v>6953221.065410748</v>
+        <v>6953135.275183067</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -21170,10 +21169,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973684</v>
+        <v>111973670</v>
       </c>
       <c r="B173" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21186,21 +21185,21 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -21219,10 +21218,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>438577.1343039292</v>
+        <v>437925.5671573002</v>
       </c>
       <c r="R173" t="n">
-        <v>6953120.735309405</v>
+        <v>6953260.555743226</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -21300,10 +21299,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973709</v>
+        <v>111973767</v>
       </c>
       <c r="B174" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -21316,21 +21315,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -21349,10 +21348,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>438062.0622929674</v>
+        <v>437702.0952541633</v>
       </c>
       <c r="R174" t="n">
-        <v>6953111.545111132</v>
+        <v>6953233.552758955</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -21430,10 +21429,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973721</v>
+        <v>111973768</v>
       </c>
       <c r="B175" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -21446,21 +21445,21 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -21479,10 +21478,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>437964.8874965879</v>
+        <v>437637.973121325</v>
       </c>
       <c r="R175" t="n">
-        <v>6953078.02169135</v>
+        <v>6953148.917516032</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -21560,10 +21559,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973737</v>
+        <v>111973713</v>
       </c>
       <c r="B176" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -21572,25 +21571,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -21609,10 +21608,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>437826.2275051199</v>
+        <v>438002.4574124058</v>
       </c>
       <c r="R176" t="n">
-        <v>6953429.063032418</v>
+        <v>6953193.462733216</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -21624,7 +21623,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -21634,7 +21633,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -21668,7 +21667,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -21690,10 +21689,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973690</v>
+        <v>111973650</v>
       </c>
       <c r="B177" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21702,25 +21701,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21739,10 +21738,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>438392.7937311309</v>
+        <v>438617.2579858238</v>
       </c>
       <c r="R177" t="n">
-        <v>6953047.506099407</v>
+        <v>6953572.150569057</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21798,7 +21797,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr"/>
@@ -21820,10 +21819,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973672</v>
+        <v>111973678</v>
       </c>
       <c r="B178" t="n">
-        <v>90652</v>
+        <v>90654</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21832,25 +21831,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21869,10 +21868,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>438161.9732156845</v>
+        <v>438245.3208427017</v>
       </c>
       <c r="R178" t="n">
-        <v>6953217.553276672</v>
+        <v>6953249.503443779</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21928,7 +21927,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr"/>
@@ -21950,10 +21949,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973730</v>
+        <v>111973738</v>
       </c>
       <c r="B179" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21966,21 +21965,21 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -21999,10 +21998,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>437841.7707476557</v>
+        <v>437818.6501005701</v>
       </c>
       <c r="R179" t="n">
-        <v>6953302.531346441</v>
+        <v>6953417.270802823</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -22014,7 +22013,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
@@ -22024,7 +22023,7 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
@@ -22058,7 +22057,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT179" t="inlineStr"/>
@@ -22080,10 +22079,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973800</v>
+        <v>111973725</v>
       </c>
       <c r="B180" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -22096,21 +22095,21 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -22129,10 +22128,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>437771.6747036168</v>
+        <v>437859.825927439</v>
       </c>
       <c r="R180" t="n">
-        <v>6953071.561281924</v>
+        <v>6953089.64020811</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -22210,10 +22209,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973654</v>
+        <v>111973698</v>
       </c>
       <c r="B181" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -22226,21 +22225,21 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -22259,10 +22258,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>438507.0138575528</v>
+        <v>438207.123851296</v>
       </c>
       <c r="R181" t="n">
-        <v>6953526.92536923</v>
+        <v>6953100.10165237</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -22318,7 +22317,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -22340,10 +22339,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973674</v>
+        <v>111973697</v>
       </c>
       <c r="B182" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22352,25 +22351,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -22389,10 +22388,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>438160.5186564626</v>
+        <v>438216.5943784415</v>
       </c>
       <c r="R182" t="n">
-        <v>6953262.568950667</v>
+        <v>6953090.283452681</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -22448,7 +22447,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22470,10 +22469,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973722</v>
+        <v>111973703</v>
       </c>
       <c r="B183" t="n">
-        <v>88032</v>
+        <v>88010</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22486,21 +22485,21 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>6276</v>
+        <v>1596</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -22519,10 +22518,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>437913.6481065798</v>
+        <v>438029.3740389285</v>
       </c>
       <c r="R183" t="n">
-        <v>6953091.381175105</v>
+        <v>6953011.159128131</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22600,10 +22599,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973680</v>
+        <v>111973731</v>
       </c>
       <c r="B184" t="n">
-        <v>90660</v>
+        <v>88010</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22612,25 +22611,25 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -22649,10 +22648,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>438403.109237605</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R184" t="n">
-        <v>6953181.365192754</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22730,10 +22729,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973724</v>
+        <v>111973743</v>
       </c>
       <c r="B185" t="n">
-        <v>88489</v>
+        <v>90660</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22746,34 +22745,43 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P185" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>437892.4817196695</v>
+        <v>437633.050214521</v>
       </c>
       <c r="R185" t="n">
-        <v>6953090.40240525</v>
+        <v>6953301.881070362</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22785,7 +22793,7 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
@@ -22795,7 +22803,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
@@ -22829,15 +22837,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN185" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO185" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22859,10 +22859,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973649</v>
+        <v>111973763</v>
       </c>
       <c r="B186" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22875,21 +22875,21 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22908,10 +22908,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>438643.9109478882</v>
+        <v>437630.1355663574</v>
       </c>
       <c r="R186" t="n">
-        <v>6953596.441367409</v>
+        <v>6953220.681589473</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22967,7 +22967,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -22989,10 +22989,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973801</v>
+        <v>111973766</v>
       </c>
       <c r="B187" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23005,21 +23005,21 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>437774.9523556355</v>
+        <v>437707.7139296347</v>
       </c>
       <c r="R187" t="n">
-        <v>6953074.713081508</v>
+        <v>6953238.955457177</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23097,7 +23097,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr"/>
@@ -23119,7 +23119,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973726</v>
+        <v>111973681</v>
       </c>
       <c r="B188" t="n">
         <v>90652</v>
@@ -23168,10 +23168,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>437857.8639418939</v>
+        <v>438493.2177188767</v>
       </c>
       <c r="R188" t="n">
-        <v>6953131.912996286</v>
+        <v>6953181.51986871</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23249,10 +23249,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973656</v>
+        <v>111973719</v>
       </c>
       <c r="B189" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23261,25 +23261,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23298,10 +23298,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>438305.464494833</v>
+        <v>437937.8271789091</v>
       </c>
       <c r="R189" t="n">
-        <v>6953417.308850316</v>
+        <v>6953154.738653069</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -23379,10 +23379,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973743</v>
+        <v>111973692</v>
       </c>
       <c r="B190" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23395,21 +23395,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -23428,10 +23428,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>437633.050214521</v>
+        <v>438375.4788469387</v>
       </c>
       <c r="R190" t="n">
-        <v>6953301.881070362</v>
+        <v>6953080.424831095</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23443,7 +23443,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
@@ -23453,7 +23453,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -23509,7 +23509,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973725</v>
+        <v>111973660</v>
       </c>
       <c r="B191" t="n">
         <v>90660</v>
@@ -23558,10 +23558,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>437859.825927439</v>
+        <v>438117.6502478332</v>
       </c>
       <c r="R191" t="n">
-        <v>6953089.64020811</v>
+        <v>6953329.936377568</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -23617,7 +23617,7 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr"/>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973708</v>
+        <v>111973705</v>
       </c>
       <c r="B192" t="n">
-        <v>90654</v>
+        <v>90682</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23651,25 +23651,25 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>149</v>
+        <v>2059</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>438068.6025824957</v>
+        <v>438039.6778841515</v>
       </c>
       <c r="R192" t="n">
-        <v>6953092.599814337</v>
+        <v>6953070.188645583</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -23769,10 +23769,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973699</v>
+        <v>111973722</v>
       </c>
       <c r="B193" t="n">
-        <v>90654</v>
+        <v>88032</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23785,21 +23785,21 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -23818,10 +23818,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>438167.2097542446</v>
+        <v>437913.6481065798</v>
       </c>
       <c r="R193" t="n">
-        <v>6953104.522341937</v>
+        <v>6953091.381175105</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23899,10 +23899,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973683</v>
+        <v>111973802</v>
       </c>
       <c r="B194" t="n">
-        <v>88010</v>
+        <v>90678</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23911,25 +23911,25 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1596</v>
+        <v>4366</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23948,10 +23948,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>438569.6720420276</v>
+        <v>437785.6957705052</v>
       </c>
       <c r="R194" t="n">
-        <v>6953139.69648798</v>
+        <v>6953083.69221758</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -24007,7 +24007,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -24029,10 +24029,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973741</v>
+        <v>111973667</v>
       </c>
       <c r="B195" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24045,21 +24045,21 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -24078,10 +24078,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>437770.6617250814</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R195" t="n">
-        <v>6953334.629086277</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -24159,10 +24159,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973702</v>
+        <v>111973674</v>
       </c>
       <c r="B196" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -24175,21 +24175,21 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -24208,10 +24208,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>438081.9879022668</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R196" t="n">
-        <v>6953046.43956603</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -24267,7 +24267,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -24289,7 +24289,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973712</v>
+        <v>111973666</v>
       </c>
       <c r="B197" t="n">
         <v>90652</v>
@@ -24338,10 +24338,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>438007.0616481225</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R197" t="n">
-        <v>6953193.835261973</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24419,7 +24419,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973742</v>
+        <v>111973726</v>
       </c>
       <c r="B198" t="n">
         <v>90652</v>
@@ -24468,10 +24468,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>437768.9973591214</v>
+        <v>437857.8639418939</v>
       </c>
       <c r="R198" t="n">
-        <v>6953319.511656794</v>
+        <v>6953131.912996286</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24527,7 +24527,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -24549,10 +24549,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973687</v>
+        <v>111973734</v>
       </c>
       <c r="B199" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -24565,21 +24565,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>438548.7713177125</v>
+        <v>437925.1695921989</v>
       </c>
       <c r="R199" t="n">
-        <v>6953054.237334216</v>
+        <v>6953361.555738406</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24657,7 +24657,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24679,7 +24679,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973652</v>
+        <v>111973679</v>
       </c>
       <c r="B200" t="n">
         <v>90660</v>
@@ -24728,10 +24728,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>438537.7865028595</v>
+        <v>438324.49743335</v>
       </c>
       <c r="R200" t="n">
-        <v>6953550.220835418</v>
+        <v>6953230.577437581</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -24809,7 +24809,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973671</v>
+        <v>111973694</v>
       </c>
       <c r="B201" t="n">
         <v>88032</v>
@@ -24858,10 +24858,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>438033.4411253001</v>
+        <v>438325.5423512529</v>
       </c>
       <c r="R201" t="n">
-        <v>6953252.100307667</v>
+        <v>6953163.533631108</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24939,10 +24939,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973733</v>
+        <v>111973656</v>
       </c>
       <c r="B202" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24951,25 +24951,25 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24988,10 +24988,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>437876.3203048867</v>
+        <v>438305.464494833</v>
       </c>
       <c r="R202" t="n">
-        <v>6953355.130729643</v>
+        <v>6953417.308850316</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -25047,7 +25047,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr"/>
@@ -25069,10 +25069,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973676</v>
+        <v>111973690</v>
       </c>
       <c r="B203" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -25081,25 +25081,25 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -25118,10 +25118,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>438195.4617540331</v>
+        <v>438392.7937311309</v>
       </c>
       <c r="R203" t="n">
-        <v>6953262.832081575</v>
+        <v>6953047.506099407</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -25177,7 +25177,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr"/>
@@ -25199,10 +25199,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973688</v>
+        <v>111973735</v>
       </c>
       <c r="B204" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -25211,25 +25211,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -25248,10 +25248,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>438543.8591373209</v>
+        <v>437908.4053289952</v>
       </c>
       <c r="R204" t="n">
-        <v>6953037.342524837</v>
+        <v>6953423.383435746</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -25263,7 +25263,7 @@
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y204" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="AI204" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT204" t="inlineStr"/>
@@ -25329,10 +25329,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973678</v>
+        <v>111973683</v>
       </c>
       <c r="B205" t="n">
-        <v>90654</v>
+        <v>88010</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -25345,21 +25345,21 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>149</v>
+        <v>1596</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -25378,10 +25378,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>438245.3208427017</v>
+        <v>438569.6720420276</v>
       </c>
       <c r="R205" t="n">
-        <v>6953249.503443779</v>
+        <v>6953139.69648798</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -25437,7 +25437,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT205" t="inlineStr"/>
@@ -25459,10 +25459,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973700</v>
+        <v>111973653</v>
       </c>
       <c r="B206" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -25471,25 +25471,25 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -25508,10 +25508,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438151.4465756729</v>
+        <v>438544.6107581231</v>
       </c>
       <c r="R206" t="n">
-        <v>6953097.472532819</v>
+        <v>6953546.421492521</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -25567,7 +25567,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -25589,10 +25589,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973744</v>
+        <v>111973686</v>
       </c>
       <c r="B207" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -25605,21 +25605,21 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -25638,10 +25638,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>437686.9991506658</v>
+        <v>438557.4797566309</v>
       </c>
       <c r="R207" t="n">
-        <v>6953383.491049132</v>
+        <v>6953077.488546882</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -25653,7 +25653,7 @@
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
@@ -25663,7 +25663,7 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
@@ -25697,7 +25697,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -16100,10 +16100,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973701</v>
+        <v>111973669</v>
       </c>
       <c r="B134" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16116,21 +16116,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -16149,10 +16149,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>438134.3562496312</v>
+        <v>437912.8137109271</v>
       </c>
       <c r="R134" t="n">
-        <v>6953093.202189791</v>
+        <v>6953242.433193879</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16230,10 +16230,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973730</v>
+        <v>111973675</v>
       </c>
       <c r="B135" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16246,21 +16246,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16279,10 +16279,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>437841.7707476557</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R135" t="n">
-        <v>6953302.531346441</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16338,7 +16338,7 @@
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16360,10 +16360,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973733</v>
+        <v>111973715</v>
       </c>
       <c r="B136" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16372,25 +16372,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>437876.3203048867</v>
+        <v>437962.8122493967</v>
       </c>
       <c r="R136" t="n">
-        <v>6953355.130729643</v>
+        <v>6953212.111986059</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="AI136" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16490,10 +16490,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973669</v>
+        <v>111973671</v>
       </c>
       <c r="B137" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16502,25 +16502,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16539,10 +16539,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>437912.8137109271</v>
+        <v>438033.4411253001</v>
       </c>
       <c r="R137" t="n">
-        <v>6953242.433193879</v>
+        <v>6953252.100307667</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16620,7 +16620,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973675</v>
+        <v>111973801</v>
       </c>
       <c r="B138" t="n">
         <v>90660</v>
@@ -16669,10 +16669,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>438160.5186564626</v>
+        <v>437774.9523556355</v>
       </c>
       <c r="R138" t="n">
-        <v>6953262.568950667</v>
+        <v>6953074.713081508</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16750,10 +16750,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973715</v>
+        <v>111973706</v>
       </c>
       <c r="B139" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16762,25 +16762,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16799,10 +16799,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>437962.8122493967</v>
+        <v>438039.4596956634</v>
       </c>
       <c r="R139" t="n">
-        <v>6953212.111986059</v>
+        <v>6953083.047228135</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16880,10 +16880,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973671</v>
+        <v>111973701</v>
       </c>
       <c r="B140" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16892,25 +16892,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16929,10 +16929,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438033.4411253001</v>
+        <v>438134.3562496312</v>
       </c>
       <c r="R140" t="n">
-        <v>6953252.100307667</v>
+        <v>6953093.202189791</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -17010,10 +17010,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973801</v>
+        <v>111973730</v>
       </c>
       <c r="B141" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -17026,21 +17026,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -17059,10 +17059,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>437774.9523556355</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R141" t="n">
-        <v>6953074.713081508</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="AI141" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr"/>
@@ -17140,10 +17140,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973706</v>
+        <v>111973733</v>
       </c>
       <c r="B142" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17156,21 +17156,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -17189,10 +17189,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>438039.4596956634</v>
+        <v>437876.3203048867</v>
       </c>
       <c r="R142" t="n">
-        <v>6953083.047228135</v>
+        <v>6953355.130729643</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17248,7 +17248,7 @@
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -18180,10 +18180,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973699</v>
+        <v>111973729</v>
       </c>
       <c r="B150" t="n">
-        <v>90654</v>
+        <v>90652</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -18192,25 +18192,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -18229,10 +18229,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>438167.2097542446</v>
+        <v>437849.4557670459</v>
       </c>
       <c r="R150" t="n">
-        <v>6953104.522341937</v>
+        <v>6953246.83996963</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18310,10 +18310,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973736</v>
+        <v>111973648</v>
       </c>
       <c r="B151" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18326,21 +18326,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -18359,10 +18359,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>437842.6892572012</v>
+        <v>438637.1037644488</v>
       </c>
       <c r="R151" t="n">
-        <v>6953497.608170006</v>
+        <v>6953601.158154471</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18374,7 +18374,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -18440,10 +18440,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973729</v>
+        <v>111973663</v>
       </c>
       <c r="B152" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18456,21 +18456,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -18489,10 +18489,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>437849.4557670459</v>
+        <v>438169.8244046976</v>
       </c>
       <c r="R152" t="n">
-        <v>6953246.83996963</v>
+        <v>6953366.599956161</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18570,10 +18570,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973648</v>
+        <v>111973699</v>
       </c>
       <c r="B153" t="n">
-        <v>90682</v>
+        <v>90654</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18582,25 +18582,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -18619,10 +18619,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438637.1037644488</v>
+        <v>438167.2097542446</v>
       </c>
       <c r="R153" t="n">
-        <v>6953601.158154471</v>
+        <v>6953104.522341937</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18678,7 +18678,7 @@
       </c>
       <c r="AI153" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973663</v>
+        <v>111973736</v>
       </c>
       <c r="B154" t="n">
         <v>90660</v>
@@ -18749,10 +18749,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438169.8244046976</v>
+        <v>437842.6892572012</v>
       </c>
       <c r="R154" t="n">
-        <v>6953366.599956161</v>
+        <v>6953497.608170006</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18764,7 +18764,7 @@
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
@@ -18774,7 +18774,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12720,10 +12720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973693</v>
+        <v>111973681</v>
       </c>
       <c r="B108" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12736,21 +12736,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>438340.8243944077</v>
+        <v>438493.2177188767</v>
       </c>
       <c r="R108" t="n">
-        <v>6953144.884858144</v>
+        <v>6953181.51986871</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973676</v>
+        <v>111973691</v>
       </c>
       <c r="B109" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12866,21 +12866,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12899,10 +12899,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>438195.4617540331</v>
+        <v>438380.4570261125</v>
       </c>
       <c r="R109" t="n">
-        <v>6953262.832081575</v>
+        <v>6953076.200047398</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="AI109" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT109" t="inlineStr"/>
@@ -12980,10 +12980,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973702</v>
+        <v>111973688</v>
       </c>
       <c r="B110" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12992,25 +12992,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -13029,10 +13029,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>438081.9879022668</v>
+        <v>438543.8591373209</v>
       </c>
       <c r="R110" t="n">
-        <v>6953046.43956603</v>
+        <v>6953037.342524837</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13110,7 +13110,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973762</v>
+        <v>111973721</v>
       </c>
       <c r="B111" t="n">
         <v>90660</v>
@@ -13159,10 +13159,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>437599.103955319</v>
+        <v>437964.8874965879</v>
       </c>
       <c r="R111" t="n">
-        <v>6953281.406344013</v>
+        <v>6953078.02169135</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -13240,10 +13240,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973721</v>
+        <v>111973692</v>
       </c>
       <c r="B112" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13256,21 +13256,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -13289,10 +13289,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>437964.8874965879</v>
+        <v>438375.4788469387</v>
       </c>
       <c r="R112" t="n">
-        <v>6953078.02169135</v>
+        <v>6953080.424831095</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr"/>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973700</v>
+        <v>111973743</v>
       </c>
       <c r="B113" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13386,21 +13386,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>438151.4465756729</v>
+        <v>437633.050214521</v>
       </c>
       <c r="R113" t="n">
-        <v>6953097.472532819</v>
+        <v>6953301.881070362</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -13444,7 +13444,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13500,10 +13500,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973712</v>
+        <v>111973703</v>
       </c>
       <c r="B114" t="n">
-        <v>90652</v>
+        <v>88010</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13512,25 +13512,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -13549,10 +13549,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>438007.0616481225</v>
+        <v>438029.3740389285</v>
       </c>
       <c r="R114" t="n">
-        <v>6953193.835261973</v>
+        <v>6953011.159128131</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973723</v>
+        <v>111973700</v>
       </c>
       <c r="B115" t="n">
         <v>90652</v>
@@ -13679,10 +13679,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>437903.5547303436</v>
+        <v>438151.4465756729</v>
       </c>
       <c r="R115" t="n">
-        <v>6953092.489357711</v>
+        <v>6953097.472532819</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13760,10 +13760,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973677</v>
+        <v>111973723</v>
       </c>
       <c r="B116" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13776,21 +13776,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>438218.2330045793</v>
+        <v>437903.5547303436</v>
       </c>
       <c r="R116" t="n">
-        <v>6953251.387939887</v>
+        <v>6953092.489357711</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -13890,10 +13890,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973764</v>
+        <v>111973656</v>
       </c>
       <c r="B117" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13902,25 +13902,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13939,10 +13939,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>437776.3383109252</v>
+        <v>438305.464494833</v>
       </c>
       <c r="R117" t="n">
-        <v>6953123.809258236</v>
+        <v>6953417.308850316</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr"/>
@@ -14020,10 +14020,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973658</v>
+        <v>111973701</v>
       </c>
       <c r="B118" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14036,21 +14036,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -14069,10 +14069,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>438250.4063445947</v>
+        <v>438134.3562496312</v>
       </c>
       <c r="R118" t="n">
-        <v>6953324.693784647</v>
+        <v>6953093.202189791</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14150,10 +14150,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973708</v>
+        <v>111973695</v>
       </c>
       <c r="B119" t="n">
-        <v>90654</v>
+        <v>90652</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14162,25 +14162,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -14199,10 +14199,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>438068.6025824957</v>
+        <v>438290.0744879689</v>
       </c>
       <c r="R119" t="n">
-        <v>6953092.599814337</v>
+        <v>6953135.275183067</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973691</v>
+        <v>111973709</v>
       </c>
       <c r="B120" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14296,21 +14296,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>438380.4570261125</v>
+        <v>438062.0622929674</v>
       </c>
       <c r="R120" t="n">
-        <v>6953076.200047398</v>
+        <v>6953111.545111132</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14410,10 +14410,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973714</v>
+        <v>111973734</v>
       </c>
       <c r="B121" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14426,21 +14426,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -14459,10 +14459,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>437974.9333715859</v>
+        <v>437925.1695921989</v>
       </c>
       <c r="R121" t="n">
-        <v>6953221.065410748</v>
+        <v>6953361.555738406</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14540,10 +14540,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973800</v>
+        <v>111973677</v>
       </c>
       <c r="B122" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14556,21 +14556,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14589,10 +14589,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>437771.6747036168</v>
+        <v>438218.2330045793</v>
       </c>
       <c r="R122" t="n">
-        <v>6953071.561281924</v>
+        <v>6953251.387939887</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr"/>
@@ -14670,10 +14670,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973732</v>
+        <v>111973652</v>
       </c>
       <c r="B123" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14686,21 +14686,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -14719,10 +14719,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>437870.3376588458</v>
+        <v>438537.7865028595</v>
       </c>
       <c r="R123" t="n">
-        <v>6953354.784377262</v>
+        <v>6953550.220835418</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14778,7 +14778,7 @@
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr"/>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973672</v>
+        <v>111973649</v>
       </c>
       <c r="B124" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14816,21 +14816,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -14849,10 +14849,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>438161.9732156845</v>
+        <v>438643.9109478882</v>
       </c>
       <c r="R124" t="n">
-        <v>6953217.553276672</v>
+        <v>6953596.441367409</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14930,10 +14930,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973654</v>
+        <v>111973675</v>
       </c>
       <c r="B125" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14946,21 +14946,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -14979,10 +14979,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>438507.0138575528</v>
+        <v>438160.5186564626</v>
       </c>
       <c r="R125" t="n">
-        <v>6953526.92536923</v>
+        <v>6953262.568950667</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111973718</v>
+        <v>111973666</v>
       </c>
       <c r="B126" t="n">
         <v>90652</v>
@@ -15109,10 +15109,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>437913.625653744</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R126" t="n">
-        <v>6953163.457536075</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -15190,10 +15190,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973652</v>
+        <v>111973726</v>
       </c>
       <c r="B127" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15206,21 +15206,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -15239,10 +15239,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>438537.7865028595</v>
+        <v>437857.8639418939</v>
       </c>
       <c r="R127" t="n">
-        <v>6953550.220835418</v>
+        <v>6953131.912996286</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15320,10 +15320,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973707</v>
+        <v>111973690</v>
       </c>
       <c r="B128" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15332,25 +15332,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15369,10 +15369,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>438067.7466216629</v>
+        <v>438392.7937311309</v>
       </c>
       <c r="R128" t="n">
-        <v>6953071.497848171</v>
+        <v>6953047.506099407</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15450,10 +15450,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973740</v>
+        <v>111973699</v>
       </c>
       <c r="B129" t="n">
-        <v>90660</v>
+        <v>90654</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15462,25 +15462,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>437784.9752950897</v>
+        <v>438167.2097542446</v>
       </c>
       <c r="R129" t="n">
-        <v>6953386.690837187</v>
+        <v>6953104.522341937</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15514,7 +15514,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -15524,7 +15524,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT129" t="inlineStr"/>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973727</v>
+        <v>111973679</v>
       </c>
       <c r="B130" t="n">
         <v>90660</v>
@@ -15629,10 +15629,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>437870.6858627723</v>
+        <v>438324.49743335</v>
       </c>
       <c r="R130" t="n">
-        <v>6953178.038412376</v>
+        <v>6953230.577437581</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr"/>
@@ -15710,10 +15710,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973737</v>
+        <v>111973694</v>
       </c>
       <c r="B131" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15722,25 +15722,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15759,10 +15759,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>437826.2275051199</v>
+        <v>438325.5423512529</v>
       </c>
       <c r="R131" t="n">
-        <v>6953429.063032418</v>
+        <v>6953163.533631108</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr"/>
@@ -15840,7 +15840,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973741</v>
+        <v>111973800</v>
       </c>
       <c r="B132" t="n">
         <v>90682</v>
@@ -15889,10 +15889,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>437770.6617250814</v>
+        <v>437771.6747036168</v>
       </c>
       <c r="R132" t="n">
-        <v>6953334.629086277</v>
+        <v>6953071.561281924</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -15970,10 +15970,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973689</v>
+        <v>111973742</v>
       </c>
       <c r="B133" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15986,21 +15986,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -16019,10 +16019,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>438478.4845183876</v>
+        <v>437768.9973591214</v>
       </c>
       <c r="R133" t="n">
-        <v>6953007.801968225</v>
+        <v>6953319.511656794</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973669</v>
+        <v>111973719</v>
       </c>
       <c r="B134" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16116,21 +16116,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -16149,10 +16149,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>437912.8137109271</v>
+        <v>437937.8271789091</v>
       </c>
       <c r="R134" t="n">
-        <v>6953242.433193879</v>
+        <v>6953154.738653069</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16230,10 +16230,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973675</v>
+        <v>111973741</v>
       </c>
       <c r="B135" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16246,21 +16246,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16279,10 +16279,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>438160.5186564626</v>
+        <v>437770.6617250814</v>
       </c>
       <c r="R135" t="n">
-        <v>6953262.568950667</v>
+        <v>6953334.629086277</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16360,10 +16360,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973715</v>
+        <v>111973724</v>
       </c>
       <c r="B136" t="n">
-        <v>90678</v>
+        <v>88489</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16372,47 +16372,38 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4366</v>
+        <v>1962</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>437962.8122493967</v>
+        <v>437892.4817196695</v>
       </c>
       <c r="R136" t="n">
-        <v>6953212.111986059</v>
+        <v>6953090.40240525</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16469,6 +16460,14 @@
       <c r="AI136" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO136" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16490,10 +16489,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973671</v>
+        <v>111973670</v>
       </c>
       <c r="B137" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16502,25 +16501,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16539,10 +16538,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>438033.4411253001</v>
+        <v>437925.5671573002</v>
       </c>
       <c r="R137" t="n">
-        <v>6953252.100307667</v>
+        <v>6953260.555743226</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16620,10 +16619,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973801</v>
+        <v>111973712</v>
       </c>
       <c r="B138" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16636,21 +16635,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16669,10 +16668,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>437774.9523556355</v>
+        <v>438007.0616481225</v>
       </c>
       <c r="R138" t="n">
-        <v>6953074.713081508</v>
+        <v>6953193.835261973</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16728,7 +16727,7 @@
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16750,10 +16749,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973706</v>
+        <v>111973761</v>
       </c>
       <c r="B139" t="n">
-        <v>90652</v>
+        <v>90300</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16766,21 +16765,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3100</v>
+        <v>4745</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16799,10 +16798,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>438039.4596956634</v>
+        <v>437571.0975250818</v>
       </c>
       <c r="R139" t="n">
-        <v>6953083.047228135</v>
+        <v>6953283.313539348</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16814,7 +16813,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -16824,7 +16823,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -16880,7 +16879,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973701</v>
+        <v>111973705</v>
       </c>
       <c r="B140" t="n">
         <v>90682</v>
@@ -16929,10 +16928,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438134.3562496312</v>
+        <v>438039.6778841515</v>
       </c>
       <c r="R140" t="n">
-        <v>6953093.202189791</v>
+        <v>6953070.188645583</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -17010,10 +17009,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973730</v>
+        <v>111973673</v>
       </c>
       <c r="B141" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -17026,21 +17025,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -17059,10 +17058,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>437841.7707476557</v>
+        <v>438126.6098378488</v>
       </c>
       <c r="R141" t="n">
-        <v>6953302.531346441</v>
+        <v>6953243.924237223</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17118,7 +17117,7 @@
       </c>
       <c r="AI141" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr"/>
@@ -17140,7 +17139,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973733</v>
+        <v>111973762</v>
       </c>
       <c r="B142" t="n">
         <v>90660</v>
@@ -17189,10 +17188,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>437876.3203048867</v>
+        <v>437599.103955319</v>
       </c>
       <c r="R142" t="n">
-        <v>6953355.130729643</v>
+        <v>6953281.406344013</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17204,7 +17203,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -17214,7 +17213,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
@@ -17248,7 +17247,7 @@
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -17270,10 +17269,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973696</v>
+        <v>111973684</v>
       </c>
       <c r="B143" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17286,21 +17285,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -17319,10 +17318,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>438244.0616158294</v>
+        <v>438577.1343039292</v>
       </c>
       <c r="R143" t="n">
-        <v>6953108.59152039</v>
+        <v>6953120.735309405</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17400,10 +17399,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973673</v>
+        <v>111973727</v>
       </c>
       <c r="B144" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17416,21 +17415,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -17449,10 +17448,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>438126.6098378488</v>
+        <v>437870.6858627723</v>
       </c>
       <c r="R144" t="n">
-        <v>6953243.924237223</v>
+        <v>6953178.038412376</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17508,7 +17507,7 @@
       </c>
       <c r="AI144" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT144" t="inlineStr"/>
@@ -17530,10 +17529,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973687</v>
+        <v>111973653</v>
       </c>
       <c r="B145" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17542,25 +17541,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -17579,10 +17578,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>438548.7713177125</v>
+        <v>438544.6107581231</v>
       </c>
       <c r="R145" t="n">
-        <v>6953054.237334216</v>
+        <v>6953546.421492521</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17638,7 +17637,7 @@
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr"/>
@@ -17660,10 +17659,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973744</v>
+        <v>111973648</v>
       </c>
       <c r="B146" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17676,21 +17675,21 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -17709,10 +17708,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>437686.9991506658</v>
+        <v>438637.1037644488</v>
       </c>
       <c r="R146" t="n">
-        <v>6953383.491049132</v>
+        <v>6953601.158154471</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17724,7 +17723,7 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
@@ -17734,7 +17733,7 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -17768,7 +17767,7 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -17790,7 +17789,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973665</v>
+        <v>111973671</v>
       </c>
       <c r="B147" t="n">
         <v>88032</v>
@@ -17839,10 +17838,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>438214.6362894689</v>
+        <v>438033.4411253001</v>
       </c>
       <c r="R147" t="n">
-        <v>6953402.942781798</v>
+        <v>6953252.100307667</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17920,7 +17919,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973716</v>
+        <v>111973735</v>
       </c>
       <c r="B148" t="n">
         <v>90660</v>
@@ -17969,10 +17968,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>437942.142677932</v>
+        <v>437908.4053289952</v>
       </c>
       <c r="R148" t="n">
-        <v>6953188.629084867</v>
+        <v>6953423.383435746</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17984,7 +17983,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
@@ -17994,7 +17993,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -18028,7 +18027,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr"/>
@@ -18050,10 +18049,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973720</v>
+        <v>111973667</v>
       </c>
       <c r="B149" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -18066,21 +18065,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -18099,10 +18098,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>437936.1394948753</v>
+        <v>438213.507009695</v>
       </c>
       <c r="R149" t="n">
-        <v>6953113.912172817</v>
+        <v>6953416.276142</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -18180,7 +18179,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973729</v>
+        <v>111973745</v>
       </c>
       <c r="B150" t="n">
         <v>90652</v>
@@ -18229,10 +18228,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>437849.4557670459</v>
+        <v>437646.7856703376</v>
       </c>
       <c r="R150" t="n">
-        <v>6953246.83996963</v>
+        <v>6953396.18633649</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18244,7 +18243,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
@@ -18254,7 +18253,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
@@ -18288,7 +18287,7 @@
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -18310,7 +18309,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973648</v>
+        <v>111973693</v>
       </c>
       <c r="B151" t="n">
         <v>90682</v>
@@ -18359,10 +18358,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>438637.1037644488</v>
+        <v>438340.8243944077</v>
       </c>
       <c r="R151" t="n">
-        <v>6953601.158154471</v>
+        <v>6953144.884858144</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18418,7 +18417,7 @@
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -18440,7 +18439,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973663</v>
+        <v>111973740</v>
       </c>
       <c r="B152" t="n">
         <v>90660</v>
@@ -18489,10 +18488,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>438169.8244046976</v>
+        <v>437784.9752950897</v>
       </c>
       <c r="R152" t="n">
-        <v>6953366.599956161</v>
+        <v>6953386.690837187</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18504,7 +18503,7 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
@@ -18514,7 +18513,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -18548,7 +18547,7 @@
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -18570,10 +18569,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973699</v>
+        <v>111973707</v>
       </c>
       <c r="B153" t="n">
-        <v>90654</v>
+        <v>90660</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18582,25 +18581,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -18619,10 +18618,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438167.2097542446</v>
+        <v>438067.7466216629</v>
       </c>
       <c r="R153" t="n">
-        <v>6953104.522341937</v>
+        <v>6953071.497848171</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18700,10 +18699,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973736</v>
+        <v>111973704</v>
       </c>
       <c r="B154" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18716,21 +18715,21 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18749,10 +18748,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>437842.6892572012</v>
+        <v>438039.8702126255</v>
       </c>
       <c r="R154" t="n">
-        <v>6953497.608170006</v>
+        <v>6953055.95322452</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18764,7 +18763,7 @@
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
@@ -18774,7 +18773,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
@@ -18808,7 +18807,7 @@
       </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -18830,10 +18829,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973662</v>
+        <v>111973676</v>
       </c>
       <c r="B155" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18842,25 +18841,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -18879,10 +18878,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>438148.3758962485</v>
+        <v>438195.4617540331</v>
       </c>
       <c r="R155" t="n">
-        <v>6953350.476376175</v>
+        <v>6953262.832081575</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18938,7 +18937,7 @@
       </c>
       <c r="AI155" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr"/>
@@ -18960,10 +18959,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973745</v>
+        <v>111973801</v>
       </c>
       <c r="B156" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18976,21 +18975,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -19009,10 +19008,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>437646.7856703376</v>
+        <v>437774.9523556355</v>
       </c>
       <c r="R156" t="n">
-        <v>6953396.18633649</v>
+        <v>6953074.713081508</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -19024,7 +19023,7 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
@@ -19034,7 +19033,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
@@ -19068,7 +19067,7 @@
       </c>
       <c r="AI156" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -19090,10 +19089,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973684</v>
+        <v>111973717</v>
       </c>
       <c r="B157" t="n">
-        <v>90682</v>
+        <v>88010</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -19102,25 +19101,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -19139,10 +19138,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>438577.1343039292</v>
+        <v>437925.4602650506</v>
       </c>
       <c r="R157" t="n">
-        <v>6953120.735309405</v>
+        <v>6953181.597826566</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -19220,10 +19219,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973742</v>
+        <v>111973654</v>
       </c>
       <c r="B158" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -19236,21 +19235,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -19269,10 +19268,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>437768.9973591214</v>
+        <v>438507.0138575528</v>
       </c>
       <c r="R158" t="n">
-        <v>6953319.511656794</v>
+        <v>6953526.92536923</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -19328,7 +19327,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -19350,10 +19349,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973649</v>
+        <v>111973737</v>
       </c>
       <c r="B159" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -19362,25 +19361,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -19399,10 +19398,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>438643.9109478882</v>
+        <v>437826.2275051199</v>
       </c>
       <c r="R159" t="n">
-        <v>6953596.441367409</v>
+        <v>6953429.063032418</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19414,7 +19413,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
@@ -19424,7 +19423,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -19458,7 +19457,7 @@
       </c>
       <c r="AI159" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr"/>
@@ -19480,10 +19479,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973680</v>
+        <v>111973715</v>
       </c>
       <c r="B160" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19492,25 +19491,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19529,10 +19528,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>438403.109237605</v>
+        <v>437962.8122493967</v>
       </c>
       <c r="R160" t="n">
-        <v>6953181.365192754</v>
+        <v>6953212.111986059</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19610,10 +19609,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973761</v>
+        <v>111973650</v>
       </c>
       <c r="B161" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19626,21 +19625,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19659,10 +19658,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>437571.0975250818</v>
+        <v>438617.2579858238</v>
       </c>
       <c r="R161" t="n">
-        <v>6953283.313539348</v>
+        <v>6953572.150569057</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19674,7 +19673,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
@@ -19684,7 +19683,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -19718,7 +19717,7 @@
       </c>
       <c r="AI161" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -19740,10 +19739,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973711</v>
+        <v>111973687</v>
       </c>
       <c r="B162" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19756,21 +19755,21 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19789,10 +19788,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>438030.8777618795</v>
+        <v>438548.7713177125</v>
       </c>
       <c r="R162" t="n">
-        <v>6953140.134856743</v>
+        <v>6953054.237334216</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19870,10 +19869,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973688</v>
+        <v>111973702</v>
       </c>
       <c r="B163" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19882,25 +19881,25 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -19919,10 +19918,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>438543.8591373209</v>
+        <v>438081.9879022668</v>
       </c>
       <c r="R163" t="n">
-        <v>6953037.342524837</v>
+        <v>6953046.43956603</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -20000,10 +19999,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973709</v>
+        <v>111973686</v>
       </c>
       <c r="B164" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -20016,21 +20015,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -20049,10 +20048,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>438062.0622929674</v>
+        <v>438557.4797566309</v>
       </c>
       <c r="R164" t="n">
-        <v>6953111.545111132</v>
+        <v>6953077.488546882</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -20130,7 +20129,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973651</v>
+        <v>111973730</v>
       </c>
       <c r="B165" t="n">
         <v>90682</v>
@@ -20179,10 +20178,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>438594.9557070844</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R165" t="n">
-        <v>6953584.041166852</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -20238,7 +20237,7 @@
       </c>
       <c r="AI165" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -20260,10 +20259,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973704</v>
+        <v>111973729</v>
       </c>
       <c r="B166" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -20276,21 +20275,21 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -20309,10 +20308,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>438039.8702126255</v>
+        <v>437849.4557670459</v>
       </c>
       <c r="R166" t="n">
-        <v>6953055.95322452</v>
+        <v>6953246.83996963</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -20390,10 +20389,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973655</v>
+        <v>111973802</v>
       </c>
       <c r="B167" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -20402,25 +20401,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -20439,10 +20438,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>438489.0756873108</v>
+        <v>437785.6957705052</v>
       </c>
       <c r="R167" t="n">
-        <v>6953526.341858554</v>
+        <v>6953083.69221758</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -20498,7 +20497,7 @@
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -20520,7 +20519,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973717</v>
+        <v>111973683</v>
       </c>
       <c r="B168" t="n">
         <v>88010</v>
@@ -20569,10 +20568,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>437925.4602650506</v>
+        <v>438569.6720420276</v>
       </c>
       <c r="R168" t="n">
-        <v>6953181.597826566</v>
+        <v>6953139.69648798</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20650,10 +20649,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973803</v>
+        <v>111973767</v>
       </c>
       <c r="B169" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20666,21 +20665,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -20699,10 +20698,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>437808.5351863222</v>
+        <v>437702.0952541633</v>
       </c>
       <c r="R169" t="n">
-        <v>6953100.247750094</v>
+        <v>6953233.552758955</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20758,7 +20757,7 @@
       </c>
       <c r="AI169" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT169" t="inlineStr"/>
@@ -20780,10 +20779,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973739</v>
+        <v>111973662</v>
       </c>
       <c r="B170" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20792,25 +20791,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -20829,10 +20828,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>437780.5956911595</v>
+        <v>438148.3758962485</v>
       </c>
       <c r="R170" t="n">
-        <v>6953422.578950249</v>
+        <v>6953350.476376175</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20844,7 +20843,7 @@
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
@@ -20854,7 +20853,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
@@ -20888,7 +20887,7 @@
       </c>
       <c r="AI170" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>
@@ -20910,10 +20909,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973724</v>
+        <v>111973718</v>
       </c>
       <c r="B171" t="n">
-        <v>88489</v>
+        <v>90652</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20926,34 +20925,43 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr"/>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P171" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>437892.4817196695</v>
+        <v>437913.625653744</v>
       </c>
       <c r="R171" t="n">
-        <v>6953090.40240525</v>
+        <v>6953163.457536075</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -21010,14 +21018,6 @@
       <c r="AI171" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN171" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO171" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT171" t="inlineStr"/>
@@ -21039,7 +21039,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973695</v>
+        <v>111973803</v>
       </c>
       <c r="B172" t="n">
         <v>90652</v>
@@ -21088,10 +21088,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>438290.0744879689</v>
+        <v>437808.5351863222</v>
       </c>
       <c r="R172" t="n">
-        <v>6953135.275183067</v>
+        <v>6953100.247750094</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -21147,7 +21147,7 @@
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr"/>
@@ -21169,10 +21169,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973670</v>
+        <v>111973722</v>
       </c>
       <c r="B173" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21181,25 +21181,25 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -21218,10 +21218,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>437925.5671573002</v>
+        <v>437913.6481065798</v>
       </c>
       <c r="R173" t="n">
-        <v>6953260.555743226</v>
+        <v>6953091.381175105</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973767</v>
+        <v>111973663</v>
       </c>
       <c r="B174" t="n">
         <v>90660</v>
@@ -21348,10 +21348,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>437702.0952541633</v>
+        <v>438169.8244046976</v>
       </c>
       <c r="R174" t="n">
-        <v>6953233.552758955</v>
+        <v>6953366.599956161</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -21429,10 +21429,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973768</v>
+        <v>111973697</v>
       </c>
       <c r="B175" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -21441,25 +21441,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -21478,10 +21478,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>437637.973121325</v>
+        <v>438216.5943784415</v>
       </c>
       <c r="R175" t="n">
-        <v>6953148.917516032</v>
+        <v>6953090.283452681</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -21559,10 +21559,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973713</v>
+        <v>111973738</v>
       </c>
       <c r="B176" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -21575,21 +21575,21 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -21608,10 +21608,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>438002.4574124058</v>
+        <v>437818.6501005701</v>
       </c>
       <c r="R176" t="n">
-        <v>6953193.462733216</v>
+        <v>6953417.270802823</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -21623,7 +21623,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -21633,7 +21633,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -21689,10 +21689,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973650</v>
+        <v>111973731</v>
       </c>
       <c r="B177" t="n">
-        <v>90652</v>
+        <v>88010</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21701,25 +21701,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21738,10 +21738,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>438617.2579858238</v>
+        <v>437841.7707476557</v>
       </c>
       <c r="R177" t="n">
-        <v>6953572.150569057</v>
+        <v>6953302.531346441</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21797,7 +21797,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr"/>
@@ -21819,10 +21819,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973678</v>
+        <v>111973739</v>
       </c>
       <c r="B178" t="n">
-        <v>90654</v>
+        <v>90682</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21831,25 +21831,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>149</v>
+        <v>2059</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21868,10 +21868,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>438245.3208427017</v>
+        <v>437780.5956911595</v>
       </c>
       <c r="R178" t="n">
-        <v>6953249.503443779</v>
+        <v>6953422.578950249</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21883,7 +21883,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
@@ -21893,7 +21893,7 @@
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
@@ -21927,7 +21927,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr"/>
@@ -21949,10 +21949,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973738</v>
+        <v>111973708</v>
       </c>
       <c r="B179" t="n">
-        <v>90652</v>
+        <v>90654</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21961,25 +21961,25 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -21998,10 +21998,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>437818.6501005701</v>
+        <v>438068.6025824957</v>
       </c>
       <c r="R179" t="n">
-        <v>6953417.270802823</v>
+        <v>6953092.599814337</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -22013,7 +22013,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT179" t="inlineStr"/>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973725</v>
+        <v>111973680</v>
       </c>
       <c r="B180" t="n">
         <v>90660</v>
@@ -22128,10 +22128,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>437859.825927439</v>
+        <v>438403.109237605</v>
       </c>
       <c r="R180" t="n">
-        <v>6953089.64020811</v>
+        <v>6953181.365192754</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -22209,10 +22209,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973698</v>
+        <v>111973672</v>
       </c>
       <c r="B181" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -22225,21 +22225,21 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -22258,10 +22258,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>438207.123851296</v>
+        <v>438161.9732156845</v>
       </c>
       <c r="R181" t="n">
-        <v>6953100.10165237</v>
+        <v>6953217.553276672</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -22317,7 +22317,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -22339,10 +22339,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973697</v>
+        <v>111973766</v>
       </c>
       <c r="B182" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22351,25 +22351,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -22388,10 +22388,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>438216.5943784415</v>
+        <v>437707.7139296347</v>
       </c>
       <c r="R182" t="n">
-        <v>6953090.283452681</v>
+        <v>6953238.955457177</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -22469,10 +22469,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973703</v>
+        <v>111973711</v>
       </c>
       <c r="B183" t="n">
-        <v>88010</v>
+        <v>90660</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -22481,25 +22481,25 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -22518,10 +22518,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>438029.3740389285</v>
+        <v>438030.8777618795</v>
       </c>
       <c r="R183" t="n">
-        <v>6953011.159128131</v>
+        <v>6953140.134856743</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22599,10 +22599,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973731</v>
+        <v>111973678</v>
       </c>
       <c r="B184" t="n">
-        <v>88010</v>
+        <v>90654</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22615,21 +22615,21 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1596</v>
+        <v>149</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -22648,10 +22648,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>437841.7707476557</v>
+        <v>438245.3208427017</v>
       </c>
       <c r="R184" t="n">
-        <v>6953302.531346441</v>
+        <v>6953249.503443779</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22707,7 +22707,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -22729,7 +22729,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973743</v>
+        <v>111973698</v>
       </c>
       <c r="B185" t="n">
         <v>90660</v>
@@ -22778,10 +22778,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>437633.050214521</v>
+        <v>438207.123851296</v>
       </c>
       <c r="R185" t="n">
-        <v>6953301.881070362</v>
+        <v>6953100.10165237</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
@@ -22803,7 +22803,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
@@ -22837,7 +22837,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22859,10 +22859,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973763</v>
+        <v>111973655</v>
       </c>
       <c r="B186" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22875,21 +22875,21 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22908,10 +22908,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>437630.1355663574</v>
+        <v>438489.0756873108</v>
       </c>
       <c r="R186" t="n">
-        <v>6953220.681589473</v>
+        <v>6953526.341858554</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22967,7 +22967,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -22989,10 +22989,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973766</v>
+        <v>111973665</v>
       </c>
       <c r="B187" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23001,25 +23001,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>437707.7139296347</v>
+        <v>438214.6362894689</v>
       </c>
       <c r="R187" t="n">
-        <v>6953238.955457177</v>
+        <v>6953402.942781798</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23119,10 +23119,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973681</v>
+        <v>111973696</v>
       </c>
       <c r="B188" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23135,21 +23135,21 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -23168,10 +23168,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>438493.2177188767</v>
+        <v>438244.0616158294</v>
       </c>
       <c r="R188" t="n">
-        <v>6953181.51986871</v>
+        <v>6953108.59152039</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23249,10 +23249,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973719</v>
+        <v>111973732</v>
       </c>
       <c r="B189" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23265,21 +23265,21 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23298,10 +23298,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>437937.8271789091</v>
+        <v>437870.3376588458</v>
       </c>
       <c r="R189" t="n">
-        <v>6953154.738653069</v>
+        <v>6953354.784377262</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973692</v>
+        <v>111973768</v>
       </c>
       <c r="B190" t="n">
         <v>90682</v>
@@ -23428,10 +23428,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>438375.4788469387</v>
+        <v>437637.973121325</v>
       </c>
       <c r="R190" t="n">
-        <v>6953080.424831095</v>
+        <v>6953148.917516032</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23487,7 +23487,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -23509,10 +23509,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973660</v>
+        <v>111973706</v>
       </c>
       <c r="B191" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -23525,21 +23525,21 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -23558,10 +23558,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>438117.6502478332</v>
+        <v>438039.4596956634</v>
       </c>
       <c r="R191" t="n">
-        <v>6953329.936377568</v>
+        <v>6953083.047228135</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -23617,7 +23617,7 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr"/>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973705</v>
+        <v>111973736</v>
       </c>
       <c r="B192" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -23655,21 +23655,21 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>438039.6778841515</v>
+        <v>437842.6892572012</v>
       </c>
       <c r="R192" t="n">
-        <v>6953070.188645583</v>
+        <v>6953497.608170006</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -23703,7 +23703,7 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
@@ -23713,7 +23713,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr">
@@ -23747,7 +23747,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -23769,10 +23769,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973722</v>
+        <v>111973733</v>
       </c>
       <c r="B193" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23781,25 +23781,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -23818,10 +23818,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>437913.6481065798</v>
+        <v>437876.3203048867</v>
       </c>
       <c r="R193" t="n">
-        <v>6953091.381175105</v>
+        <v>6953355.130729643</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23877,7 +23877,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23899,10 +23899,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973802</v>
+        <v>111973651</v>
       </c>
       <c r="B194" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23911,25 +23911,25 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23948,10 +23948,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>437785.6957705052</v>
+        <v>438594.9557070844</v>
       </c>
       <c r="R194" t="n">
-        <v>6953083.69221758</v>
+        <v>6953584.041166852</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -24007,7 +24007,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -24029,7 +24029,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973667</v>
+        <v>111973669</v>
       </c>
       <c r="B195" t="n">
         <v>90660</v>
@@ -24078,10 +24078,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>438213.507009695</v>
+        <v>437912.8137109271</v>
       </c>
       <c r="R195" t="n">
-        <v>6953416.276142</v>
+        <v>6953242.433193879</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24289,10 +24289,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973666</v>
+        <v>111973689</v>
       </c>
       <c r="B197" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24305,21 +24305,21 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -24338,10 +24338,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>438213.507009695</v>
+        <v>438478.4845183876</v>
       </c>
       <c r="R197" t="n">
-        <v>6953416.276142</v>
+        <v>6953007.801968225</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24419,10 +24419,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973726</v>
+        <v>111973713</v>
       </c>
       <c r="B198" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24435,21 +24435,21 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -24468,10 +24468,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>437857.8639418939</v>
+        <v>438002.4574124058</v>
       </c>
       <c r="R198" t="n">
-        <v>6953131.912996286</v>
+        <v>6953193.462733216</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24549,7 +24549,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973734</v>
+        <v>111973716</v>
       </c>
       <c r="B199" t="n">
         <v>90660</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>437925.1695921989</v>
+        <v>437942.142677932</v>
       </c>
       <c r="R199" t="n">
-        <v>6953361.555738406</v>
+        <v>6953188.629084867</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24657,7 +24657,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24679,10 +24679,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973679</v>
+        <v>111973714</v>
       </c>
       <c r="B200" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -24695,21 +24695,21 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -24728,10 +24728,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>438324.49743335</v>
+        <v>437974.9333715859</v>
       </c>
       <c r="R200" t="n">
-        <v>6953230.577437581</v>
+        <v>6953221.065410748</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -24809,10 +24809,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973694</v>
+        <v>111973744</v>
       </c>
       <c r="B201" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -24821,25 +24821,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -24858,10 +24858,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>438325.5423512529</v>
+        <v>437686.9991506658</v>
       </c>
       <c r="R201" t="n">
-        <v>6953163.533631108</v>
+        <v>6953383.491049132</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24873,7 +24873,7 @@
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
@@ -24883,7 +24883,7 @@
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -24939,10 +24939,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973656</v>
+        <v>111973763</v>
       </c>
       <c r="B202" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24951,25 +24951,25 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24988,10 +24988,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>438305.464494833</v>
+        <v>437630.1355663574</v>
       </c>
       <c r="R202" t="n">
-        <v>6953417.308850316</v>
+        <v>6953220.681589473</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -25047,7 +25047,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr"/>
@@ -25069,10 +25069,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973690</v>
+        <v>111973764</v>
       </c>
       <c r="B203" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -25081,25 +25081,25 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -25118,10 +25118,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>438392.7937311309</v>
+        <v>437776.3383109252</v>
       </c>
       <c r="R203" t="n">
-        <v>6953047.506099407</v>
+        <v>6953123.809258236</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -25199,7 +25199,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973735</v>
+        <v>111973725</v>
       </c>
       <c r="B204" t="n">
         <v>90660</v>
@@ -25248,10 +25248,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>437908.4053289952</v>
+        <v>437859.825927439</v>
       </c>
       <c r="R204" t="n">
-        <v>6953423.383435746</v>
+        <v>6953089.64020811</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -25263,7 +25263,7 @@
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y204" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="AI204" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT204" t="inlineStr"/>
@@ -25329,10 +25329,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973683</v>
+        <v>111973720</v>
       </c>
       <c r="B205" t="n">
-        <v>88010</v>
+        <v>90652</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -25341,25 +25341,25 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -25378,10 +25378,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>438569.6720420276</v>
+        <v>437936.1394948753</v>
       </c>
       <c r="R205" t="n">
-        <v>6953139.69648798</v>
+        <v>6953113.912172817</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -25459,10 +25459,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973653</v>
+        <v>111973658</v>
       </c>
       <c r="B206" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -25471,25 +25471,25 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -25508,10 +25508,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438544.6107581231</v>
+        <v>438250.4063445947</v>
       </c>
       <c r="R206" t="n">
-        <v>6953546.421492521</v>
+        <v>6953324.693784647</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -25589,10 +25589,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973686</v>
+        <v>111973660</v>
       </c>
       <c r="B207" t="n">
-        <v>90300</v>
+        <v>90660</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -25605,21 +25605,21 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -25638,10 +25638,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>438557.4797566309</v>
+        <v>438117.6502478332</v>
       </c>
       <c r="R207" t="n">
-        <v>6953077.488546882</v>
+        <v>6953329.936377568</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -20909,10 +20909,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973718</v>
+        <v>111973697</v>
       </c>
       <c r="B171" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20921,25 +20921,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -20958,10 +20958,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>437913.625653744</v>
+        <v>438216.5943784415</v>
       </c>
       <c r="R171" t="n">
-        <v>6953163.457536075</v>
+        <v>6953090.283452681</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -21039,7 +21039,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973803</v>
+        <v>111973738</v>
       </c>
       <c r="B172" t="n">
         <v>90652</v>
@@ -21088,10 +21088,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>437808.5351863222</v>
+        <v>437818.6501005701</v>
       </c>
       <c r="R172" t="n">
-        <v>6953100.247750094</v>
+        <v>6953417.270802823</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -21103,7 +21103,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
@@ -21113,7 +21113,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -21147,7 +21147,7 @@
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr"/>
@@ -21169,10 +21169,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973722</v>
+        <v>111973718</v>
       </c>
       <c r="B173" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21181,25 +21181,25 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -21218,10 +21218,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>437913.6481065798</v>
+        <v>437913.625653744</v>
       </c>
       <c r="R173" t="n">
-        <v>6953091.381175105</v>
+        <v>6953163.457536075</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -21299,10 +21299,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973663</v>
+        <v>111973803</v>
       </c>
       <c r="B174" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -21315,21 +21315,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -21348,10 +21348,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>438169.8244046976</v>
+        <v>437808.5351863222</v>
       </c>
       <c r="R174" t="n">
-        <v>6953366.599956161</v>
+        <v>6953100.247750094</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -21407,7 +21407,7 @@
       </c>
       <c r="AI174" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr"/>
@@ -21429,7 +21429,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973697</v>
+        <v>111973722</v>
       </c>
       <c r="B175" t="n">
         <v>88032</v>
@@ -21478,10 +21478,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>438216.5943784415</v>
+        <v>437913.6481065798</v>
       </c>
       <c r="R175" t="n">
-        <v>6953090.283452681</v>
+        <v>6953091.381175105</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -21559,10 +21559,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973738</v>
+        <v>111973663</v>
       </c>
       <c r="B176" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -21575,21 +21575,21 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -21608,10 +21608,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>437818.6501005701</v>
+        <v>438169.8244046976</v>
       </c>
       <c r="R176" t="n">
-        <v>6953417.270802823</v>
+        <v>6953366.599956161</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -21623,7 +21623,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -21633,7 +21633,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -22339,10 +22339,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973766</v>
+        <v>111973665</v>
       </c>
       <c r="B182" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22351,25 +22351,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -22388,10 +22388,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>437707.7139296347</v>
+        <v>438214.6362894689</v>
       </c>
       <c r="R182" t="n">
-        <v>6953238.955457177</v>
+        <v>6953402.942781798</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -22469,7 +22469,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973711</v>
+        <v>111973655</v>
       </c>
       <c r="B183" t="n">
         <v>90660</v>
@@ -22518,10 +22518,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>438030.8777618795</v>
+        <v>438489.0756873108</v>
       </c>
       <c r="R183" t="n">
-        <v>6953140.134856743</v>
+        <v>6953526.341858554</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -22599,10 +22599,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973678</v>
+        <v>111973766</v>
       </c>
       <c r="B184" t="n">
-        <v>90654</v>
+        <v>90652</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22611,25 +22611,25 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -22648,10 +22648,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>438245.3208427017</v>
+        <v>437707.7139296347</v>
       </c>
       <c r="R184" t="n">
-        <v>6953249.503443779</v>
+        <v>6953238.955457177</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22707,7 +22707,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -22729,7 +22729,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973698</v>
+        <v>111973711</v>
       </c>
       <c r="B185" t="n">
         <v>90660</v>
@@ -22778,10 +22778,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438207.123851296</v>
+        <v>438030.8777618795</v>
       </c>
       <c r="R185" t="n">
-        <v>6953100.10165237</v>
+        <v>6953140.134856743</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22859,10 +22859,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973655</v>
+        <v>111973678</v>
       </c>
       <c r="B186" t="n">
-        <v>90660</v>
+        <v>90654</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22871,25 +22871,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22908,10 +22908,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>438489.0756873108</v>
+        <v>438245.3208427017</v>
       </c>
       <c r="R186" t="n">
-        <v>6953526.341858554</v>
+        <v>6953249.503443779</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22967,7 +22967,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -22989,10 +22989,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973665</v>
+        <v>111973698</v>
       </c>
       <c r="B187" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -23001,25 +23001,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>438214.6362894689</v>
+        <v>438207.123851296</v>
       </c>
       <c r="R187" t="n">
-        <v>6953402.942781798</v>
+        <v>6953100.10165237</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23769,7 +23769,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973733</v>
+        <v>111973669</v>
       </c>
       <c r="B193" t="n">
         <v>90660</v>
@@ -23818,10 +23818,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>437876.3203048867</v>
+        <v>437912.8137109271</v>
       </c>
       <c r="R193" t="n">
-        <v>6953355.130729643</v>
+        <v>6953242.433193879</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23877,7 +23877,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23899,10 +23899,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973651</v>
+        <v>111973733</v>
       </c>
       <c r="B194" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23915,21 +23915,21 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23948,10 +23948,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>438594.9557070844</v>
+        <v>437876.3203048867</v>
       </c>
       <c r="R194" t="n">
-        <v>6953584.041166852</v>
+        <v>6953355.130729643</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -24007,7 +24007,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -24029,10 +24029,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973669</v>
+        <v>111973651</v>
       </c>
       <c r="B195" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24045,21 +24045,21 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -24078,10 +24078,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>437912.8137109271</v>
+        <v>438594.9557070844</v>
       </c>
       <c r="R195" t="n">
-        <v>6953242.433193879</v>
+        <v>6953584.041166852</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24137,7 +24137,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -24289,7 +24289,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973689</v>
+        <v>111973716</v>
       </c>
       <c r="B197" t="n">
         <v>90660</v>
@@ -24338,10 +24338,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>438478.4845183876</v>
+        <v>437942.142677932</v>
       </c>
       <c r="R197" t="n">
-        <v>6953007.801968225</v>
+        <v>6953188.629084867</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24419,10 +24419,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973713</v>
+        <v>111973714</v>
       </c>
       <c r="B198" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24435,21 +24435,21 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -24468,10 +24468,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>438002.4574124058</v>
+        <v>437974.9333715859</v>
       </c>
       <c r="R198" t="n">
-        <v>6953193.462733216</v>
+        <v>6953221.065410748</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24549,7 +24549,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973716</v>
+        <v>111973744</v>
       </c>
       <c r="B199" t="n">
         <v>90660</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>437942.142677932</v>
+        <v>437686.9991506658</v>
       </c>
       <c r="R199" t="n">
-        <v>6953188.629084867</v>
+        <v>6953383.491049132</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24613,7 +24613,7 @@
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
@@ -24623,7 +24623,7 @@
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
@@ -24657,7 +24657,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24679,10 +24679,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973714</v>
+        <v>111973763</v>
       </c>
       <c r="B200" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -24695,21 +24695,21 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -24728,10 +24728,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>437974.9333715859</v>
+        <v>437630.1355663574</v>
       </c>
       <c r="R200" t="n">
-        <v>6953221.065410748</v>
+        <v>6953220.681589473</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24809,7 +24809,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973744</v>
+        <v>111973764</v>
       </c>
       <c r="B201" t="n">
         <v>90660</v>
@@ -24858,10 +24858,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>437686.9991506658</v>
+        <v>437776.3383109252</v>
       </c>
       <c r="R201" t="n">
-        <v>6953383.491049132</v>
+        <v>6953123.809258236</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24873,7 +24873,7 @@
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
@@ -24883,7 +24883,7 @@
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -24939,10 +24939,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973763</v>
+        <v>111973725</v>
       </c>
       <c r="B202" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24955,21 +24955,21 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24988,10 +24988,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>437630.1355663574</v>
+        <v>437859.825927439</v>
       </c>
       <c r="R202" t="n">
-        <v>6953220.681589473</v>
+        <v>6953089.64020811</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -25069,10 +25069,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973764</v>
+        <v>111973720</v>
       </c>
       <c r="B203" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -25085,21 +25085,21 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -25118,10 +25118,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>437776.3383109252</v>
+        <v>437936.1394948753</v>
       </c>
       <c r="R203" t="n">
-        <v>6953123.809258236</v>
+        <v>6953113.912172817</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -25199,7 +25199,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973725</v>
+        <v>111973689</v>
       </c>
       <c r="B204" t="n">
         <v>90660</v>
@@ -25248,10 +25248,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>437859.825927439</v>
+        <v>438478.4845183876</v>
       </c>
       <c r="R204" t="n">
-        <v>6953089.64020811</v>
+        <v>6953007.801968225</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -25329,7 +25329,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973720</v>
+        <v>111973658</v>
       </c>
       <c r="B205" t="n">
         <v>90652</v>
@@ -25378,10 +25378,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>437936.1394948753</v>
+        <v>438250.4063445947</v>
       </c>
       <c r="R205" t="n">
-        <v>6953113.912172817</v>
+        <v>6953324.693784647</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -25437,7 +25437,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT205" t="inlineStr"/>
@@ -25459,10 +25459,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973658</v>
+        <v>111973660</v>
       </c>
       <c r="B206" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -25475,21 +25475,21 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -25508,10 +25508,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438250.4063445947</v>
+        <v>438117.6502478332</v>
       </c>
       <c r="R206" t="n">
-        <v>6953324.693784647</v>
+        <v>6953329.936377568</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -25589,7 +25589,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973660</v>
+        <v>111973713</v>
       </c>
       <c r="B207" t="n">
         <v>90660</v>
@@ -25638,10 +25638,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>438117.6502478332</v>
+        <v>438002.4574124058</v>
       </c>
       <c r="R207" t="n">
-        <v>6953329.936377568</v>
+        <v>6953193.462733216</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12720,10 +12720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973681</v>
+        <v>111973802</v>
       </c>
       <c r="B108" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12732,25 +12732,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>438493.2177188767</v>
+        <v>437786</v>
       </c>
       <c r="R108" t="n">
-        <v>6953181.51986871</v>
+        <v>6953084</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12802,21 +12802,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA108" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB108" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD108" t="b">
         <v>0</v>
       </c>
@@ -12828,7 +12818,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT108" t="inlineStr"/>
@@ -12850,10 +12840,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973691</v>
+        <v>111973714</v>
       </c>
       <c r="B109" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12866,21 +12856,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12899,10 +12889,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>438380.4570261125</v>
+        <v>437975</v>
       </c>
       <c r="R109" t="n">
-        <v>6953076.200047398</v>
+        <v>6953221</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12932,19 +12922,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA109" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12980,10 +12960,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973688</v>
+        <v>111973724</v>
       </c>
       <c r="B110" t="n">
-        <v>90678</v>
+        <v>88489</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12992,47 +12972,38 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4366</v>
+        <v>1962</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>438543.8591373209</v>
+        <v>437892</v>
       </c>
       <c r="R110" t="n">
-        <v>6953037.342524837</v>
+        <v>6953090</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13062,21 +13033,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA110" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD110" t="b">
         <v>0</v>
       </c>
@@ -13089,6 +13050,14 @@
       <c r="AI110" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT110" t="inlineStr"/>
@@ -13110,7 +13079,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973721</v>
+        <v>111973698</v>
       </c>
       <c r="B111" t="n">
         <v>90660</v>
@@ -13159,10 +13128,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>437964.8874965879</v>
+        <v>438207</v>
       </c>
       <c r="R111" t="n">
-        <v>6953078.02169135</v>
+        <v>6953100</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13192,19 +13161,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA111" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13240,7 +13199,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973692</v>
+        <v>111973800</v>
       </c>
       <c r="B112" t="n">
         <v>90682</v>
@@ -13289,10 +13248,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>438375.4788469387</v>
+        <v>437772</v>
       </c>
       <c r="R112" t="n">
-        <v>6953080.424831095</v>
+        <v>6953072</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13322,21 +13281,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD112" t="b">
         <v>0</v>
       </c>
@@ -13348,7 +13297,7 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr"/>
@@ -13370,7 +13319,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973743</v>
+        <v>111973669</v>
       </c>
       <c r="B113" t="n">
         <v>90660</v>
@@ -13419,10 +13368,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>437633.050214521</v>
+        <v>437913</v>
       </c>
       <c r="R113" t="n">
-        <v>6953301.881070362</v>
+        <v>6953242</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13434,7 +13383,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -13444,7 +13393,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13452,21 +13401,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD113" t="b">
         <v>0</v>
       </c>
@@ -13478,7 +13417,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13500,7 +13439,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973703</v>
+        <v>111973717</v>
       </c>
       <c r="B114" t="n">
         <v>88010</v>
@@ -13549,10 +13488,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>438029.3740389285</v>
+        <v>437925</v>
       </c>
       <c r="R114" t="n">
-        <v>6953011.159128131</v>
+        <v>6953182</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13582,19 +13521,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA114" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB114" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD114" t="b">
@@ -13630,7 +13559,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973700</v>
+        <v>111973673</v>
       </c>
       <c r="B115" t="n">
         <v>90652</v>
@@ -13679,10 +13608,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>438151.4465756729</v>
+        <v>438127</v>
       </c>
       <c r="R115" t="n">
-        <v>6953097.472532819</v>
+        <v>6953244</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13712,21 +13641,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA115" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD115" t="b">
         <v>0</v>
       </c>
@@ -13738,7 +13657,7 @@
       </c>
       <c r="AI115" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT115" t="inlineStr"/>
@@ -13760,10 +13679,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973723</v>
+        <v>111973703</v>
       </c>
       <c r="B116" t="n">
-        <v>90652</v>
+        <v>88010</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13772,25 +13691,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13809,10 +13728,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>437903.5547303436</v>
+        <v>438029</v>
       </c>
       <c r="R116" t="n">
-        <v>6953092.489357711</v>
+        <v>6953011</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13842,19 +13761,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA116" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB116" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -13890,10 +13799,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973656</v>
+        <v>111973689</v>
       </c>
       <c r="B117" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13902,25 +13811,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13939,10 +13848,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>438305.464494833</v>
+        <v>438478</v>
       </c>
       <c r="R117" t="n">
-        <v>6953417.308850316</v>
+        <v>6953008</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13972,21 +13881,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA117" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD117" t="b">
         <v>0</v>
       </c>
@@ -13998,7 +13897,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr"/>
@@ -14020,7 +13919,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973701</v>
+        <v>111973649</v>
       </c>
       <c r="B118" t="n">
         <v>90682</v>
@@ -14069,10 +13968,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>438134.3562496312</v>
+        <v>438644</v>
       </c>
       <c r="R118" t="n">
-        <v>6953093.202189791</v>
+        <v>6953596</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14102,21 +14001,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA118" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD118" t="b">
         <v>0</v>
       </c>
@@ -14128,7 +14017,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14150,7 +14039,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973695</v>
+        <v>111973720</v>
       </c>
       <c r="B119" t="n">
         <v>90652</v>
@@ -14199,10 +14088,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>438290.0744879689</v>
+        <v>437936</v>
       </c>
       <c r="R119" t="n">
-        <v>6953135.275183067</v>
+        <v>6953114</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14232,19 +14121,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA119" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -14280,7 +14159,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973709</v>
+        <v>111973701</v>
       </c>
       <c r="B120" t="n">
         <v>90682</v>
@@ -14329,10 +14208,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>438062.0622929674</v>
+        <v>438134</v>
       </c>
       <c r="R120" t="n">
-        <v>6953111.545111132</v>
+        <v>6953093</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14362,19 +14241,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA120" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB120" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -14410,7 +14279,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973734</v>
+        <v>111973663</v>
       </c>
       <c r="B121" t="n">
         <v>90660</v>
@@ -14459,10 +14328,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>437925.1695921989</v>
+        <v>438170</v>
       </c>
       <c r="R121" t="n">
-        <v>6953361.555738406</v>
+        <v>6953367</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14492,21 +14361,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA121" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB121" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD121" t="b">
         <v>0</v>
       </c>
@@ -14518,7 +14377,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14540,10 +14399,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973677</v>
+        <v>111973723</v>
       </c>
       <c r="B122" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14556,21 +14415,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14589,10 +14448,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>438218.2330045793</v>
+        <v>437904</v>
       </c>
       <c r="R122" t="n">
-        <v>6953251.387939887</v>
+        <v>6953092</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14622,21 +14481,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA122" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB122" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD122" t="b">
         <v>0</v>
       </c>
@@ -14648,7 +14497,7 @@
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr"/>
@@ -14670,7 +14519,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973652</v>
+        <v>111973740</v>
       </c>
       <c r="B123" t="n">
         <v>90660</v>
@@ -14719,10 +14568,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>438537.7865028595</v>
+        <v>437785</v>
       </c>
       <c r="R123" t="n">
-        <v>6953550.220835418</v>
+        <v>6953387</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14734,7 +14583,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -14744,7 +14593,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -14752,21 +14601,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA123" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB123" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD123" t="b">
         <v>0</v>
       </c>
@@ -14778,7 +14617,7 @@
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr"/>
@@ -14800,10 +14639,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973649</v>
+        <v>111973803</v>
       </c>
       <c r="B124" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14816,21 +14655,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -14849,10 +14688,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>438643.9109478882</v>
+        <v>437809</v>
       </c>
       <c r="R124" t="n">
-        <v>6953596.441367409</v>
+        <v>6953100</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14882,21 +14721,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA124" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB124" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD124" t="b">
         <v>0</v>
       </c>
@@ -14908,7 +14737,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14930,7 +14759,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973675</v>
+        <v>111973716</v>
       </c>
       <c r="B125" t="n">
         <v>90660</v>
@@ -14979,10 +14808,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>438160.5186564626</v>
+        <v>437942</v>
       </c>
       <c r="R125" t="n">
-        <v>6953262.568950667</v>
+        <v>6953189</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -15012,21 +14841,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA125" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB125" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD125" t="b">
         <v>0</v>
       </c>
@@ -15038,7 +14857,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -15060,10 +14879,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111973666</v>
+        <v>111973719</v>
       </c>
       <c r="B126" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15076,21 +14895,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -15109,10 +14928,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>438213.507009695</v>
+        <v>437938</v>
       </c>
       <c r="R126" t="n">
-        <v>6953416.276142</v>
+        <v>6953155</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -15142,19 +14961,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA126" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB126" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -15190,7 +14999,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973726</v>
+        <v>111973687</v>
       </c>
       <c r="B127" t="n">
         <v>90652</v>
@@ -15239,10 +15048,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>437857.8639418939</v>
+        <v>438549</v>
       </c>
       <c r="R127" t="n">
-        <v>6953131.912996286</v>
+        <v>6953054</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15272,19 +15081,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA127" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB127" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -15320,10 +15119,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973690</v>
+        <v>111973705</v>
       </c>
       <c r="B128" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15332,25 +15131,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15369,10 +15168,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>438392.7937311309</v>
+        <v>438040</v>
       </c>
       <c r="R128" t="n">
-        <v>6953047.506099407</v>
+        <v>6953070</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15402,19 +15201,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA128" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB128" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -15450,10 +15239,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973699</v>
+        <v>111973684</v>
       </c>
       <c r="B129" t="n">
-        <v>90654</v>
+        <v>90682</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15462,25 +15251,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>149</v>
+        <v>2059</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15499,10 +15288,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>438167.2097542446</v>
+        <v>438577</v>
       </c>
       <c r="R129" t="n">
-        <v>6953104.522341937</v>
+        <v>6953121</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15532,19 +15321,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA129" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB129" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -15580,10 +15359,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973679</v>
+        <v>111973695</v>
       </c>
       <c r="B130" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15596,21 +15375,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15629,10 +15408,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>438324.49743335</v>
+        <v>438290</v>
       </c>
       <c r="R130" t="n">
-        <v>6953230.577437581</v>
+        <v>6953135</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15662,21 +15441,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA130" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB130" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD130" t="b">
         <v>0</v>
       </c>
@@ -15688,7 +15457,7 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr"/>
@@ -15710,10 +15479,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973694</v>
+        <v>111973726</v>
       </c>
       <c r="B131" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15722,25 +15491,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15759,10 +15528,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>438325.5423512529</v>
+        <v>437858</v>
       </c>
       <c r="R131" t="n">
-        <v>6953163.533631108</v>
+        <v>6953132</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15792,19 +15561,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA131" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB131" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -15840,10 +15599,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973800</v>
+        <v>111973688</v>
       </c>
       <c r="B132" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15852,25 +15611,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15889,10 +15648,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>437771.6747036168</v>
+        <v>438544</v>
       </c>
       <c r="R132" t="n">
-        <v>6953071.561281924</v>
+        <v>6953037</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15922,19 +15681,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA132" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB132" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -15970,10 +15719,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973742</v>
+        <v>111973686</v>
       </c>
       <c r="B133" t="n">
-        <v>90652</v>
+        <v>90300</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15986,21 +15735,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3100</v>
+        <v>4745</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -16019,10 +15768,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>437768.9973591214</v>
+        <v>438557</v>
       </c>
       <c r="R133" t="n">
-        <v>6953319.511656794</v>
+        <v>6953077</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16052,21 +15801,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA133" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB133" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD133" t="b">
         <v>0</v>
       </c>
@@ -16078,7 +15817,7 @@
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -16100,10 +15839,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973719</v>
+        <v>111973731</v>
       </c>
       <c r="B134" t="n">
-        <v>90682</v>
+        <v>88010</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16112,25 +15851,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -16149,10 +15888,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>437937.8271789091</v>
+        <v>437842</v>
       </c>
       <c r="R134" t="n">
-        <v>6953154.738653069</v>
+        <v>6953303</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16182,19 +15921,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA134" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB134" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -16230,10 +15959,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973741</v>
+        <v>111973763</v>
       </c>
       <c r="B135" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16246,21 +15975,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16279,10 +16008,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>437770.6617250814</v>
+        <v>437630</v>
       </c>
       <c r="R135" t="n">
-        <v>6953334.629086277</v>
+        <v>6953221</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16294,7 +16023,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
@@ -16304,7 +16033,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
@@ -16312,21 +16041,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA135" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB135" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD135" t="b">
         <v>0</v>
       </c>
@@ -16338,7 +16057,7 @@
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16360,10 +16079,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973724</v>
+        <v>111973675</v>
       </c>
       <c r="B136" t="n">
-        <v>88489</v>
+        <v>90660</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16376,34 +16095,43 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>437892.4817196695</v>
+        <v>438161</v>
       </c>
       <c r="R136" t="n">
-        <v>6953090.40240525</v>
+        <v>6953263</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16433,21 +16161,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA136" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB136" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD136" t="b">
         <v>0</v>
       </c>
@@ -16459,15 +16177,7 @@
       </c>
       <c r="AI136" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO136" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16489,10 +16199,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973670</v>
+        <v>111973691</v>
       </c>
       <c r="B137" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16505,21 +16215,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16538,10 +16248,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>437925.5671573002</v>
+        <v>438380</v>
       </c>
       <c r="R137" t="n">
-        <v>6953260.555743226</v>
+        <v>6953076</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16571,19 +16281,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA137" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB137" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD137" t="b">
@@ -16619,7 +16319,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973712</v>
+        <v>111973732</v>
       </c>
       <c r="B138" t="n">
         <v>90652</v>
@@ -16668,10 +16368,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>438007.0616481225</v>
+        <v>437870</v>
       </c>
       <c r="R138" t="n">
-        <v>6953193.835261973</v>
+        <v>6953355</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16701,21 +16401,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA138" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB138" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD138" t="b">
         <v>0</v>
       </c>
@@ -16727,7 +16417,7 @@
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16749,10 +16439,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973761</v>
+        <v>111973768</v>
       </c>
       <c r="B139" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16765,21 +16455,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16798,10 +16488,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>437571.0975250818</v>
+        <v>437638</v>
       </c>
       <c r="R139" t="n">
-        <v>6953283.313539348</v>
+        <v>6953149</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16813,7 +16503,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -16823,7 +16513,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -16831,19 +16521,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA139" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD139" t="b">
@@ -16879,10 +16559,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973705</v>
+        <v>111973671</v>
       </c>
       <c r="B140" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16891,25 +16571,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16928,10 +16608,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438039.6778841515</v>
+        <v>438033</v>
       </c>
       <c r="R140" t="n">
-        <v>6953070.188645583</v>
+        <v>6953252</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16961,19 +16641,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA140" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD140" t="b">
@@ -17009,10 +16679,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973673</v>
+        <v>111973692</v>
       </c>
       <c r="B141" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -17025,21 +16695,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -17058,10 +16728,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>438126.6098378488</v>
+        <v>438375</v>
       </c>
       <c r="R141" t="n">
-        <v>6953243.924237223</v>
+        <v>6953080</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17091,21 +16761,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA141" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB141" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD141" t="b">
         <v>0</v>
       </c>
@@ -17117,7 +16777,7 @@
       </c>
       <c r="AI141" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr"/>
@@ -17139,10 +16799,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973762</v>
+        <v>111973658</v>
       </c>
       <c r="B142" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17155,21 +16815,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -17188,10 +16848,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>437599.103955319</v>
+        <v>438250</v>
       </c>
       <c r="R142" t="n">
-        <v>6953281.406344013</v>
+        <v>6953325</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17203,7 +16863,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -17213,7 +16873,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
@@ -17221,21 +16881,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA142" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD142" t="b">
         <v>0</v>
       </c>
@@ -17247,7 +16897,7 @@
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -17269,10 +16919,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973684</v>
+        <v>111973767</v>
       </c>
       <c r="B143" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17285,21 +16935,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -17318,10 +16968,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>438577.1343039292</v>
+        <v>437702</v>
       </c>
       <c r="R143" t="n">
-        <v>6953120.735309405</v>
+        <v>6953234</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17351,19 +17001,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA143" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB143" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD143" t="b">
@@ -17399,10 +17039,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973727</v>
+        <v>111973683</v>
       </c>
       <c r="B144" t="n">
-        <v>90660</v>
+        <v>88010</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17411,25 +17051,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -17448,10 +17088,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>437870.6858627723</v>
+        <v>438570</v>
       </c>
       <c r="R144" t="n">
-        <v>6953178.038412376</v>
+        <v>6953140</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17481,19 +17121,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA144" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD144" t="b">
@@ -17529,10 +17159,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973653</v>
+        <v>111973650</v>
       </c>
       <c r="B145" t="n">
-        <v>88032</v>
+        <v>90652</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17541,25 +17171,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -17578,10 +17208,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>438544.6107581231</v>
+        <v>438617</v>
       </c>
       <c r="R145" t="n">
-        <v>6953546.421492521</v>
+        <v>6953572</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17611,19 +17241,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA145" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB145" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD145" t="b">
@@ -17659,10 +17279,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973648</v>
+        <v>111973655</v>
       </c>
       <c r="B146" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17675,21 +17295,21 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -17708,10 +17328,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>438637.1037644488</v>
+        <v>438489</v>
       </c>
       <c r="R146" t="n">
-        <v>6953601.158154471</v>
+        <v>6953526</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17741,19 +17361,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA146" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB146" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD146" t="b">
@@ -17789,10 +17399,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973671</v>
+        <v>111973725</v>
       </c>
       <c r="B147" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17801,25 +17411,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -17838,10 +17448,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>438033.4411253001</v>
+        <v>437860</v>
       </c>
       <c r="R147" t="n">
-        <v>6953252.100307667</v>
+        <v>6953090</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17871,19 +17481,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA147" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD147" t="b">
@@ -17919,10 +17519,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973735</v>
+        <v>111973761</v>
       </c>
       <c r="B148" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17935,21 +17535,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -17968,10 +17568,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>437908.4053289952</v>
+        <v>437571</v>
       </c>
       <c r="R148" t="n">
-        <v>6953423.383435746</v>
+        <v>6953283</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -18001,21 +17601,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA148" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD148" t="b">
         <v>0</v>
       </c>
@@ -18027,7 +17617,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr"/>
@@ -18049,10 +17639,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973667</v>
+        <v>111973742</v>
       </c>
       <c r="B149" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -18065,21 +17655,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -18098,10 +17688,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>438213.507009695</v>
+        <v>437769</v>
       </c>
       <c r="R149" t="n">
-        <v>6953416.276142</v>
+        <v>6953320</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -18131,21 +17721,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA149" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD149" t="b">
         <v>0</v>
       </c>
@@ -18157,7 +17737,7 @@
       </c>
       <c r="AI149" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -18179,10 +17759,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973745</v>
+        <v>111973678</v>
       </c>
       <c r="B150" t="n">
-        <v>90652</v>
+        <v>90654</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -18191,25 +17771,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -18228,10 +17808,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>437646.7856703376</v>
+        <v>438245</v>
       </c>
       <c r="R150" t="n">
-        <v>6953396.18633649</v>
+        <v>6953250</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18243,7 +17823,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
@@ -18253,7 +17833,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
@@ -18261,21 +17841,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA150" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD150" t="b">
         <v>0</v>
       </c>
@@ -18287,7 +17857,7 @@
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -18309,10 +17879,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973693</v>
+        <v>111973708</v>
       </c>
       <c r="B151" t="n">
-        <v>90682</v>
+        <v>90654</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18321,25 +17891,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -18358,10 +17928,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>438340.8243944077</v>
+        <v>438069</v>
       </c>
       <c r="R151" t="n">
-        <v>6953144.884858144</v>
+        <v>6953093</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18391,19 +17961,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA151" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB151" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -18439,10 +17999,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973740</v>
+        <v>111973704</v>
       </c>
       <c r="B152" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18455,21 +18015,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -18488,10 +18048,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>437784.9752950897</v>
+        <v>438040</v>
       </c>
       <c r="R152" t="n">
-        <v>6953386.690837187</v>
+        <v>6953056</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18503,7 +18063,7 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
@@ -18513,7 +18073,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -18521,21 +18081,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA152" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB152" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD152" t="b">
         <v>0</v>
       </c>
@@ -18547,7 +18097,7 @@
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -18569,10 +18119,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973707</v>
+        <v>111973700</v>
       </c>
       <c r="B153" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18585,21 +18135,21 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -18618,10 +18168,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438067.7466216629</v>
+        <v>438151</v>
       </c>
       <c r="R153" t="n">
-        <v>6953071.497848171</v>
+        <v>6953097</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18651,19 +18201,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA153" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB153" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD153" t="b">
@@ -18699,10 +18239,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973704</v>
+        <v>111973652</v>
       </c>
       <c r="B154" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18715,21 +18255,21 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18748,10 +18288,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438039.8702126255</v>
+        <v>438538</v>
       </c>
       <c r="R154" t="n">
-        <v>6953055.95322452</v>
+        <v>6953550</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18781,21 +18321,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA154" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD154" t="b">
         <v>0</v>
       </c>
@@ -18807,7 +18337,7 @@
       </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -18829,7 +18359,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973676</v>
+        <v>111973764</v>
       </c>
       <c r="B155" t="n">
         <v>90660</v>
@@ -18878,10 +18408,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>438195.4617540331</v>
+        <v>437776</v>
       </c>
       <c r="R155" t="n">
-        <v>6953262.832081575</v>
+        <v>6953124</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18911,21 +18441,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA155" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD155" t="b">
         <v>0</v>
       </c>
@@ -18937,7 +18457,7 @@
       </c>
       <c r="AI155" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr"/>
@@ -18959,10 +18479,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973801</v>
+        <v>111973722</v>
       </c>
       <c r="B156" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18971,25 +18491,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -19008,10 +18528,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>437774.9523556355</v>
+        <v>437914</v>
       </c>
       <c r="R156" t="n">
-        <v>6953074.713081508</v>
+        <v>6953091</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -19041,21 +18561,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA156" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB156" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD156" t="b">
         <v>0</v>
       </c>
@@ -19067,7 +18577,7 @@
       </c>
       <c r="AI156" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -19089,10 +18599,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973717</v>
+        <v>111973738</v>
       </c>
       <c r="B157" t="n">
-        <v>88010</v>
+        <v>90652</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -19101,25 +18611,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -19138,10 +18648,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>437925.4602650506</v>
+        <v>437819</v>
       </c>
       <c r="R157" t="n">
-        <v>6953181.597826566</v>
+        <v>6953417</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -19153,7 +18663,7 @@
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
@@ -19163,7 +18673,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
@@ -19171,21 +18681,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA157" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB157" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD157" t="b">
         <v>0</v>
       </c>
@@ -19197,7 +18697,7 @@
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -19219,10 +18719,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973654</v>
+        <v>111973734</v>
       </c>
       <c r="B158" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -19235,21 +18735,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -19268,10 +18768,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>438507.0138575528</v>
+        <v>437925</v>
       </c>
       <c r="R158" t="n">
-        <v>6953526.92536923</v>
+        <v>6953362</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -19301,21 +18801,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA158" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD158" t="b">
         <v>0</v>
       </c>
@@ -19327,7 +18817,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -19349,10 +18839,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973737</v>
+        <v>111973681</v>
       </c>
       <c r="B159" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -19361,25 +18851,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -19398,10 +18888,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>437826.2275051199</v>
+        <v>438493</v>
       </c>
       <c r="R159" t="n">
-        <v>6953429.063032418</v>
+        <v>6953182</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19413,7 +18903,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
@@ -19423,7 +18913,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -19431,21 +18921,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA159" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB159" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD159" t="b">
         <v>0</v>
       </c>
@@ -19457,7 +18937,7 @@
       </c>
       <c r="AI159" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr"/>
@@ -19479,10 +18959,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973715</v>
+        <v>111973662</v>
       </c>
       <c r="B160" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19491,25 +18971,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19528,10 +19008,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>437962.8122493967</v>
+        <v>438148</v>
       </c>
       <c r="R160" t="n">
-        <v>6953212.111986059</v>
+        <v>6953350</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19561,21 +19041,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA160" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD160" t="b">
         <v>0</v>
       </c>
@@ -19587,7 +19057,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -19609,10 +19079,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973650</v>
+        <v>111973665</v>
       </c>
       <c r="B161" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19621,25 +19091,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19658,10 +19128,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>438617.2579858238</v>
+        <v>438215</v>
       </c>
       <c r="R161" t="n">
-        <v>6953572.150569057</v>
+        <v>6953403</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19691,21 +19161,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA161" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB161" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD161" t="b">
         <v>0</v>
       </c>
@@ -19717,7 +19177,7 @@
       </c>
       <c r="AI161" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -19739,10 +19199,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973687</v>
+        <v>111973670</v>
       </c>
       <c r="B162" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19755,21 +19215,21 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19788,10 +19248,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>438548.7713177125</v>
+        <v>437926</v>
       </c>
       <c r="R162" t="n">
-        <v>6953054.237334216</v>
+        <v>6953261</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19821,19 +19281,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA162" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB162" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD162" t="b">
@@ -19869,10 +19319,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973702</v>
+        <v>111973706</v>
       </c>
       <c r="B163" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19885,21 +19335,21 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -19918,10 +19368,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>438081.9879022668</v>
+        <v>438039</v>
       </c>
       <c r="R163" t="n">
-        <v>6953046.43956603</v>
+        <v>6953083</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -19951,19 +19401,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA163" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB163" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -19999,10 +19439,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973686</v>
+        <v>111973690</v>
       </c>
       <c r="B164" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -20011,25 +19451,25 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -20048,10 +19488,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>438557.4797566309</v>
+        <v>438393</v>
       </c>
       <c r="R164" t="n">
-        <v>6953077.488546882</v>
+        <v>6953048</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -20081,19 +19521,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA164" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB164" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD164" t="b">
@@ -20129,10 +19559,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973730</v>
+        <v>111973733</v>
       </c>
       <c r="B165" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -20145,21 +19575,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -20178,10 +19608,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>437841.7707476557</v>
+        <v>437876</v>
       </c>
       <c r="R165" t="n">
-        <v>6953302.531346441</v>
+        <v>6953355</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -20211,21 +19641,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA165" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB165" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD165" t="b">
         <v>0</v>
       </c>
@@ -20237,7 +19657,7 @@
       </c>
       <c r="AI165" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -20259,10 +19679,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973729</v>
+        <v>111973744</v>
       </c>
       <c r="B166" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -20275,21 +19695,21 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -20308,10 +19728,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>437849.4557670459</v>
+        <v>437687</v>
       </c>
       <c r="R166" t="n">
-        <v>6953246.83996963</v>
+        <v>6953383</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -20323,7 +19743,7 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
@@ -20333,7 +19753,7 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
@@ -20341,21 +19761,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA166" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB166" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD166" t="b">
         <v>0</v>
       </c>
@@ -20367,7 +19777,7 @@
       </c>
       <c r="AI166" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -20389,10 +19799,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973802</v>
+        <v>111973736</v>
       </c>
       <c r="B167" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -20401,25 +19811,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -20438,10 +19848,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>437785.6957705052</v>
+        <v>437843</v>
       </c>
       <c r="R167" t="n">
-        <v>6953083.69221758</v>
+        <v>6953498</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -20453,7 +19863,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
@@ -20463,7 +19873,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -20471,21 +19881,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA167" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB167" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD167" t="b">
         <v>0</v>
       </c>
@@ -20497,7 +19897,7 @@
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -20519,10 +19919,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973683</v>
+        <v>111973666</v>
       </c>
       <c r="B168" t="n">
-        <v>88010</v>
+        <v>90652</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -20531,25 +19931,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -20568,10 +19968,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>438569.6720420276</v>
+        <v>438214</v>
       </c>
       <c r="R168" t="n">
-        <v>6953139.69648798</v>
+        <v>6953416</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20601,19 +20001,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA168" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB168" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD168" t="b">
@@ -20649,7 +20039,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973767</v>
+        <v>111973801</v>
       </c>
       <c r="B169" t="n">
         <v>90660</v>
@@ -20698,10 +20088,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>437702.0952541633</v>
+        <v>437775</v>
       </c>
       <c r="R169" t="n">
-        <v>6953233.552758955</v>
+        <v>6953075</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20731,21 +20121,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA169" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB169" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD169" t="b">
         <v>0</v>
       </c>
@@ -20757,7 +20137,7 @@
       </c>
       <c r="AI169" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT169" t="inlineStr"/>
@@ -20779,10 +20159,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973662</v>
+        <v>111973699</v>
       </c>
       <c r="B170" t="n">
-        <v>88032</v>
+        <v>90654</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20795,21 +20175,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6276</v>
+        <v>149</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -20828,10 +20208,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>438148.3758962485</v>
+        <v>438167</v>
       </c>
       <c r="R170" t="n">
-        <v>6953350.476376175</v>
+        <v>6953105</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20861,21 +20241,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA170" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB170" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD170" t="b">
         <v>0</v>
       </c>
@@ -20887,7 +20257,7 @@
       </c>
       <c r="AI170" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>
@@ -20958,10 +20328,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>438216.5943784415</v>
+        <v>438217</v>
       </c>
       <c r="R171" t="n">
-        <v>6953090.283452681</v>
+        <v>6953090</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -20991,19 +20361,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA171" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB171" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD171" t="b">
@@ -21039,10 +20399,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973738</v>
+        <v>111973715</v>
       </c>
       <c r="B172" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -21051,25 +20411,25 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -21088,10 +20448,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>437818.6501005701</v>
+        <v>437963</v>
       </c>
       <c r="R172" t="n">
-        <v>6953417.270802823</v>
+        <v>6953212</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -21103,7 +20463,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
@@ -21113,7 +20473,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -21121,21 +20481,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z172" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA172" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB172" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD172" t="b">
         <v>0</v>
       </c>
@@ -21147,7 +20497,7 @@
       </c>
       <c r="AI172" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr"/>
@@ -21169,10 +20519,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973718</v>
+        <v>111973680</v>
       </c>
       <c r="B173" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -21185,21 +20535,21 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -21218,10 +20568,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>437913.625653744</v>
+        <v>438403</v>
       </c>
       <c r="R173" t="n">
-        <v>6953163.457536075</v>
+        <v>6953181</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -21251,19 +20601,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z173" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA173" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB173" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD173" t="b">
@@ -21299,10 +20639,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973803</v>
+        <v>111973735</v>
       </c>
       <c r="B174" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -21315,21 +20655,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -21348,10 +20688,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>437808.5351863222</v>
+        <v>437908</v>
       </c>
       <c r="R174" t="n">
-        <v>6953100.247750094</v>
+        <v>6953423</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -21363,7 +20703,7 @@
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
@@ -21373,7 +20713,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
@@ -21381,21 +20721,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z174" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA174" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB174" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD174" t="b">
         <v>0</v>
       </c>
@@ -21407,7 +20737,7 @@
       </c>
       <c r="AI174" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr"/>
@@ -21429,10 +20759,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973722</v>
+        <v>111973702</v>
       </c>
       <c r="B175" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -21441,25 +20771,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -21478,10 +20808,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>437913.6481065798</v>
+        <v>438082</v>
       </c>
       <c r="R175" t="n">
-        <v>6953091.381175105</v>
+        <v>6953046</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -21511,19 +20841,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z175" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA175" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB175" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD175" t="b">
@@ -21559,10 +20879,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973663</v>
+        <v>111973739</v>
       </c>
       <c r="B176" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -21575,21 +20895,21 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -21608,10 +20928,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>438169.8244046976</v>
+        <v>437781</v>
       </c>
       <c r="R176" t="n">
-        <v>6953366.599956161</v>
+        <v>6953423</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -21623,7 +20943,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -21633,7 +20953,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -21641,21 +20961,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z176" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA176" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB176" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD176" t="b">
         <v>0</v>
       </c>
@@ -21667,7 +20977,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -21689,10 +20999,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973731</v>
+        <v>111973672</v>
       </c>
       <c r="B177" t="n">
-        <v>88010</v>
+        <v>90652</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21701,25 +21011,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21738,10 +21048,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>437841.7707476557</v>
+        <v>438162</v>
       </c>
       <c r="R177" t="n">
-        <v>6953302.531346441</v>
+        <v>6953218</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21771,21 +21081,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z177" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA177" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB177" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD177" t="b">
         <v>0</v>
       </c>
@@ -21797,7 +21097,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr"/>
@@ -21819,10 +21119,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973739</v>
+        <v>111973745</v>
       </c>
       <c r="B178" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21835,21 +21135,21 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21868,10 +21168,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>437780.5956911595</v>
+        <v>437647</v>
       </c>
       <c r="R178" t="n">
-        <v>6953422.578950249</v>
+        <v>6953396</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21901,21 +21201,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z178" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA178" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB178" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD178" t="b">
         <v>0</v>
       </c>
@@ -21927,7 +21217,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr"/>
@@ -21949,10 +21239,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973708</v>
+        <v>111973656</v>
       </c>
       <c r="B179" t="n">
-        <v>90654</v>
+        <v>88032</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21965,21 +21255,21 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -21998,10 +21288,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>438068.6025824957</v>
+        <v>438305</v>
       </c>
       <c r="R179" t="n">
-        <v>6953092.599814337</v>
+        <v>6953417</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -22031,21 +21321,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z179" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA179" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB179" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD179" t="b">
         <v>0</v>
       </c>
@@ -22057,7 +21337,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT179" t="inlineStr"/>
@@ -22079,10 +21359,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973680</v>
+        <v>111973729</v>
       </c>
       <c r="B180" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -22095,21 +21375,21 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -22128,10 +21408,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>438403.109237605</v>
+        <v>437849</v>
       </c>
       <c r="R180" t="n">
-        <v>6953181.365192754</v>
+        <v>6953247</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -22161,19 +21441,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z180" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA180" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB180" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD180" t="b">
@@ -22209,10 +21479,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973672</v>
+        <v>111973654</v>
       </c>
       <c r="B181" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -22225,21 +21495,21 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -22258,10 +21528,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>438161.9732156845</v>
+        <v>438507</v>
       </c>
       <c r="R181" t="n">
-        <v>6953217.553276672</v>
+        <v>6953527</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -22291,21 +21561,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z181" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA181" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB181" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD181" t="b">
         <v>0</v>
       </c>
@@ -22317,7 +21577,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -22339,10 +21599,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973665</v>
+        <v>111973737</v>
       </c>
       <c r="B182" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -22351,25 +21611,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -22388,10 +21648,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>438214.6362894689</v>
+        <v>437826</v>
       </c>
       <c r="R182" t="n">
-        <v>6953402.942781798</v>
+        <v>6953429</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -22403,7 +21663,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
@@ -22413,7 +21673,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -22421,21 +21681,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z182" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA182" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB182" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD182" t="b">
         <v>0</v>
       </c>
@@ -22447,7 +21697,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -22469,7 +21719,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973655</v>
+        <v>111973743</v>
       </c>
       <c r="B183" t="n">
         <v>90660</v>
@@ -22518,10 +21768,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>438489.0756873108</v>
+        <v>437633</v>
       </c>
       <c r="R183" t="n">
-        <v>6953526.341858554</v>
+        <v>6953302</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -22533,7 +21783,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
@@ -22543,7 +21793,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -22551,21 +21801,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z183" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA183" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB183" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD183" t="b">
         <v>0</v>
       </c>
@@ -22577,7 +21817,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -22599,10 +21839,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973766</v>
+        <v>111973679</v>
       </c>
       <c r="B184" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -22615,21 +21855,21 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -22648,10 +21888,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>437707.7139296347</v>
+        <v>438324</v>
       </c>
       <c r="R184" t="n">
-        <v>6953238.955457177</v>
+        <v>6953231</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -22681,21 +21921,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z184" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA184" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB184" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD184" t="b">
         <v>0</v>
       </c>
@@ -22707,7 +21937,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -22729,10 +21959,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973711</v>
+        <v>111973648</v>
       </c>
       <c r="B185" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -22745,21 +21975,21 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22778,10 +22008,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438030.8777618795</v>
+        <v>438637</v>
       </c>
       <c r="R185" t="n">
-        <v>6953140.134856743</v>
+        <v>6953601</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22811,21 +22041,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z185" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA185" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB185" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD185" t="b">
         <v>0</v>
       </c>
@@ -22837,7 +22057,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22859,10 +22079,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973678</v>
+        <v>111973709</v>
       </c>
       <c r="B186" t="n">
-        <v>90654</v>
+        <v>90682</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22871,25 +22091,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>149</v>
+        <v>2059</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22908,10 +22128,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>438245.3208427017</v>
+        <v>438062</v>
       </c>
       <c r="R186" t="n">
-        <v>6953249.503443779</v>
+        <v>6953112</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22941,21 +22161,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z186" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA186" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB186" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD186" t="b">
         <v>0</v>
       </c>
@@ -22967,7 +22177,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -22989,7 +22199,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973698</v>
+        <v>111973711</v>
       </c>
       <c r="B187" t="n">
         <v>90660</v>
@@ -23038,10 +22248,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>438207.123851296</v>
+        <v>438031</v>
       </c>
       <c r="R187" t="n">
-        <v>6953100.10165237</v>
+        <v>6953140</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -23071,19 +22281,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z187" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA187" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB187" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD187" t="b">
@@ -23119,10 +22319,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973696</v>
+        <v>111973693</v>
       </c>
       <c r="B188" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -23135,21 +22335,21 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -23168,10 +22368,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>438244.0616158294</v>
+        <v>438341</v>
       </c>
       <c r="R188" t="n">
-        <v>6953108.59152039</v>
+        <v>6953145</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -23201,19 +22401,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z188" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA188" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB188" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD188" t="b">
@@ -23249,10 +22439,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973732</v>
+        <v>111973667</v>
       </c>
       <c r="B189" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -23265,21 +22455,21 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -23298,10 +22488,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>437870.3376588458</v>
+        <v>438214</v>
       </c>
       <c r="R189" t="n">
-        <v>6953354.784377262</v>
+        <v>6953416</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -23331,21 +22521,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z189" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA189" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB189" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD189" t="b">
         <v>0</v>
       </c>
@@ -23357,7 +22537,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -23379,10 +22559,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973768</v>
+        <v>111973676</v>
       </c>
       <c r="B190" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -23395,21 +22575,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -23428,10 +22608,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>437637.973121325</v>
+        <v>438195</v>
       </c>
       <c r="R190" t="n">
-        <v>6953148.917516032</v>
+        <v>6953263</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -23461,21 +22641,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z190" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA190" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB190" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD190" t="b">
         <v>0</v>
       </c>
@@ -23487,7 +22657,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -23509,10 +22679,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973706</v>
+        <v>111973707</v>
       </c>
       <c r="B191" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -23525,21 +22695,21 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -23558,10 +22728,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>438039.4596956634</v>
+        <v>438068</v>
       </c>
       <c r="R191" t="n">
-        <v>6953083.047228135</v>
+        <v>6953071</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -23591,19 +22761,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z191" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA191" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB191" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD191" t="b">
@@ -23639,7 +22799,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973736</v>
+        <v>111973696</v>
       </c>
       <c r="B192" t="n">
         <v>90660</v>
@@ -23688,10 +22848,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>437842.6892572012</v>
+        <v>438244</v>
       </c>
       <c r="R192" t="n">
-        <v>6953497.608170006</v>
+        <v>6953109</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -23703,7 +22863,7 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
@@ -23713,7 +22873,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr">
@@ -23721,21 +22881,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z192" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA192" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB192" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD192" t="b">
         <v>0</v>
       </c>
@@ -23747,7 +22897,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -23769,10 +22919,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973669</v>
+        <v>111973653</v>
       </c>
       <c r="B193" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -23781,25 +22931,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -23818,10 +22968,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>437912.8137109271</v>
+        <v>438545</v>
       </c>
       <c r="R193" t="n">
-        <v>6953242.433193879</v>
+        <v>6953546</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23851,21 +23001,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z193" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA193" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB193" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD193" t="b">
         <v>0</v>
       </c>
@@ -23877,7 +23017,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23899,7 +23039,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973733</v>
+        <v>111973660</v>
       </c>
       <c r="B194" t="n">
         <v>90660</v>
@@ -23948,10 +23088,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>437876.3203048867</v>
+        <v>438118</v>
       </c>
       <c r="R194" t="n">
-        <v>6953355.130729643</v>
+        <v>6953330</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -23981,21 +23121,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z194" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA194" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB194" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD194" t="b">
         <v>0</v>
       </c>
@@ -24007,7 +23137,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -24029,10 +23159,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973651</v>
+        <v>111973727</v>
       </c>
       <c r="B195" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -24045,21 +23175,21 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -24078,10 +23208,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>438594.9557070844</v>
+        <v>437871</v>
       </c>
       <c r="R195" t="n">
-        <v>6953584.041166852</v>
+        <v>6953178</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -24111,21 +23241,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z195" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA195" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB195" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD195" t="b">
         <v>0</v>
       </c>
@@ -24137,7 +23257,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -24159,10 +23279,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973674</v>
+        <v>111973762</v>
       </c>
       <c r="B196" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -24175,21 +23295,21 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -24208,10 +23328,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>438160.5186564626</v>
+        <v>437599</v>
       </c>
       <c r="R196" t="n">
-        <v>6953262.568950667</v>
+        <v>6953281</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -24223,7 +23343,7 @@
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
@@ -24233,7 +23353,7 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
@@ -24241,21 +23361,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z196" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA196" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB196" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD196" t="b">
         <v>0</v>
       </c>
@@ -24267,7 +23377,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -24289,10 +23399,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973716</v>
+        <v>111973712</v>
       </c>
       <c r="B197" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -24305,21 +23415,21 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -24338,10 +23448,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>437942.142677932</v>
+        <v>438007</v>
       </c>
       <c r="R197" t="n">
-        <v>6953188.629084867</v>
+        <v>6953194</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -24371,19 +23481,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z197" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA197" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB197" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -24419,10 +23519,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973714</v>
+        <v>111973651</v>
       </c>
       <c r="B198" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -24435,21 +23535,21 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -24468,10 +23568,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>437974.9333715859</v>
+        <v>438595</v>
       </c>
       <c r="R198" t="n">
-        <v>6953221.065410748</v>
+        <v>6953584</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -24501,21 +23601,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z198" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA198" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB198" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD198" t="b">
         <v>0</v>
       </c>
@@ -24527,7 +23617,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -24549,10 +23639,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973744</v>
+        <v>111973718</v>
       </c>
       <c r="B199" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -24565,21 +23655,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -24598,10 +23688,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>437686.9991506658</v>
+        <v>437914</v>
       </c>
       <c r="R199" t="n">
-        <v>6953383.491049132</v>
+        <v>6953163</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -24613,7 +23703,7 @@
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
@@ -24623,7 +23713,7 @@
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
@@ -24631,21 +23721,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z199" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA199" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB199" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD199" t="b">
         <v>0</v>
       </c>
@@ -24657,7 +23737,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -24679,10 +23759,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973763</v>
+        <v>111973741</v>
       </c>
       <c r="B200" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -24695,21 +23775,21 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -24728,10 +23808,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>437630.1355663574</v>
+        <v>437771</v>
       </c>
       <c r="R200" t="n">
-        <v>6953220.681589473</v>
+        <v>6953335</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -24743,7 +23823,7 @@
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
@@ -24753,7 +23833,7 @@
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
@@ -24761,21 +23841,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z200" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA200" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB200" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD200" t="b">
         <v>0</v>
       </c>
@@ -24787,7 +23857,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -24809,10 +23879,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973764</v>
+        <v>111973677</v>
       </c>
       <c r="B201" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -24825,21 +23895,21 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -24858,10 +23928,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>437776.3383109252</v>
+        <v>438218</v>
       </c>
       <c r="R201" t="n">
-        <v>6953123.809258236</v>
+        <v>6953251</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -24891,21 +23961,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z201" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA201" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB201" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD201" t="b">
         <v>0</v>
       </c>
@@ -24917,7 +23977,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -24939,10 +23999,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973725</v>
+        <v>111973730</v>
       </c>
       <c r="B202" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24955,21 +24015,21 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24988,10 +24048,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>437859.825927439</v>
+        <v>437842</v>
       </c>
       <c r="R202" t="n">
-        <v>6953089.64020811</v>
+        <v>6953303</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -25021,19 +24081,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z202" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA202" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB202" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD202" t="b">
@@ -25069,7 +24119,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973720</v>
+        <v>111973674</v>
       </c>
       <c r="B203" t="n">
         <v>90652</v>
@@ -25118,10 +24168,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>437936.1394948753</v>
+        <v>438161</v>
       </c>
       <c r="R203" t="n">
-        <v>6953113.912172817</v>
+        <v>6953263</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -25151,21 +24201,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z203" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA203" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB203" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD203" t="b">
         <v>0</v>
       </c>
@@ -25177,7 +24217,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr"/>
@@ -25199,10 +24239,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973689</v>
+        <v>111973766</v>
       </c>
       <c r="B204" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -25215,21 +24255,21 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -25248,10 +24288,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>438478.4845183876</v>
+        <v>437708</v>
       </c>
       <c r="R204" t="n">
-        <v>6953007.801968225</v>
+        <v>6953239</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -25281,19 +24321,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z204" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA204" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB204" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD204" t="b">
@@ -25329,10 +24359,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973658</v>
+        <v>111973713</v>
       </c>
       <c r="B205" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -25345,21 +24375,21 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -25378,10 +24408,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>438250.4063445947</v>
+        <v>438002</v>
       </c>
       <c r="R205" t="n">
-        <v>6953324.693784647</v>
+        <v>6953193</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -25411,21 +24441,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z205" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA205" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB205" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD205" t="b">
         <v>0</v>
       </c>
@@ -25437,7 +24457,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT205" t="inlineStr"/>
@@ -25459,7 +24479,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973660</v>
+        <v>111973721</v>
       </c>
       <c r="B206" t="n">
         <v>90660</v>
@@ -25508,10 +24528,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438117.6502478332</v>
+        <v>437965</v>
       </c>
       <c r="R206" t="n">
-        <v>6953329.936377568</v>
+        <v>6953078</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -25541,21 +24561,11 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z206" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA206" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB206" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD206" t="b">
         <v>0</v>
       </c>
@@ -25567,7 +24577,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -25589,10 +24599,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973713</v>
+        <v>111973694</v>
       </c>
       <c r="B207" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -25601,25 +24611,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -25638,10 +24648,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>438002.4574124058</v>
+        <v>438326</v>
       </c>
       <c r="R207" t="n">
-        <v>6953193.462733216</v>
+        <v>6953164</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -25671,19 +24681,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z207" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA207" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB207" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD207" t="b">

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12720,10 +12720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973802</v>
+        <v>111973803</v>
       </c>
       <c r="B108" t="n">
-        <v>90678</v>
+        <v>90786</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12732,25 +12732,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>437786</v>
+        <v>437809</v>
       </c>
       <c r="R108" t="n">
-        <v>6953084</v>
+        <v>6953100</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12840,10 +12840,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973714</v>
+        <v>111973709</v>
       </c>
       <c r="B109" t="n">
-        <v>90658</v>
+        <v>90816</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12856,21 +12856,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12889,10 +12889,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>437975</v>
+        <v>438062</v>
       </c>
       <c r="R109" t="n">
-        <v>6953221</v>
+        <v>6953112</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12960,10 +12960,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973724</v>
+        <v>111973723</v>
       </c>
       <c r="B110" t="n">
-        <v>88489</v>
+        <v>90786</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12976,34 +12976,43 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>437892</v>
+        <v>437904</v>
       </c>
       <c r="R110" t="n">
-        <v>6953090</v>
+        <v>6953092</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13050,14 +13059,6 @@
       <c r="AI110" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO110" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT110" t="inlineStr"/>
@@ -13079,10 +13080,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973698</v>
+        <v>111973655</v>
       </c>
       <c r="B111" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13128,10 +13129,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>438207</v>
+        <v>438489</v>
       </c>
       <c r="R111" t="n">
-        <v>6953100</v>
+        <v>6953526</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13177,7 +13178,7 @@
       </c>
       <c r="AI111" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT111" t="inlineStr"/>
@@ -13199,10 +13200,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973800</v>
+        <v>111973652</v>
       </c>
       <c r="B112" t="n">
-        <v>90682</v>
+        <v>90794</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13215,21 +13216,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -13248,10 +13249,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>437772</v>
+        <v>438538</v>
       </c>
       <c r="R112" t="n">
-        <v>6953072</v>
+        <v>6953550</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13297,7 +13298,7 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr"/>
@@ -13319,10 +13320,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973669</v>
+        <v>111973660</v>
       </c>
       <c r="B113" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13368,10 +13369,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>437913</v>
+        <v>438118</v>
       </c>
       <c r="R113" t="n">
-        <v>6953242</v>
+        <v>6953330</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13417,7 +13418,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13439,10 +13440,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973717</v>
+        <v>111973764</v>
       </c>
       <c r="B114" t="n">
-        <v>88010</v>
+        <v>90794</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13451,25 +13452,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -13488,10 +13489,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>437925</v>
+        <v>437776</v>
       </c>
       <c r="R114" t="n">
-        <v>6953182</v>
+        <v>6953124</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13559,10 +13560,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973673</v>
+        <v>111973707</v>
       </c>
       <c r="B115" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13575,21 +13576,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -13608,10 +13609,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>438127</v>
+        <v>438068</v>
       </c>
       <c r="R115" t="n">
-        <v>6953244</v>
+        <v>6953071</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13657,7 +13658,7 @@
       </c>
       <c r="AI115" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT115" t="inlineStr"/>
@@ -13679,10 +13680,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973703</v>
+        <v>111973736</v>
       </c>
       <c r="B116" t="n">
-        <v>88010</v>
+        <v>90794</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13691,25 +13692,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13728,10 +13729,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>438029</v>
+        <v>437843</v>
       </c>
       <c r="R116" t="n">
-        <v>6953011</v>
+        <v>6953498</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13743,7 +13744,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -13753,7 +13754,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13777,7 +13778,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -13799,10 +13800,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973689</v>
+        <v>111973705</v>
       </c>
       <c r="B117" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13815,21 +13816,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13848,10 +13849,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>438478</v>
+        <v>438040</v>
       </c>
       <c r="R117" t="n">
-        <v>6953008</v>
+        <v>6953070</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13919,10 +13920,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973649</v>
+        <v>111973726</v>
       </c>
       <c r="B118" t="n">
-        <v>90682</v>
+        <v>90786</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13935,21 +13936,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -13968,10 +13969,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>438644</v>
+        <v>437858</v>
       </c>
       <c r="R118" t="n">
-        <v>6953596</v>
+        <v>6953132</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14017,7 +14018,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14039,10 +14040,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973720</v>
+        <v>111973724</v>
       </c>
       <c r="B119" t="n">
-        <v>90652</v>
+        <v>88623</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14055,43 +14056,34 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3100</v>
+        <v>1962</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>437936</v>
+        <v>437892</v>
       </c>
       <c r="R119" t="n">
-        <v>6953114</v>
+        <v>6953090</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14138,6 +14130,14 @@
       <c r="AI119" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT119" t="inlineStr"/>
@@ -14159,10 +14159,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973701</v>
+        <v>111973665</v>
       </c>
       <c r="B120" t="n">
-        <v>90682</v>
+        <v>88166</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14171,25 +14171,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -14208,10 +14208,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>438134</v>
+        <v>438215</v>
       </c>
       <c r="R120" t="n">
-        <v>6953093</v>
+        <v>6953403</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14279,10 +14279,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973663</v>
+        <v>111973716</v>
       </c>
       <c r="B121" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14328,10 +14328,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>438170</v>
+        <v>437942</v>
       </c>
       <c r="R121" t="n">
-        <v>6953367</v>
+        <v>6953189</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14399,10 +14399,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973723</v>
+        <v>111973711</v>
       </c>
       <c r="B122" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14415,21 +14415,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14448,10 +14448,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>437904</v>
+        <v>438031</v>
       </c>
       <c r="R122" t="n">
-        <v>6953092</v>
+        <v>6953140</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14519,10 +14519,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973740</v>
+        <v>111973674</v>
       </c>
       <c r="B123" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14535,21 +14535,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -14568,10 +14568,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>437785</v>
+        <v>438161</v>
       </c>
       <c r="R123" t="n">
-        <v>6953387</v>
+        <v>6953263</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14583,7 +14583,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -14593,7 +14593,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr"/>
@@ -14639,10 +14639,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973803</v>
+        <v>111973767</v>
       </c>
       <c r="B124" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14655,21 +14655,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -14688,10 +14688,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>437809</v>
+        <v>437702</v>
       </c>
       <c r="R124" t="n">
-        <v>6953100</v>
+        <v>6953234</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14759,10 +14759,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973716</v>
+        <v>111973802</v>
       </c>
       <c r="B125" t="n">
-        <v>90660</v>
+        <v>90812</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14771,25 +14771,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -14808,10 +14808,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>437942</v>
+        <v>437786</v>
       </c>
       <c r="R125" t="n">
-        <v>6953189</v>
+        <v>6953084</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -14879,10 +14879,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111973719</v>
+        <v>111973744</v>
       </c>
       <c r="B126" t="n">
-        <v>90682</v>
+        <v>90794</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14895,21 +14895,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -14928,10 +14928,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>437938</v>
+        <v>437687</v>
       </c>
       <c r="R126" t="n">
-        <v>6953155</v>
+        <v>6953383</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="AI126" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr"/>
@@ -14999,10 +14999,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973687</v>
+        <v>111973743</v>
       </c>
       <c r="B127" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15015,21 +15015,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -15048,10 +15048,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>438549</v>
+        <v>437633</v>
       </c>
       <c r="R127" t="n">
-        <v>6953054</v>
+        <v>6953302</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15119,10 +15119,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973705</v>
+        <v>111973670</v>
       </c>
       <c r="B128" t="n">
-        <v>90682</v>
+        <v>90794</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15135,21 +15135,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15168,10 +15168,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>438040</v>
+        <v>437926</v>
       </c>
       <c r="R128" t="n">
-        <v>6953070</v>
+        <v>6953261</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15239,10 +15239,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973684</v>
+        <v>111973719</v>
       </c>
       <c r="B129" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15288,10 +15288,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>438577</v>
+        <v>437938</v>
       </c>
       <c r="R129" t="n">
-        <v>6953121</v>
+        <v>6953155</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15359,10 +15359,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973695</v>
+        <v>111973734</v>
       </c>
       <c r="B130" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15375,21 +15375,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>438290</v>
+        <v>437925</v>
       </c>
       <c r="R130" t="n">
-        <v>6953135</v>
+        <v>6953362</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15457,7 +15457,7 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr"/>
@@ -15479,10 +15479,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973726</v>
+        <v>111973742</v>
       </c>
       <c r="B131" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15528,10 +15528,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>437858</v>
+        <v>437769</v>
       </c>
       <c r="R131" t="n">
-        <v>6953132</v>
+        <v>6953320</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr"/>
@@ -15599,10 +15599,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973688</v>
+        <v>111973721</v>
       </c>
       <c r="B132" t="n">
-        <v>90678</v>
+        <v>90794</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15611,25 +15611,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15648,10 +15648,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>438544</v>
+        <v>437965</v>
       </c>
       <c r="R132" t="n">
-        <v>6953037</v>
+        <v>6953078</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15719,10 +15719,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973686</v>
+        <v>111973720</v>
       </c>
       <c r="B133" t="n">
-        <v>90300</v>
+        <v>90786</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15735,21 +15735,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -15768,10 +15768,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>438557</v>
+        <v>437936</v>
       </c>
       <c r="R133" t="n">
-        <v>6953077</v>
+        <v>6953114</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -15839,10 +15839,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973731</v>
+        <v>111973733</v>
       </c>
       <c r="B134" t="n">
-        <v>88010</v>
+        <v>90794</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15851,25 +15851,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -15888,10 +15888,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>437842</v>
+        <v>437876</v>
       </c>
       <c r="R134" t="n">
-        <v>6953303</v>
+        <v>6953355</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="AI134" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT134" t="inlineStr"/>
@@ -15959,10 +15959,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973763</v>
+        <v>111973686</v>
       </c>
       <c r="B135" t="n">
-        <v>90652</v>
+        <v>90434</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15975,21 +15975,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3100</v>
+        <v>4745</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16008,10 +16008,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>437630</v>
+        <v>438557</v>
       </c>
       <c r="R135" t="n">
-        <v>6953221</v>
+        <v>6953077</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16079,10 +16079,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973675</v>
+        <v>111973667</v>
       </c>
       <c r="B136" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16128,10 +16128,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>438161</v>
+        <v>438214</v>
       </c>
       <c r="R136" t="n">
-        <v>6953263</v>
+        <v>6953416</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="AI136" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16199,10 +16199,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973691</v>
+        <v>111973649</v>
       </c>
       <c r="B137" t="n">
-        <v>90652</v>
+        <v>90816</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16215,21 +16215,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16248,10 +16248,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>438380</v>
+        <v>438644</v>
       </c>
       <c r="R137" t="n">
-        <v>6953076</v>
+        <v>6953596</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -16319,10 +16319,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973732</v>
+        <v>111973671</v>
       </c>
       <c r="B138" t="n">
-        <v>90652</v>
+        <v>88166</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16331,25 +16331,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16368,10 +16368,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>437870</v>
+        <v>438033</v>
       </c>
       <c r="R138" t="n">
-        <v>6953355</v>
+        <v>6953252</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16439,10 +16439,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973768</v>
+        <v>111973739</v>
       </c>
       <c r="B139" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16488,10 +16488,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>437638</v>
+        <v>437781</v>
       </c>
       <c r="R139" t="n">
-        <v>6953149</v>
+        <v>6953423</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="AI139" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT139" t="inlineStr"/>
@@ -16559,10 +16559,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973671</v>
+        <v>111973715</v>
       </c>
       <c r="B140" t="n">
-        <v>88032</v>
+        <v>90812</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16571,25 +16571,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16608,10 +16608,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438033</v>
+        <v>437963</v>
       </c>
       <c r="R140" t="n">
-        <v>6953252</v>
+        <v>6953212</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16679,10 +16679,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973692</v>
+        <v>111973725</v>
       </c>
       <c r="B141" t="n">
-        <v>90682</v>
+        <v>90794</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16695,21 +16695,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -16728,10 +16728,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>438375</v>
+        <v>437860</v>
       </c>
       <c r="R141" t="n">
-        <v>6953080</v>
+        <v>6953090</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="AI141" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr"/>
@@ -16799,10 +16799,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973658</v>
+        <v>111973663</v>
       </c>
       <c r="B142" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16815,21 +16815,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -16848,10 +16848,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>438250</v>
+        <v>438170</v>
       </c>
       <c r="R142" t="n">
-        <v>6953325</v>
+        <v>6953367</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -16919,10 +16919,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973767</v>
+        <v>111973692</v>
       </c>
       <c r="B143" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16935,21 +16935,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -16968,10 +16968,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>437702</v>
+        <v>438375</v>
       </c>
       <c r="R143" t="n">
-        <v>6953234</v>
+        <v>6953080</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="AI143" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT143" t="inlineStr"/>
@@ -17039,10 +17039,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973683</v>
+        <v>111973650</v>
       </c>
       <c r="B144" t="n">
-        <v>88010</v>
+        <v>90786</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17051,25 +17051,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -17088,10 +17088,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>438570</v>
+        <v>438617</v>
       </c>
       <c r="R144" t="n">
-        <v>6953140</v>
+        <v>6953572</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17137,7 +17137,7 @@
       </c>
       <c r="AI144" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT144" t="inlineStr"/>
@@ -17159,10 +17159,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973650</v>
+        <v>111973738</v>
       </c>
       <c r="B145" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17208,10 +17208,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>438617</v>
+        <v>437819</v>
       </c>
       <c r="R145" t="n">
-        <v>6953572</v>
+        <v>6953417</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
@@ -17233,7 +17233,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr"/>
@@ -17279,10 +17279,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973655</v>
+        <v>111973683</v>
       </c>
       <c r="B146" t="n">
-        <v>90660</v>
+        <v>88144</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17291,25 +17291,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -17328,10 +17328,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>438489</v>
+        <v>438570</v>
       </c>
       <c r="R146" t="n">
-        <v>6953526</v>
+        <v>6953140</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17377,7 +17377,7 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -17399,10 +17399,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973725</v>
+        <v>111973740</v>
       </c>
       <c r="B147" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17448,10 +17448,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>437860</v>
+        <v>437785</v>
       </c>
       <c r="R147" t="n">
-        <v>6953090</v>
+        <v>6953387</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17463,7 +17463,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr"/>
@@ -17519,10 +17519,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973761</v>
+        <v>111973729</v>
       </c>
       <c r="B148" t="n">
-        <v>90300</v>
+        <v>90786</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17535,21 +17535,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -17568,10 +17568,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>437571</v>
+        <v>437849</v>
       </c>
       <c r="R148" t="n">
-        <v>6953283</v>
+        <v>6953247</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -17639,10 +17639,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973742</v>
+        <v>111973727</v>
       </c>
       <c r="B149" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17655,21 +17655,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -17688,10 +17688,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>437769</v>
+        <v>437871</v>
       </c>
       <c r="R149" t="n">
-        <v>6953320</v>
+        <v>6953178</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="AI149" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -17759,10 +17759,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973678</v>
+        <v>111973708</v>
       </c>
       <c r="B150" t="n">
-        <v>90654</v>
+        <v>90788</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17808,10 +17808,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>438245</v>
+        <v>438069</v>
       </c>
       <c r="R150" t="n">
-        <v>6953250</v>
+        <v>6953093</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17857,7 +17857,7 @@
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -17879,10 +17879,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973708</v>
+        <v>111973762</v>
       </c>
       <c r="B151" t="n">
-        <v>90654</v>
+        <v>90794</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17891,25 +17891,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -17928,10 +17928,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>438069</v>
+        <v>437599</v>
       </c>
       <c r="R151" t="n">
-        <v>6953093</v>
+        <v>6953281</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -17953,7 +17953,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -17999,10 +17999,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973704</v>
+        <v>111973741</v>
       </c>
       <c r="B152" t="n">
-        <v>90658</v>
+        <v>90816</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18015,21 +18015,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -18048,10 +18048,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>438040</v>
+        <v>437771</v>
       </c>
       <c r="R152" t="n">
-        <v>6953056</v>
+        <v>6953335</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18063,7 +18063,7 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
@@ -18073,7 +18073,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -18097,7 +18097,7 @@
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -18119,10 +18119,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973700</v>
+        <v>111973693</v>
       </c>
       <c r="B153" t="n">
-        <v>90652</v>
+        <v>90816</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18135,21 +18135,21 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -18168,10 +18168,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438151</v>
+        <v>438341</v>
       </c>
       <c r="R153" t="n">
-        <v>6953097</v>
+        <v>6953145</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18239,10 +18239,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973652</v>
+        <v>111973695</v>
       </c>
       <c r="B154" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18255,21 +18255,21 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18288,10 +18288,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438538</v>
+        <v>438290</v>
       </c>
       <c r="R154" t="n">
-        <v>6953550</v>
+        <v>6953135</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr"/>
@@ -18359,10 +18359,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973764</v>
+        <v>111973680</v>
       </c>
       <c r="B155" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18408,10 +18408,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>437776</v>
+        <v>438403</v>
       </c>
       <c r="R155" t="n">
-        <v>6953124</v>
+        <v>6953181</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18479,10 +18479,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973722</v>
+        <v>111973712</v>
       </c>
       <c r="B156" t="n">
-        <v>88032</v>
+        <v>90786</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18491,25 +18491,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -18528,10 +18528,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>437914</v>
+        <v>438007</v>
       </c>
       <c r="R156" t="n">
-        <v>6953091</v>
+        <v>6953194</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18599,10 +18599,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973738</v>
+        <v>111973735</v>
       </c>
       <c r="B157" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18615,21 +18615,21 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -18648,10 +18648,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>437819</v>
+        <v>437908</v>
       </c>
       <c r="R157" t="n">
-        <v>6953417</v>
+        <v>6953423</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -18719,10 +18719,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973734</v>
+        <v>111973731</v>
       </c>
       <c r="B158" t="n">
-        <v>90660</v>
+        <v>88144</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18731,25 +18731,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -18768,10 +18768,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>437925</v>
+        <v>437842</v>
       </c>
       <c r="R158" t="n">
-        <v>6953362</v>
+        <v>6953303</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -18839,10 +18839,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973681</v>
+        <v>111973699</v>
       </c>
       <c r="B159" t="n">
-        <v>90652</v>
+        <v>90788</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18851,25 +18851,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -18888,10 +18888,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>438493</v>
+        <v>438167</v>
       </c>
       <c r="R159" t="n">
-        <v>6953182</v>
+        <v>6953105</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18959,10 +18959,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973662</v>
+        <v>111973702</v>
       </c>
       <c r="B160" t="n">
-        <v>88032</v>
+        <v>90794</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -18971,25 +18971,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19008,10 +19008,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>438148</v>
+        <v>438082</v>
       </c>
       <c r="R160" t="n">
-        <v>6953350</v>
+        <v>6953046</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973665</v>
+        <v>111973688</v>
       </c>
       <c r="B161" t="n">
-        <v>88032</v>
+        <v>90812</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19091,25 +19091,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19128,10 +19128,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>438215</v>
+        <v>438544</v>
       </c>
       <c r="R161" t="n">
-        <v>6953403</v>
+        <v>6953037</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19199,10 +19199,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973670</v>
+        <v>111973694</v>
       </c>
       <c r="B162" t="n">
-        <v>90660</v>
+        <v>88166</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19211,25 +19211,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19248,10 +19248,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>437926</v>
+        <v>438326</v>
       </c>
       <c r="R162" t="n">
-        <v>6953261</v>
+        <v>6953164</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19319,10 +19319,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973706</v>
+        <v>111973687</v>
       </c>
       <c r="B163" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19368,10 +19368,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>438039</v>
+        <v>438549</v>
       </c>
       <c r="R163" t="n">
-        <v>6953083</v>
+        <v>6953054</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -19439,10 +19439,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973690</v>
+        <v>111973672</v>
       </c>
       <c r="B164" t="n">
-        <v>88032</v>
+        <v>90786</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -19451,25 +19451,25 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -19488,10 +19488,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>438393</v>
+        <v>438162</v>
       </c>
       <c r="R164" t="n">
-        <v>6953048</v>
+        <v>6953218</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="AI164" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT164" t="inlineStr"/>
@@ -19559,10 +19559,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973733</v>
+        <v>111973690</v>
       </c>
       <c r="B165" t="n">
-        <v>90660</v>
+        <v>88166</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -19571,25 +19571,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -19608,10 +19608,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>437876</v>
+        <v>438393</v>
       </c>
       <c r="R165" t="n">
-        <v>6953355</v>
+        <v>6953048</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -19657,7 +19657,7 @@
       </c>
       <c r="AI165" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -19679,10 +19679,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973744</v>
+        <v>111973689</v>
       </c>
       <c r="B166" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -19728,10 +19728,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>437687</v>
+        <v>438478</v>
       </c>
       <c r="R166" t="n">
-        <v>6953383</v>
+        <v>6953008</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
@@ -19777,7 +19777,7 @@
       </c>
       <c r="AI166" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -19799,10 +19799,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973736</v>
+        <v>111973704</v>
       </c>
       <c r="B167" t="n">
-        <v>90660</v>
+        <v>90792</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -19815,21 +19815,21 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -19848,10 +19848,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>437843</v>
+        <v>438040</v>
       </c>
       <c r="R167" t="n">
-        <v>6953498</v>
+        <v>6953056</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -19919,10 +19919,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973666</v>
+        <v>111973717</v>
       </c>
       <c r="B168" t="n">
-        <v>90652</v>
+        <v>88144</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -19931,25 +19931,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -19968,10 +19968,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>438214</v>
+        <v>437925</v>
       </c>
       <c r="R168" t="n">
-        <v>6953416</v>
+        <v>6953182</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20039,10 +20039,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973801</v>
+        <v>111973691</v>
       </c>
       <c r="B169" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20055,21 +20055,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -20088,10 +20088,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>437775</v>
+        <v>438380</v>
       </c>
       <c r="R169" t="n">
-        <v>6953075</v>
+        <v>6953076</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20137,7 +20137,7 @@
       </c>
       <c r="AI169" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT169" t="inlineStr"/>
@@ -20159,10 +20159,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973699</v>
+        <v>111973722</v>
       </c>
       <c r="B170" t="n">
-        <v>90654</v>
+        <v>88166</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20175,21 +20175,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -20208,10 +20208,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>438167</v>
+        <v>437914</v>
       </c>
       <c r="R170" t="n">
-        <v>6953105</v>
+        <v>6953091</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20279,10 +20279,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973697</v>
+        <v>111973653</v>
       </c>
       <c r="B171" t="n">
-        <v>88032</v>
+        <v>88166</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20328,10 +20328,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>438217</v>
+        <v>438545</v>
       </c>
       <c r="R171" t="n">
-        <v>6953090</v>
+        <v>6953546</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="AI171" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT171" t="inlineStr"/>
@@ -20399,10 +20399,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973715</v>
+        <v>111973701</v>
       </c>
       <c r="B172" t="n">
-        <v>90678</v>
+        <v>90816</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -20411,25 +20411,25 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -20448,10 +20448,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>437963</v>
+        <v>438134</v>
       </c>
       <c r="R172" t="n">
-        <v>6953212</v>
+        <v>6953093</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -20519,10 +20519,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973680</v>
+        <v>111973684</v>
       </c>
       <c r="B173" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -20535,21 +20535,21 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -20568,10 +20568,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>438403</v>
+        <v>438577</v>
       </c>
       <c r="R173" t="n">
-        <v>6953181</v>
+        <v>6953121</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -20639,10 +20639,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973735</v>
+        <v>111973677</v>
       </c>
       <c r="B174" t="n">
-        <v>90660</v>
+        <v>90434</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -20655,21 +20655,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -20688,10 +20688,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>437908</v>
+        <v>438218</v>
       </c>
       <c r="R174" t="n">
-        <v>6953423</v>
+        <v>6953251</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -20703,7 +20703,7 @@
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
@@ -20713,7 +20713,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="AI174" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr"/>
@@ -20759,10 +20759,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973702</v>
+        <v>111973673</v>
       </c>
       <c r="B175" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -20775,21 +20775,21 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -20808,10 +20808,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>438082</v>
+        <v>438127</v>
       </c>
       <c r="R175" t="n">
-        <v>6953046</v>
+        <v>6953244</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="AI175" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT175" t="inlineStr"/>
@@ -20879,10 +20879,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973739</v>
+        <v>111973651</v>
       </c>
       <c r="B176" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -20928,10 +20928,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>437781</v>
+        <v>438595</v>
       </c>
       <c r="R176" t="n">
-        <v>6953423</v>
+        <v>6953584</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -20943,7 +20943,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -20953,7 +20953,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -20977,7 +20977,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -20999,10 +20999,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973672</v>
+        <v>111973666</v>
       </c>
       <c r="B177" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21048,10 +21048,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>438162</v>
+        <v>438214</v>
       </c>
       <c r="R177" t="n">
-        <v>6953218</v>
+        <v>6953416</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr"/>
@@ -21119,10 +21119,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973745</v>
+        <v>111973706</v>
       </c>
       <c r="B178" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21168,10 +21168,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>437647</v>
+        <v>438039</v>
       </c>
       <c r="R178" t="n">
-        <v>6953396</v>
+        <v>6953083</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
@@ -21193,7 +21193,7 @@
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
@@ -21217,7 +21217,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr"/>
@@ -21239,10 +21239,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973656</v>
+        <v>111973732</v>
       </c>
       <c r="B179" t="n">
-        <v>88032</v>
+        <v>90786</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21251,25 +21251,25 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -21288,10 +21288,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>438305</v>
+        <v>437870</v>
       </c>
       <c r="R179" t="n">
-        <v>6953417</v>
+        <v>6953355</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT179" t="inlineStr"/>
@@ -21359,10 +21359,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973729</v>
+        <v>111973656</v>
       </c>
       <c r="B180" t="n">
-        <v>90652</v>
+        <v>88166</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -21371,25 +21371,25 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -21408,10 +21408,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>437849</v>
+        <v>438305</v>
       </c>
       <c r="R180" t="n">
-        <v>6953247</v>
+        <v>6953417</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT180" t="inlineStr"/>
@@ -21479,10 +21479,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973654</v>
+        <v>111973700</v>
       </c>
       <c r="B181" t="n">
-        <v>90682</v>
+        <v>90786</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -21495,21 +21495,21 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -21528,10 +21528,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>438507</v>
+        <v>438151</v>
       </c>
       <c r="R181" t="n">
-        <v>6953527</v>
+        <v>6953097</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -21599,10 +21599,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973737</v>
+        <v>111973696</v>
       </c>
       <c r="B182" t="n">
-        <v>90678</v>
+        <v>90794</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21611,25 +21611,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -21648,10 +21648,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>437826</v>
+        <v>438244</v>
       </c>
       <c r="R182" t="n">
-        <v>6953429</v>
+        <v>6953109</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21663,7 +21663,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
@@ -21673,7 +21673,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -21697,7 +21697,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -21719,10 +21719,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973743</v>
+        <v>111973669</v>
       </c>
       <c r="B183" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -21768,10 +21768,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>437633</v>
+        <v>437913</v>
       </c>
       <c r="R183" t="n">
-        <v>6953302</v>
+        <v>6953242</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -21783,7 +21783,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -21839,10 +21839,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973679</v>
+        <v>111973648</v>
       </c>
       <c r="B184" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -21855,21 +21855,21 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -21888,10 +21888,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>438324</v>
+        <v>438637</v>
       </c>
       <c r="R184" t="n">
-        <v>6953231</v>
+        <v>6953601</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -21959,10 +21959,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973648</v>
+        <v>111973763</v>
       </c>
       <c r="B185" t="n">
-        <v>90682</v>
+        <v>90786</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -21975,21 +21975,21 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22008,10 +22008,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438637</v>
+        <v>437630</v>
       </c>
       <c r="R185" t="n">
-        <v>6953601</v>
+        <v>6953221</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22057,7 +22057,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22079,10 +22079,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973709</v>
+        <v>111973768</v>
       </c>
       <c r="B186" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22128,10 +22128,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>438062</v>
+        <v>437638</v>
       </c>
       <c r="R186" t="n">
-        <v>6953112</v>
+        <v>6953149</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22199,10 +22199,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973711</v>
+        <v>111973662</v>
       </c>
       <c r="B187" t="n">
-        <v>90660</v>
+        <v>88166</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -22211,25 +22211,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -22248,10 +22248,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>438031</v>
+        <v>438148</v>
       </c>
       <c r="R187" t="n">
-        <v>6953140</v>
+        <v>6953350</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr"/>
@@ -22319,10 +22319,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973693</v>
+        <v>111973678</v>
       </c>
       <c r="B188" t="n">
-        <v>90682</v>
+        <v>90788</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -22331,25 +22331,25 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -22368,10 +22368,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>438341</v>
+        <v>438245</v>
       </c>
       <c r="R188" t="n">
-        <v>6953145</v>
+        <v>6953250</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="AI188" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT188" t="inlineStr"/>
@@ -22439,10 +22439,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973667</v>
+        <v>111973745</v>
       </c>
       <c r="B189" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -22455,21 +22455,21 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -22488,10 +22488,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>438214</v>
+        <v>437647</v>
       </c>
       <c r="R189" t="n">
-        <v>6953416</v>
+        <v>6953396</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -22503,7 +22503,7 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
@@ -22513,7 +22513,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -22559,10 +22559,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973676</v>
+        <v>111973761</v>
       </c>
       <c r="B190" t="n">
-        <v>90660</v>
+        <v>90434</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -22575,21 +22575,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -22608,10 +22608,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>438195</v>
+        <v>437571</v>
       </c>
       <c r="R190" t="n">
-        <v>6953263</v>
+        <v>6953283</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -22623,7 +22623,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -22657,7 +22657,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr"/>
@@ -22679,10 +22679,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973707</v>
+        <v>111973654</v>
       </c>
       <c r="B191" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -22695,21 +22695,21 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -22728,10 +22728,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>438068</v>
+        <v>438507</v>
       </c>
       <c r="R191" t="n">
-        <v>6953071</v>
+        <v>6953527</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr"/>
@@ -22799,10 +22799,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973696</v>
+        <v>111973801</v>
       </c>
       <c r="B192" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -22848,10 +22848,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>438244</v>
+        <v>437775</v>
       </c>
       <c r="R192" t="n">
-        <v>6953109</v>
+        <v>6953075</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -22919,10 +22919,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973653</v>
+        <v>111973681</v>
       </c>
       <c r="B193" t="n">
-        <v>88032</v>
+        <v>90786</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -22931,25 +22931,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -22968,10 +22968,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>438545</v>
+        <v>438493</v>
       </c>
       <c r="R193" t="n">
-        <v>6953546</v>
+        <v>6953182</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23039,10 +23039,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973660</v>
+        <v>111973714</v>
       </c>
       <c r="B194" t="n">
-        <v>90660</v>
+        <v>90792</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23055,21 +23055,21 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23088,10 +23088,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>438118</v>
+        <v>437975</v>
       </c>
       <c r="R194" t="n">
-        <v>6953330</v>
+        <v>6953221</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -23159,10 +23159,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973727</v>
+        <v>111973679</v>
       </c>
       <c r="B195" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -23208,10 +23208,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>437871</v>
+        <v>438324</v>
       </c>
       <c r="R195" t="n">
-        <v>6953178</v>
+        <v>6953231</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -23279,10 +23279,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973762</v>
+        <v>111973675</v>
       </c>
       <c r="B196" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -23328,10 +23328,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>437599</v>
+        <v>438161</v>
       </c>
       <c r="R196" t="n">
-        <v>6953281</v>
+        <v>6953263</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
@@ -23353,7 +23353,7 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
@@ -23377,7 +23377,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -23399,10 +23399,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973712</v>
+        <v>111973800</v>
       </c>
       <c r="B197" t="n">
-        <v>90652</v>
+        <v>90816</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -23415,21 +23415,21 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -23448,10 +23448,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>438007</v>
+        <v>437772</v>
       </c>
       <c r="R197" t="n">
-        <v>6953194</v>
+        <v>6953072</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -23519,10 +23519,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973651</v>
+        <v>111973697</v>
       </c>
       <c r="B198" t="n">
-        <v>90682</v>
+        <v>88166</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -23531,25 +23531,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -23568,10 +23568,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>438595</v>
+        <v>438217</v>
       </c>
       <c r="R198" t="n">
-        <v>6953584</v>
+        <v>6953090</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -23617,7 +23617,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973718</v>
+        <v>111973703</v>
       </c>
       <c r="B199" t="n">
-        <v>90652</v>
+        <v>88144</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23651,25 +23651,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>437914</v>
+        <v>438029</v>
       </c>
       <c r="R199" t="n">
-        <v>6953163</v>
+        <v>6953011</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -23759,10 +23759,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973741</v>
+        <v>111973766</v>
       </c>
       <c r="B200" t="n">
-        <v>90682</v>
+        <v>90786</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23775,21 +23775,21 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>437771</v>
+        <v>437708</v>
       </c>
       <c r="R200" t="n">
-        <v>6953335</v>
+        <v>6953239</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -23823,7 +23823,7 @@
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
@@ -23833,7 +23833,7 @@
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
@@ -23857,7 +23857,7 @@
       </c>
       <c r="AI200" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr"/>
@@ -23879,10 +23879,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973677</v>
+        <v>111973658</v>
       </c>
       <c r="B201" t="n">
-        <v>90300</v>
+        <v>90786</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23895,21 +23895,21 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -23928,10 +23928,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>438218</v>
+        <v>438250</v>
       </c>
       <c r="R201" t="n">
-        <v>6953251</v>
+        <v>6953325</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -23999,10 +23999,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973730</v>
+        <v>111973676</v>
       </c>
       <c r="B202" t="n">
-        <v>90682</v>
+        <v>90794</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24015,21 +24015,21 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24048,10 +24048,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>437842</v>
+        <v>438195</v>
       </c>
       <c r="R202" t="n">
-        <v>6953303</v>
+        <v>6953263</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -24097,7 +24097,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr"/>
@@ -24119,10 +24119,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973674</v>
+        <v>111973730</v>
       </c>
       <c r="B203" t="n">
-        <v>90652</v>
+        <v>90816</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -24135,21 +24135,21 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -24168,10 +24168,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>438161</v>
+        <v>437842</v>
       </c>
       <c r="R203" t="n">
-        <v>6953263</v>
+        <v>6953303</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr"/>
@@ -24239,10 +24239,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973766</v>
+        <v>111973698</v>
       </c>
       <c r="B204" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -24255,21 +24255,21 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -24288,10 +24288,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>437708</v>
+        <v>438207</v>
       </c>
       <c r="R204" t="n">
-        <v>6953239</v>
+        <v>6953100</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -24362,7 +24362,7 @@
         <v>111973713</v>
       </c>
       <c r="B205" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -24479,10 +24479,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973721</v>
+        <v>111973737</v>
       </c>
       <c r="B206" t="n">
-        <v>90660</v>
+        <v>90812</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -24491,25 +24491,25 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -24528,10 +24528,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>437965</v>
+        <v>437826</v>
       </c>
       <c r="R206" t="n">
-        <v>6953078</v>
+        <v>6953429</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
@@ -24553,7 +24553,7 @@
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -24599,10 +24599,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973694</v>
+        <v>111973718</v>
       </c>
       <c r="B207" t="n">
-        <v>88032</v>
+        <v>90786</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -24611,25 +24611,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -24648,10 +24648,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>438326</v>
+        <v>437914</v>
       </c>
       <c r="R207" t="n">
-        <v>6953164</v>
+        <v>6953163</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -13320,7 +13320,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973660</v>
+        <v>111973764</v>
       </c>
       <c r="B113" t="n">
         <v>90794</v>
@@ -13369,10 +13369,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>438118</v>
+        <v>437776</v>
       </c>
       <c r="R113" t="n">
-        <v>6953330</v>
+        <v>6953124</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973764</v>
+        <v>111973707</v>
       </c>
       <c r="B114" t="n">
         <v>90794</v>
@@ -13489,10 +13489,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>437776</v>
+        <v>438068</v>
       </c>
       <c r="R114" t="n">
-        <v>6953124</v>
+        <v>6953071</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13560,7 +13560,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973707</v>
+        <v>111973736</v>
       </c>
       <c r="B115" t="n">
         <v>90794</v>
@@ -13609,10 +13609,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>438068</v>
+        <v>437843</v>
       </c>
       <c r="R115" t="n">
-        <v>6953071</v>
+        <v>6953498</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13658,7 +13658,7 @@
       </c>
       <c r="AI115" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT115" t="inlineStr"/>
@@ -13680,7 +13680,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973736</v>
+        <v>111973660</v>
       </c>
       <c r="B116" t="n">
         <v>90794</v>
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>437843</v>
+        <v>438118</v>
       </c>
       <c r="R116" t="n">
-        <v>6953498</v>
+        <v>6953330</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13744,7 +13744,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -15239,10 +15239,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973719</v>
+        <v>111973721</v>
       </c>
       <c r="B129" t="n">
-        <v>90816</v>
+        <v>90794</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15255,21 +15255,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15288,10 +15288,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>437938</v>
+        <v>437965</v>
       </c>
       <c r="R129" t="n">
-        <v>6953155</v>
+        <v>6953078</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973734</v>
+        <v>111973733</v>
       </c>
       <c r="B130" t="n">
         <v>90794</v>
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>437925</v>
+        <v>437876</v>
       </c>
       <c r="R130" t="n">
-        <v>6953362</v>
+        <v>6953355</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15479,10 +15479,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973742</v>
+        <v>111973719</v>
       </c>
       <c r="B131" t="n">
-        <v>90786</v>
+        <v>90816</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15495,21 +15495,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15528,10 +15528,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>437769</v>
+        <v>437938</v>
       </c>
       <c r="R131" t="n">
-        <v>6953320</v>
+        <v>6953155</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr"/>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973721</v>
+        <v>111973734</v>
       </c>
       <c r="B132" t="n">
         <v>90794</v>
@@ -15648,10 +15648,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>437965</v>
+        <v>437925</v>
       </c>
       <c r="R132" t="n">
-        <v>6953078</v>
+        <v>6953362</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -15719,7 +15719,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973720</v>
+        <v>111973742</v>
       </c>
       <c r="B133" t="n">
         <v>90786</v>
@@ -15768,10 +15768,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>437936</v>
+        <v>437769</v>
       </c>
       <c r="R133" t="n">
-        <v>6953114</v>
+        <v>6953320</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -15839,10 +15839,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973733</v>
+        <v>111973720</v>
       </c>
       <c r="B134" t="n">
-        <v>90794</v>
+        <v>90786</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15855,21 +15855,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -15888,10 +15888,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>437876</v>
+        <v>437936</v>
       </c>
       <c r="R134" t="n">
-        <v>6953355</v>
+        <v>6953114</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="AI134" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT134" t="inlineStr"/>
@@ -17399,10 +17399,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973740</v>
+        <v>111973693</v>
       </c>
       <c r="B147" t="n">
-        <v>90794</v>
+        <v>90816</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17415,21 +17415,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -17448,10 +17448,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>437785</v>
+        <v>438341</v>
       </c>
       <c r="R147" t="n">
-        <v>6953387</v>
+        <v>6953145</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17463,7 +17463,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr"/>
@@ -17519,10 +17519,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973729</v>
+        <v>111973740</v>
       </c>
       <c r="B148" t="n">
-        <v>90786</v>
+        <v>90794</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17535,21 +17535,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -17568,10 +17568,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>437849</v>
+        <v>437785</v>
       </c>
       <c r="R148" t="n">
-        <v>6953247</v>
+        <v>6953387</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr"/>
@@ -17639,10 +17639,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973727</v>
+        <v>111973729</v>
       </c>
       <c r="B149" t="n">
-        <v>90794</v>
+        <v>90786</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17655,21 +17655,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -17688,10 +17688,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>437871</v>
+        <v>437849</v>
       </c>
       <c r="R149" t="n">
-        <v>6953178</v>
+        <v>6953247</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17759,10 +17759,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973708</v>
+        <v>111973727</v>
       </c>
       <c r="B150" t="n">
-        <v>90788</v>
+        <v>90794</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17771,25 +17771,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -17808,10 +17808,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>438069</v>
+        <v>437871</v>
       </c>
       <c r="R150" t="n">
-        <v>6953093</v>
+        <v>6953178</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17879,10 +17879,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973762</v>
+        <v>111973708</v>
       </c>
       <c r="B151" t="n">
-        <v>90794</v>
+        <v>90788</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17891,25 +17891,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -17928,10 +17928,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>437599</v>
+        <v>438069</v>
       </c>
       <c r="R151" t="n">
-        <v>6953281</v>
+        <v>6953093</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -17953,7 +17953,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -17999,10 +17999,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973741</v>
+        <v>111973762</v>
       </c>
       <c r="B152" t="n">
-        <v>90816</v>
+        <v>90794</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18015,21 +18015,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -18048,10 +18048,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>437771</v>
+        <v>437599</v>
       </c>
       <c r="R152" t="n">
-        <v>6953335</v>
+        <v>6953281</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973693</v>
+        <v>111973741</v>
       </c>
       <c r="B153" t="n">
         <v>90816</v>
@@ -18168,10 +18168,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438341</v>
+        <v>437771</v>
       </c>
       <c r="R153" t="n">
-        <v>6953145</v>
+        <v>6953335</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="AI153" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -21599,10 +21599,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973696</v>
+        <v>111973745</v>
       </c>
       <c r="B182" t="n">
-        <v>90794</v>
+        <v>90786</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21615,21 +21615,21 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -21648,10 +21648,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>438244</v>
+        <v>437647</v>
       </c>
       <c r="R182" t="n">
-        <v>6953109</v>
+        <v>6953396</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21663,7 +21663,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
@@ -21673,7 +21673,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -21697,7 +21697,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -21719,7 +21719,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973669</v>
+        <v>111973696</v>
       </c>
       <c r="B183" t="n">
         <v>90794</v>
@@ -21768,10 +21768,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>437913</v>
+        <v>438244</v>
       </c>
       <c r="R183" t="n">
-        <v>6953242</v>
+        <v>6953109</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -21839,10 +21839,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973648</v>
+        <v>111973669</v>
       </c>
       <c r="B184" t="n">
-        <v>90816</v>
+        <v>90794</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -21855,21 +21855,21 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -21888,10 +21888,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>438637</v>
+        <v>437913</v>
       </c>
       <c r="R184" t="n">
-        <v>6953601</v>
+        <v>6953242</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr"/>
@@ -21959,10 +21959,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973763</v>
+        <v>111973648</v>
       </c>
       <c r="B185" t="n">
-        <v>90786</v>
+        <v>90816</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -21975,21 +21975,21 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22008,10 +22008,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>437630</v>
+        <v>438637</v>
       </c>
       <c r="R185" t="n">
-        <v>6953221</v>
+        <v>6953601</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22057,7 +22057,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22079,10 +22079,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973768</v>
+        <v>111973763</v>
       </c>
       <c r="B186" t="n">
-        <v>90816</v>
+        <v>90786</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22095,21 +22095,21 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22128,10 +22128,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>437638</v>
+        <v>437630</v>
       </c>
       <c r="R186" t="n">
-        <v>6953149</v>
+        <v>6953221</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22199,10 +22199,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973662</v>
+        <v>111973768</v>
       </c>
       <c r="B187" t="n">
-        <v>88166</v>
+        <v>90816</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -22211,25 +22211,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -22248,10 +22248,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>438148</v>
+        <v>437638</v>
       </c>
       <c r="R187" t="n">
-        <v>6953350</v>
+        <v>6953149</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr"/>
@@ -22319,10 +22319,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973678</v>
+        <v>111973662</v>
       </c>
       <c r="B188" t="n">
-        <v>90788</v>
+        <v>88166</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -22335,21 +22335,21 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -22368,10 +22368,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>438245</v>
+        <v>438148</v>
       </c>
       <c r="R188" t="n">
-        <v>6953250</v>
+        <v>6953350</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="AI188" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT188" t="inlineStr"/>
@@ -22439,10 +22439,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973745</v>
+        <v>111973678</v>
       </c>
       <c r="B189" t="n">
-        <v>90786</v>
+        <v>90788</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -22451,25 +22451,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -22488,10 +22488,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>437647</v>
+        <v>438245</v>
       </c>
       <c r="R189" t="n">
-        <v>6953396</v>
+        <v>6953250</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -22503,7 +22503,7 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
@@ -22513,7 +22513,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -22559,10 +22559,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973761</v>
+        <v>111973714</v>
       </c>
       <c r="B190" t="n">
-        <v>90434</v>
+        <v>90792</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -22575,21 +22575,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4745</v>
+        <v>4361</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -22608,10 +22608,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>437571</v>
+        <v>437975</v>
       </c>
       <c r="R190" t="n">
-        <v>6953283</v>
+        <v>6953221</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -22623,7 +22623,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -22679,10 +22679,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973654</v>
+        <v>111973761</v>
       </c>
       <c r="B191" t="n">
-        <v>90816</v>
+        <v>90434</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -22695,21 +22695,21 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -22728,10 +22728,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>438507</v>
+        <v>437571</v>
       </c>
       <c r="R191" t="n">
-        <v>6953527</v>
+        <v>6953283</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
@@ -22753,7 +22753,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y191" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="AI191" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr"/>
@@ -22799,10 +22799,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973801</v>
+        <v>111973654</v>
       </c>
       <c r="B192" t="n">
-        <v>90794</v>
+        <v>90816</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -22815,21 +22815,21 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -22848,10 +22848,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>437775</v>
+        <v>438507</v>
       </c>
       <c r="R192" t="n">
-        <v>6953075</v>
+        <v>6953527</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -22919,10 +22919,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973681</v>
+        <v>111973801</v>
       </c>
       <c r="B193" t="n">
-        <v>90786</v>
+        <v>90794</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -22935,21 +22935,21 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -22968,10 +22968,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>438493</v>
+        <v>437775</v>
       </c>
       <c r="R193" t="n">
-        <v>6953182</v>
+        <v>6953075</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23039,10 +23039,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973714</v>
+        <v>111973681</v>
       </c>
       <c r="B194" t="n">
-        <v>90792</v>
+        <v>90786</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23055,21 +23055,21 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -23088,10 +23088,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>437975</v>
+        <v>438493</v>
       </c>
       <c r="R194" t="n">
-        <v>6953221</v>
+        <v>6953182</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973703</v>
+        <v>111973718</v>
       </c>
       <c r="B199" t="n">
-        <v>88144</v>
+        <v>90786</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23651,25 +23651,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>438029</v>
+        <v>437914</v>
       </c>
       <c r="R199" t="n">
-        <v>6953011</v>
+        <v>6953163</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -23759,10 +23759,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973766</v>
+        <v>111973703</v>
       </c>
       <c r="B200" t="n">
-        <v>90786</v>
+        <v>88144</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23771,25 +23771,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>437708</v>
+        <v>438029</v>
       </c>
       <c r="R200" t="n">
-        <v>6953239</v>
+        <v>6953011</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -23879,7 +23879,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973658</v>
+        <v>111973766</v>
       </c>
       <c r="B201" t="n">
         <v>90786</v>
@@ -23928,10 +23928,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>438250</v>
+        <v>437708</v>
       </c>
       <c r="R201" t="n">
-        <v>6953325</v>
+        <v>6953239</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -23999,10 +23999,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973676</v>
+        <v>111973658</v>
       </c>
       <c r="B202" t="n">
-        <v>90794</v>
+        <v>90786</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24015,21 +24015,21 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24048,10 +24048,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>438195</v>
+        <v>438250</v>
       </c>
       <c r="R202" t="n">
-        <v>6953263</v>
+        <v>6953325</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -24097,7 +24097,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr"/>
@@ -24119,10 +24119,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973730</v>
+        <v>111973676</v>
       </c>
       <c r="B203" t="n">
-        <v>90816</v>
+        <v>90794</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -24135,21 +24135,21 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -24168,10 +24168,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>437842</v>
+        <v>438195</v>
       </c>
       <c r="R203" t="n">
-        <v>6953303</v>
+        <v>6953263</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr"/>
@@ -24239,10 +24239,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973698</v>
+        <v>111973730</v>
       </c>
       <c r="B204" t="n">
-        <v>90794</v>
+        <v>90816</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -24255,21 +24255,21 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -24288,10 +24288,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>438207</v>
+        <v>437842</v>
       </c>
       <c r="R204" t="n">
-        <v>6953100</v>
+        <v>6953303</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -24359,7 +24359,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973713</v>
+        <v>111973698</v>
       </c>
       <c r="B205" t="n">
         <v>90794</v>
@@ -24408,10 +24408,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>438002</v>
+        <v>438207</v>
       </c>
       <c r="R205" t="n">
-        <v>6953193</v>
+        <v>6953100</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -24479,10 +24479,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973737</v>
+        <v>111973713</v>
       </c>
       <c r="B206" t="n">
-        <v>90812</v>
+        <v>90794</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -24491,25 +24491,25 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -24528,10 +24528,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>437826</v>
+        <v>438002</v>
       </c>
       <c r="R206" t="n">
-        <v>6953429</v>
+        <v>6953193</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
@@ -24553,7 +24553,7 @@
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -24599,10 +24599,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973718</v>
+        <v>111973737</v>
       </c>
       <c r="B207" t="n">
-        <v>90786</v>
+        <v>90812</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -24611,25 +24611,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -24648,10 +24648,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>437914</v>
+        <v>437826</v>
       </c>
       <c r="R207" t="n">
-        <v>6953163</v>
+        <v>6953429</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -24663,7 +24663,7 @@
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
@@ -24673,7 +24673,7 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
@@ -24697,7 +24697,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12720,10 +12720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973803</v>
+        <v>111973764</v>
       </c>
       <c r="B108" t="n">
-        <v>90786</v>
+        <v>90808</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12736,21 +12736,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>437809</v>
+        <v>437776</v>
       </c>
       <c r="R108" t="n">
-        <v>6953100</v>
+        <v>6953124</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT108" t="inlineStr"/>
@@ -12840,10 +12840,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973709</v>
+        <v>111973708</v>
       </c>
       <c r="B109" t="n">
-        <v>90816</v>
+        <v>90802</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12852,25 +12852,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12889,10 +12889,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>438062</v>
+        <v>438069</v>
       </c>
       <c r="R109" t="n">
-        <v>6953112</v>
+        <v>6953093</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12960,10 +12960,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973723</v>
+        <v>111973762</v>
       </c>
       <c r="B110" t="n">
-        <v>90786</v>
+        <v>90808</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12976,21 +12976,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -13009,10 +13009,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>437904</v>
+        <v>437599</v>
       </c>
       <c r="R110" t="n">
-        <v>6953092</v>
+        <v>6953281</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -13080,10 +13080,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973655</v>
+        <v>111973695</v>
       </c>
       <c r="B111" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13096,21 +13096,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>438489</v>
+        <v>438290</v>
       </c>
       <c r="R111" t="n">
-        <v>6953526</v>
+        <v>6953135</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="AI111" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT111" t="inlineStr"/>
@@ -13200,10 +13200,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973652</v>
+        <v>111973686</v>
       </c>
       <c r="B112" t="n">
-        <v>90794</v>
+        <v>90448</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13216,21 +13216,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -13249,10 +13249,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>438538</v>
+        <v>438557</v>
       </c>
       <c r="R112" t="n">
-        <v>6953550</v>
+        <v>6953077</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr"/>
@@ -13320,10 +13320,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973764</v>
+        <v>111973660</v>
       </c>
       <c r="B113" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13369,10 +13369,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>437776</v>
+        <v>438118</v>
       </c>
       <c r="R113" t="n">
-        <v>6953124</v>
+        <v>6953330</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13440,10 +13440,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973707</v>
+        <v>111973733</v>
       </c>
       <c r="B114" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13489,10 +13489,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>438068</v>
+        <v>437876</v>
       </c>
       <c r="R114" t="n">
-        <v>6953071</v>
+        <v>6953355</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr"/>
@@ -13560,10 +13560,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973736</v>
+        <v>111973713</v>
       </c>
       <c r="B115" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13609,10 +13609,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>437843</v>
+        <v>438002</v>
       </c>
       <c r="R115" t="n">
-        <v>6953498</v>
+        <v>6953193</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13658,7 +13658,7 @@
       </c>
       <c r="AI115" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT115" t="inlineStr"/>
@@ -13680,10 +13680,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973660</v>
+        <v>111973763</v>
       </c>
       <c r="B116" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13696,21 +13696,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>438118</v>
+        <v>437630</v>
       </c>
       <c r="R116" t="n">
-        <v>6953330</v>
+        <v>6953221</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -13800,10 +13800,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973705</v>
+        <v>111973720</v>
       </c>
       <c r="B117" t="n">
-        <v>90816</v>
+        <v>90800</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13816,21 +13816,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>438040</v>
+        <v>437936</v>
       </c>
       <c r="R117" t="n">
-        <v>6953070</v>
+        <v>6953114</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13920,10 +13920,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973726</v>
+        <v>111973656</v>
       </c>
       <c r="B118" t="n">
-        <v>90786</v>
+        <v>88180</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13932,25 +13932,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -13969,10 +13969,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>437858</v>
+        <v>438305</v>
       </c>
       <c r="R118" t="n">
-        <v>6953132</v>
+        <v>6953417</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14040,10 +14040,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973724</v>
+        <v>111973734</v>
       </c>
       <c r="B119" t="n">
-        <v>88623</v>
+        <v>90808</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14056,34 +14056,43 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P119" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>437892</v>
+        <v>437925</v>
       </c>
       <c r="R119" t="n">
-        <v>6953090</v>
+        <v>6953362</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14129,15 +14138,7 @@
       </c>
       <c r="AI119" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO119" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT119" t="inlineStr"/>
@@ -14159,10 +14160,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973665</v>
+        <v>111973743</v>
       </c>
       <c r="B120" t="n">
-        <v>88166</v>
+        <v>90808</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14171,25 +14172,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -14208,10 +14209,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>438215</v>
+        <v>437633</v>
       </c>
       <c r="R120" t="n">
-        <v>6953403</v>
+        <v>6953302</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14223,7 +14224,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -14233,7 +14234,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -14257,7 +14258,7 @@
       </c>
       <c r="AI120" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT120" t="inlineStr"/>
@@ -14279,10 +14280,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973716</v>
+        <v>111973738</v>
       </c>
       <c r="B121" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14295,21 +14296,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -14328,10 +14329,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>437942</v>
+        <v>437819</v>
       </c>
       <c r="R121" t="n">
-        <v>6953189</v>
+        <v>6953417</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14343,7 +14344,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -14353,7 +14354,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -14377,7 +14378,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14399,10 +14400,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973711</v>
+        <v>111973707</v>
       </c>
       <c r="B122" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14448,10 +14449,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>438031</v>
+        <v>438068</v>
       </c>
       <c r="R122" t="n">
-        <v>6953140</v>
+        <v>6953071</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14519,10 +14520,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973674</v>
+        <v>111973666</v>
       </c>
       <c r="B123" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14568,10 +14569,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>438161</v>
+        <v>438214</v>
       </c>
       <c r="R123" t="n">
-        <v>6953263</v>
+        <v>6953416</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14617,7 +14618,7 @@
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr"/>
@@ -14639,10 +14640,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973767</v>
+        <v>111973651</v>
       </c>
       <c r="B124" t="n">
-        <v>90794</v>
+        <v>90830</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14655,21 +14656,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -14688,10 +14689,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>437702</v>
+        <v>438595</v>
       </c>
       <c r="R124" t="n">
-        <v>6953234</v>
+        <v>6953584</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14737,7 +14738,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14759,10 +14760,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973802</v>
+        <v>111973711</v>
       </c>
       <c r="B125" t="n">
-        <v>90812</v>
+        <v>90808</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14771,25 +14772,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -14808,10 +14809,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>437786</v>
+        <v>438031</v>
       </c>
       <c r="R125" t="n">
-        <v>6953084</v>
+        <v>6953140</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -14857,7 +14858,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -14882,7 +14883,7 @@
         <v>111973744</v>
       </c>
       <c r="B126" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14999,10 +15000,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973743</v>
+        <v>111973698</v>
       </c>
       <c r="B127" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15048,10 +15049,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>437633</v>
+        <v>438207</v>
       </c>
       <c r="R127" t="n">
-        <v>6953302</v>
+        <v>6953100</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15063,7 +15064,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -15073,7 +15074,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -15097,7 +15098,7 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15119,10 +15120,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973670</v>
+        <v>111973761</v>
       </c>
       <c r="B128" t="n">
-        <v>90794</v>
+        <v>90448</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15135,21 +15136,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15168,10 +15169,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>437926</v>
+        <v>437571</v>
       </c>
       <c r="R128" t="n">
-        <v>6953261</v>
+        <v>6953283</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15183,7 +15184,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
@@ -15193,7 +15194,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
@@ -15239,10 +15240,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973721</v>
+        <v>111973680</v>
       </c>
       <c r="B129" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15288,10 +15289,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>437965</v>
+        <v>438403</v>
       </c>
       <c r="R129" t="n">
-        <v>6953078</v>
+        <v>6953181</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15359,10 +15360,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973733</v>
+        <v>111973658</v>
       </c>
       <c r="B130" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15375,21 +15376,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15408,10 +15409,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>437876</v>
+        <v>438250</v>
       </c>
       <c r="R130" t="n">
-        <v>6953355</v>
+        <v>6953325</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15457,7 +15458,7 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr"/>
@@ -15479,10 +15480,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973719</v>
+        <v>111973671</v>
       </c>
       <c r="B131" t="n">
-        <v>90816</v>
+        <v>88180</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15491,25 +15492,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15528,10 +15529,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>437938</v>
+        <v>438033</v>
       </c>
       <c r="R131" t="n">
-        <v>6953155</v>
+        <v>6953252</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15599,10 +15600,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973734</v>
+        <v>111973722</v>
       </c>
       <c r="B132" t="n">
-        <v>90794</v>
+        <v>88180</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15611,25 +15612,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15648,10 +15649,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>437925</v>
+        <v>437914</v>
       </c>
       <c r="R132" t="n">
-        <v>6953362</v>
+        <v>6953091</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15697,7 +15698,7 @@
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -15719,10 +15720,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973742</v>
+        <v>111973683</v>
       </c>
       <c r="B133" t="n">
-        <v>90786</v>
+        <v>88158</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15731,25 +15732,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -15768,10 +15769,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>437769</v>
+        <v>438570</v>
       </c>
       <c r="R133" t="n">
-        <v>6953320</v>
+        <v>6953140</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -15817,7 +15818,7 @@
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -15839,10 +15840,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973720</v>
+        <v>111973688</v>
       </c>
       <c r="B134" t="n">
-        <v>90786</v>
+        <v>90826</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15851,25 +15852,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -15888,10 +15889,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>437936</v>
+        <v>438544</v>
       </c>
       <c r="R134" t="n">
-        <v>6953114</v>
+        <v>6953037</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -15959,10 +15960,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973686</v>
+        <v>111973730</v>
       </c>
       <c r="B135" t="n">
-        <v>90434</v>
+        <v>90830</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15975,21 +15976,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -16008,10 +16009,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>438557</v>
+        <v>437842</v>
       </c>
       <c r="R135" t="n">
-        <v>6953077</v>
+        <v>6953303</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16079,10 +16080,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973667</v>
+        <v>111973768</v>
       </c>
       <c r="B136" t="n">
-        <v>90794</v>
+        <v>90830</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16095,21 +16096,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -16128,10 +16129,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>438214</v>
+        <v>437638</v>
       </c>
       <c r="R136" t="n">
-        <v>6953416</v>
+        <v>6953149</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16199,10 +16200,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973649</v>
+        <v>111973648</v>
       </c>
       <c r="B137" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16248,10 +16249,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>438644</v>
+        <v>438637</v>
       </c>
       <c r="R137" t="n">
-        <v>6953596</v>
+        <v>6953601</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16319,10 +16320,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973671</v>
+        <v>111973663</v>
       </c>
       <c r="B138" t="n">
-        <v>88166</v>
+        <v>90808</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16331,25 +16332,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16368,10 +16369,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>438033</v>
+        <v>438170</v>
       </c>
       <c r="R138" t="n">
-        <v>6953252</v>
+        <v>6953367</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16439,10 +16440,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973739</v>
+        <v>111973702</v>
       </c>
       <c r="B139" t="n">
-        <v>90816</v>
+        <v>90808</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16455,21 +16456,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16488,10 +16489,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>437781</v>
+        <v>438082</v>
       </c>
       <c r="R139" t="n">
-        <v>6953423</v>
+        <v>6953046</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16503,7 +16504,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -16513,7 +16514,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -16537,7 +16538,7 @@
       </c>
       <c r="AI139" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT139" t="inlineStr"/>
@@ -16559,10 +16560,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973715</v>
+        <v>111973697</v>
       </c>
       <c r="B140" t="n">
-        <v>90812</v>
+        <v>88180</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16571,25 +16572,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16608,10 +16609,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>437963</v>
+        <v>438217</v>
       </c>
       <c r="R140" t="n">
-        <v>6953212</v>
+        <v>6953090</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16682,7 +16683,7 @@
         <v>111973725</v>
       </c>
       <c r="B141" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16799,10 +16800,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973663</v>
+        <v>111973694</v>
       </c>
       <c r="B142" t="n">
-        <v>90794</v>
+        <v>88180</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16811,25 +16812,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -16848,10 +16849,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>438170</v>
+        <v>438326</v>
       </c>
       <c r="R142" t="n">
-        <v>6953367</v>
+        <v>6953164</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -16919,10 +16920,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973692</v>
+        <v>111973693</v>
       </c>
       <c r="B143" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16968,10 +16969,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>438375</v>
+        <v>438341</v>
       </c>
       <c r="R143" t="n">
-        <v>6953080</v>
+        <v>6953145</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17017,7 +17018,7 @@
       </c>
       <c r="AI143" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT143" t="inlineStr"/>
@@ -17039,10 +17040,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973650</v>
+        <v>111973726</v>
       </c>
       <c r="B144" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17088,10 +17089,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>438617</v>
+        <v>437858</v>
       </c>
       <c r="R144" t="n">
-        <v>6953572</v>
+        <v>6953132</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17137,7 +17138,7 @@
       </c>
       <c r="AI144" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT144" t="inlineStr"/>
@@ -17159,10 +17160,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973738</v>
+        <v>111973767</v>
       </c>
       <c r="B145" t="n">
-        <v>90786</v>
+        <v>90808</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17175,21 +17176,21 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -17208,10 +17209,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>437819</v>
+        <v>437702</v>
       </c>
       <c r="R145" t="n">
-        <v>6953417</v>
+        <v>6953234</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17223,7 +17224,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
@@ -17233,7 +17234,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -17257,7 +17258,7 @@
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr"/>
@@ -17279,10 +17280,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973683</v>
+        <v>111973731</v>
       </c>
       <c r="B146" t="n">
-        <v>88144</v>
+        <v>88158</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17328,10 +17329,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>438570</v>
+        <v>437842</v>
       </c>
       <c r="R146" t="n">
-        <v>6953140</v>
+        <v>6953303</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17399,10 +17400,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973693</v>
+        <v>111973740</v>
       </c>
       <c r="B147" t="n">
-        <v>90816</v>
+        <v>90808</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17415,21 +17416,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -17448,10 +17449,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>438341</v>
+        <v>437785</v>
       </c>
       <c r="R147" t="n">
-        <v>6953145</v>
+        <v>6953387</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17463,7 +17464,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
@@ -17473,7 +17474,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
@@ -17497,7 +17498,7 @@
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr"/>
@@ -17519,10 +17520,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973740</v>
+        <v>111973652</v>
       </c>
       <c r="B148" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17568,10 +17569,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>437785</v>
+        <v>438538</v>
       </c>
       <c r="R148" t="n">
-        <v>6953387</v>
+        <v>6953550</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17583,7 +17584,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
@@ -17593,7 +17594,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -17617,7 +17618,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr"/>
@@ -17639,10 +17640,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111973729</v>
+        <v>111973739</v>
       </c>
       <c r="B149" t="n">
-        <v>90786</v>
+        <v>90830</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17655,21 +17656,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -17688,10 +17689,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>437849</v>
+        <v>437781</v>
       </c>
       <c r="R149" t="n">
-        <v>6953247</v>
+        <v>6953423</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17703,7 +17704,7 @@
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
@@ -17713,7 +17714,7 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
@@ -17737,7 +17738,7 @@
       </c>
       <c r="AI149" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -17759,10 +17760,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973727</v>
+        <v>111973724</v>
       </c>
       <c r="B150" t="n">
-        <v>90794</v>
+        <v>88637</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17775,43 +17776,34 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>437871</v>
+        <v>437892</v>
       </c>
       <c r="R150" t="n">
-        <v>6953178</v>
+        <v>6953090</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17858,6 +17850,14 @@
       <c r="AI150" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -17879,10 +17879,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973708</v>
+        <v>111973679</v>
       </c>
       <c r="B151" t="n">
-        <v>90788</v>
+        <v>90808</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17891,25 +17891,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -17928,10 +17928,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>438069</v>
+        <v>438324</v>
       </c>
       <c r="R151" t="n">
-        <v>6953093</v>
+        <v>6953231</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -17999,10 +17999,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973762</v>
+        <v>111973721</v>
       </c>
       <c r="B152" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18048,10 +18048,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>437599</v>
+        <v>437965</v>
       </c>
       <c r="R152" t="n">
-        <v>6953281</v>
+        <v>6953078</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18063,7 +18063,7 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
@@ -18073,7 +18073,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -18119,10 +18119,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973741</v>
+        <v>111973649</v>
       </c>
       <c r="B153" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18168,10 +18168,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>437771</v>
+        <v>438644</v>
       </c>
       <c r="R153" t="n">
-        <v>6953335</v>
+        <v>6953596</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="AI153" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -18239,10 +18239,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973695</v>
+        <v>111973699</v>
       </c>
       <c r="B154" t="n">
-        <v>90786</v>
+        <v>90802</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18251,25 +18251,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18288,10 +18288,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438290</v>
+        <v>438167</v>
       </c>
       <c r="R154" t="n">
-        <v>6953135</v>
+        <v>6953105</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18359,10 +18359,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973680</v>
+        <v>111973696</v>
       </c>
       <c r="B155" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18408,10 +18408,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>438403</v>
+        <v>438244</v>
       </c>
       <c r="R155" t="n">
-        <v>6953181</v>
+        <v>6953109</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18479,10 +18479,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973712</v>
+        <v>111973687</v>
       </c>
       <c r="B156" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18528,10 +18528,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>438007</v>
+        <v>438549</v>
       </c>
       <c r="R156" t="n">
-        <v>6953194</v>
+        <v>6953054</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18599,10 +18599,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973735</v>
+        <v>111973665</v>
       </c>
       <c r="B157" t="n">
-        <v>90794</v>
+        <v>88180</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18611,25 +18611,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -18648,10 +18648,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>437908</v>
+        <v>438215</v>
       </c>
       <c r="R157" t="n">
-        <v>6953423</v>
+        <v>6953403</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18663,7 +18663,7 @@
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -18719,10 +18719,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973731</v>
+        <v>111973745</v>
       </c>
       <c r="B158" t="n">
-        <v>88144</v>
+        <v>90800</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18731,25 +18731,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -18768,10 +18768,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>437842</v>
+        <v>437647</v>
       </c>
       <c r="R158" t="n">
-        <v>6953303</v>
+        <v>6953396</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
@@ -18793,7 +18793,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
@@ -18817,7 +18817,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -18839,10 +18839,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973699</v>
+        <v>111973715</v>
       </c>
       <c r="B159" t="n">
-        <v>90788</v>
+        <v>90826</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18851,25 +18851,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>149</v>
+        <v>4366</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -18888,10 +18888,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>438167</v>
+        <v>437963</v>
       </c>
       <c r="R159" t="n">
-        <v>6953105</v>
+        <v>6953212</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18959,10 +18959,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973702</v>
+        <v>111973803</v>
       </c>
       <c r="B160" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -18975,21 +18975,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19008,10 +19008,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>438082</v>
+        <v>437809</v>
       </c>
       <c r="R160" t="n">
-        <v>6953046</v>
+        <v>6953100</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973688</v>
+        <v>111973709</v>
       </c>
       <c r="B161" t="n">
-        <v>90812</v>
+        <v>90830</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19091,25 +19091,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19128,10 +19128,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>438544</v>
+        <v>438062</v>
       </c>
       <c r="R161" t="n">
-        <v>6953037</v>
+        <v>6953112</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19199,10 +19199,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973694</v>
+        <v>111973737</v>
       </c>
       <c r="B162" t="n">
-        <v>88166</v>
+        <v>90826</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19211,25 +19211,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19248,10 +19248,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>438326</v>
+        <v>437826</v>
       </c>
       <c r="R162" t="n">
-        <v>6953164</v>
+        <v>6953429</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19263,7 +19263,7 @@
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
@@ -19273,7 +19273,7 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -19319,10 +19319,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973687</v>
+        <v>111973678</v>
       </c>
       <c r="B163" t="n">
-        <v>90786</v>
+        <v>90802</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19331,25 +19331,25 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -19368,10 +19368,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>438549</v>
+        <v>438245</v>
       </c>
       <c r="R163" t="n">
-        <v>6953054</v>
+        <v>6953250</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="AI163" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -19439,10 +19439,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973672</v>
+        <v>111973684</v>
       </c>
       <c r="B164" t="n">
-        <v>90786</v>
+        <v>90830</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -19455,21 +19455,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -19488,10 +19488,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>438162</v>
+        <v>438577</v>
       </c>
       <c r="R164" t="n">
-        <v>6953218</v>
+        <v>6953121</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="AI164" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT164" t="inlineStr"/>
@@ -19559,10 +19559,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973690</v>
+        <v>111973723</v>
       </c>
       <c r="B165" t="n">
-        <v>88166</v>
+        <v>90800</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -19571,25 +19571,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -19608,10 +19608,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>438393</v>
+        <v>437904</v>
       </c>
       <c r="R165" t="n">
-        <v>6953048</v>
+        <v>6953092</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -19679,10 +19679,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973689</v>
+        <v>111973742</v>
       </c>
       <c r="B166" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -19695,21 +19695,21 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -19728,10 +19728,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>438478</v>
+        <v>437769</v>
       </c>
       <c r="R166" t="n">
-        <v>6953008</v>
+        <v>6953320</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -19777,7 +19777,7 @@
       </c>
       <c r="AI166" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -19799,10 +19799,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973704</v>
+        <v>111973674</v>
       </c>
       <c r="B167" t="n">
-        <v>90792</v>
+        <v>90800</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -19815,21 +19815,21 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -19848,10 +19848,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>438040</v>
+        <v>438161</v>
       </c>
       <c r="R167" t="n">
-        <v>6953056</v>
+        <v>6953263</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -19919,10 +19919,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973717</v>
+        <v>111973662</v>
       </c>
       <c r="B168" t="n">
-        <v>88144</v>
+        <v>88180</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -19935,21 +19935,21 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1596</v>
+        <v>6276</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -19968,10 +19968,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>437925</v>
+        <v>438148</v>
       </c>
       <c r="R168" t="n">
-        <v>6953182</v>
+        <v>6953350</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20017,7 +20017,7 @@
       </c>
       <c r="AI168" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -20039,10 +20039,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973691</v>
+        <v>111973706</v>
       </c>
       <c r="B169" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20088,10 +20088,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>438380</v>
+        <v>438039</v>
       </c>
       <c r="R169" t="n">
-        <v>6953076</v>
+        <v>6953083</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20159,10 +20159,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973722</v>
+        <v>111973691</v>
       </c>
       <c r="B170" t="n">
-        <v>88166</v>
+        <v>90800</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20171,25 +20171,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -20208,10 +20208,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>437914</v>
+        <v>438380</v>
       </c>
       <c r="R170" t="n">
-        <v>6953091</v>
+        <v>6953076</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20279,10 +20279,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973653</v>
+        <v>111973705</v>
       </c>
       <c r="B171" t="n">
-        <v>88166</v>
+        <v>90830</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20291,25 +20291,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -20328,10 +20328,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>438545</v>
+        <v>438040</v>
       </c>
       <c r="R171" t="n">
-        <v>6953546</v>
+        <v>6953070</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="AI171" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT171" t="inlineStr"/>
@@ -20399,10 +20399,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973701</v>
+        <v>111973703</v>
       </c>
       <c r="B172" t="n">
-        <v>90816</v>
+        <v>88158</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -20411,25 +20411,25 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -20448,10 +20448,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>438134</v>
+        <v>438029</v>
       </c>
       <c r="R172" t="n">
-        <v>6953093</v>
+        <v>6953011</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -20519,10 +20519,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973684</v>
+        <v>111973701</v>
       </c>
       <c r="B173" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -20568,10 +20568,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>438577</v>
+        <v>438134</v>
       </c>
       <c r="R173" t="n">
-        <v>6953121</v>
+        <v>6953093</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -20639,10 +20639,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973677</v>
+        <v>111973719</v>
       </c>
       <c r="B174" t="n">
-        <v>90434</v>
+        <v>90830</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -20655,21 +20655,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -20688,10 +20688,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>438218</v>
+        <v>437938</v>
       </c>
       <c r="R174" t="n">
-        <v>6953251</v>
+        <v>6953155</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="AI174" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr"/>
@@ -20759,10 +20759,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973673</v>
+        <v>111973712</v>
       </c>
       <c r="B175" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -20808,10 +20808,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>438127</v>
+        <v>438007</v>
       </c>
       <c r="R175" t="n">
-        <v>6953244</v>
+        <v>6953194</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="AI175" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT175" t="inlineStr"/>
@@ -20879,10 +20879,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973651</v>
+        <v>111973670</v>
       </c>
       <c r="B176" t="n">
-        <v>90816</v>
+        <v>90808</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -20895,21 +20895,21 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -20928,10 +20928,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>438595</v>
+        <v>437926</v>
       </c>
       <c r="R176" t="n">
-        <v>6953584</v>
+        <v>6953261</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="AI176" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr"/>
@@ -20999,10 +20999,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973666</v>
+        <v>111973690</v>
       </c>
       <c r="B177" t="n">
-        <v>90786</v>
+        <v>88180</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21011,25 +21011,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21048,10 +21048,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>438214</v>
+        <v>438393</v>
       </c>
       <c r="R177" t="n">
-        <v>6953416</v>
+        <v>6953048</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21119,10 +21119,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973706</v>
+        <v>111973714</v>
       </c>
       <c r="B178" t="n">
-        <v>90786</v>
+        <v>90806</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21135,21 +21135,21 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21168,10 +21168,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>438039</v>
+        <v>437975</v>
       </c>
       <c r="R178" t="n">
-        <v>6953083</v>
+        <v>6953221</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21239,10 +21239,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973732</v>
+        <v>111973729</v>
       </c>
       <c r="B179" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21288,10 +21288,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>437870</v>
+        <v>437849</v>
       </c>
       <c r="R179" t="n">
-        <v>6953355</v>
+        <v>6953247</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT179" t="inlineStr"/>
@@ -21359,10 +21359,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973656</v>
+        <v>111973802</v>
       </c>
       <c r="B180" t="n">
-        <v>88166</v>
+        <v>90826</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -21371,25 +21371,25 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -21408,10 +21408,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>438305</v>
+        <v>437786</v>
       </c>
       <c r="R180" t="n">
-        <v>6953417</v>
+        <v>6953084</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT180" t="inlineStr"/>
@@ -21479,10 +21479,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973700</v>
+        <v>111973718</v>
       </c>
       <c r="B181" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -21528,10 +21528,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>438151</v>
+        <v>437914</v>
       </c>
       <c r="R181" t="n">
-        <v>6953097</v>
+        <v>6953163</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -21599,10 +21599,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973745</v>
+        <v>111973673</v>
       </c>
       <c r="B182" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21648,10 +21648,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>437647</v>
+        <v>438127</v>
       </c>
       <c r="R182" t="n">
-        <v>6953396</v>
+        <v>6953244</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21663,7 +21663,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
@@ -21673,7 +21673,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -21697,7 +21697,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -21719,10 +21719,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973696</v>
+        <v>111973735</v>
       </c>
       <c r="B183" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -21768,10 +21768,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>438244</v>
+        <v>437908</v>
       </c>
       <c r="R183" t="n">
-        <v>6953109</v>
+        <v>6953423</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -21783,7 +21783,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -21842,7 +21842,7 @@
         <v>111973669</v>
       </c>
       <c r="B184" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -21959,10 +21959,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973648</v>
+        <v>111973655</v>
       </c>
       <c r="B185" t="n">
-        <v>90816</v>
+        <v>90808</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -21975,21 +21975,21 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22008,10 +22008,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438637</v>
+        <v>438489</v>
       </c>
       <c r="R185" t="n">
-        <v>6953601</v>
+        <v>6953526</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22079,10 +22079,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973763</v>
+        <v>111973717</v>
       </c>
       <c r="B186" t="n">
-        <v>90786</v>
+        <v>88158</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22091,25 +22091,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22128,10 +22128,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>437630</v>
+        <v>437925</v>
       </c>
       <c r="R186" t="n">
-        <v>6953221</v>
+        <v>6953182</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22199,10 +22199,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973768</v>
+        <v>111973766</v>
       </c>
       <c r="B187" t="n">
-        <v>90816</v>
+        <v>90800</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -22215,21 +22215,21 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -22248,10 +22248,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>437638</v>
+        <v>437708</v>
       </c>
       <c r="R187" t="n">
-        <v>6953149</v>
+        <v>6953239</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -22319,10 +22319,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973662</v>
+        <v>111973700</v>
       </c>
       <c r="B188" t="n">
-        <v>88166</v>
+        <v>90800</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -22331,25 +22331,25 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -22368,10 +22368,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>438148</v>
+        <v>438151</v>
       </c>
       <c r="R188" t="n">
-        <v>6953350</v>
+        <v>6953097</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="AI188" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT188" t="inlineStr"/>
@@ -22439,10 +22439,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973678</v>
+        <v>111973676</v>
       </c>
       <c r="B189" t="n">
-        <v>90788</v>
+        <v>90808</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -22451,25 +22451,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -22488,10 +22488,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>438245</v>
+        <v>438195</v>
       </c>
       <c r="R189" t="n">
-        <v>6953250</v>
+        <v>6953263</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -22559,10 +22559,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973714</v>
+        <v>111973681</v>
       </c>
       <c r="B190" t="n">
-        <v>90792</v>
+        <v>90800</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -22575,21 +22575,21 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -22608,10 +22608,10 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>437975</v>
+        <v>438493</v>
       </c>
       <c r="R190" t="n">
-        <v>6953221</v>
+        <v>6953182</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -22679,10 +22679,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973761</v>
+        <v>111973727</v>
       </c>
       <c r="B191" t="n">
-        <v>90434</v>
+        <v>90808</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -22695,21 +22695,21 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -22728,10 +22728,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>437571</v>
+        <v>437871</v>
       </c>
       <c r="R191" t="n">
-        <v>6953283</v>
+        <v>6953178</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
@@ -22753,7 +22753,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y191" t="inlineStr">
@@ -22799,10 +22799,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973654</v>
+        <v>111973692</v>
       </c>
       <c r="B192" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -22848,10 +22848,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>438507</v>
+        <v>438375</v>
       </c>
       <c r="R192" t="n">
-        <v>6953527</v>
+        <v>6953080</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -22919,10 +22919,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973801</v>
+        <v>111973654</v>
       </c>
       <c r="B193" t="n">
-        <v>90794</v>
+        <v>90830</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -22935,21 +22935,21 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -22968,10 +22968,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>437775</v>
+        <v>438507</v>
       </c>
       <c r="R193" t="n">
-        <v>6953075</v>
+        <v>6953527</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23039,10 +23039,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973681</v>
+        <v>111973672</v>
       </c>
       <c r="B194" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -23088,10 +23088,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>438493</v>
+        <v>438162</v>
       </c>
       <c r="R194" t="n">
-        <v>6953182</v>
+        <v>6953218</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -23159,10 +23159,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973679</v>
+        <v>111973653</v>
       </c>
       <c r="B195" t="n">
-        <v>90794</v>
+        <v>88180</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -23171,25 +23171,25 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -23208,10 +23208,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>438324</v>
+        <v>438545</v>
       </c>
       <c r="R195" t="n">
-        <v>6953231</v>
+        <v>6953546</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -23279,10 +23279,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973675</v>
+        <v>111973732</v>
       </c>
       <c r="B196" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -23295,21 +23295,21 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -23328,10 +23328,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>438161</v>
+        <v>437870</v>
       </c>
       <c r="R196" t="n">
-        <v>6953263</v>
+        <v>6953355</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -23399,10 +23399,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973800</v>
+        <v>111973801</v>
       </c>
       <c r="B197" t="n">
-        <v>90816</v>
+        <v>90808</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -23415,21 +23415,21 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -23448,10 +23448,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>437772</v>
+        <v>437775</v>
       </c>
       <c r="R197" t="n">
-        <v>6953072</v>
+        <v>6953075</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="AI197" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT197" t="inlineStr"/>
@@ -23519,10 +23519,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973697</v>
+        <v>111973677</v>
       </c>
       <c r="B198" t="n">
-        <v>88166</v>
+        <v>90448</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -23531,25 +23531,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -23568,10 +23568,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>438217</v>
+        <v>438218</v>
       </c>
       <c r="R198" t="n">
-        <v>6953090</v>
+        <v>6953251</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -23617,7 +23617,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973718</v>
+        <v>111973667</v>
       </c>
       <c r="B199" t="n">
-        <v>90786</v>
+        <v>90808</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23655,21 +23655,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>437914</v>
+        <v>438214</v>
       </c>
       <c r="R199" t="n">
-        <v>6953163</v>
+        <v>6953416</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -23759,10 +23759,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973703</v>
+        <v>111973716</v>
       </c>
       <c r="B200" t="n">
-        <v>88144</v>
+        <v>90808</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23771,25 +23771,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>438029</v>
+        <v>437942</v>
       </c>
       <c r="R200" t="n">
-        <v>6953011</v>
+        <v>6953189</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -23879,10 +23879,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973766</v>
+        <v>111973675</v>
       </c>
       <c r="B201" t="n">
-        <v>90786</v>
+        <v>90808</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23895,21 +23895,21 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -23928,10 +23928,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>437708</v>
+        <v>438161</v>
       </c>
       <c r="R201" t="n">
-        <v>6953239</v>
+        <v>6953263</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -23999,10 +23999,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973658</v>
+        <v>111973689</v>
       </c>
       <c r="B202" t="n">
-        <v>90786</v>
+        <v>90808</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -24015,21 +24015,21 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -24048,10 +24048,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>438250</v>
+        <v>438478</v>
       </c>
       <c r="R202" t="n">
-        <v>6953325</v>
+        <v>6953008</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -24097,7 +24097,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr"/>
@@ -24119,10 +24119,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973676</v>
+        <v>111973736</v>
       </c>
       <c r="B203" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -24168,10 +24168,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>438195</v>
+        <v>437843</v>
       </c>
       <c r="R203" t="n">
-        <v>6953263</v>
+        <v>6953498</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
@@ -24193,7 +24193,7 @@
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y203" t="inlineStr">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr"/>
@@ -24239,10 +24239,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973730</v>
+        <v>111973800</v>
       </c>
       <c r="B204" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -24288,10 +24288,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>437842</v>
+        <v>437772</v>
       </c>
       <c r="R204" t="n">
-        <v>6953303</v>
+        <v>6953072</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -24359,10 +24359,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973698</v>
+        <v>111973741</v>
       </c>
       <c r="B205" t="n">
-        <v>90794</v>
+        <v>90830</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -24375,21 +24375,21 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -24408,10 +24408,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>438207</v>
+        <v>437771</v>
       </c>
       <c r="R205" t="n">
-        <v>6953100</v>
+        <v>6953335</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -24423,7 +24423,7 @@
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y205" t="inlineStr">
@@ -24457,7 +24457,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT205" t="inlineStr"/>
@@ -24479,10 +24479,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973713</v>
+        <v>111973650</v>
       </c>
       <c r="B206" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -24495,21 +24495,21 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -24528,10 +24528,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438002</v>
+        <v>438617</v>
       </c>
       <c r="R206" t="n">
-        <v>6953193</v>
+        <v>6953572</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -24577,7 +24577,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -24599,10 +24599,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973737</v>
+        <v>111973704</v>
       </c>
       <c r="B207" t="n">
-        <v>90812</v>
+        <v>90806</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -24611,25 +24611,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -24648,10 +24648,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>437826</v>
+        <v>438040</v>
       </c>
       <c r="R207" t="n">
-        <v>6953429</v>
+        <v>6953056</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -24663,7 +24663,7 @@
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
@@ -24673,7 +24673,7 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
@@ -24697,7 +24697,7 @@
       </c>
       <c r="AI207" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr"/>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -12720,10 +12720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111973764</v>
+        <v>111973686</v>
       </c>
       <c r="B108" t="n">
-        <v>90808</v>
+        <v>90448</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12736,21 +12736,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -12769,10 +12769,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>437776</v>
+        <v>438557</v>
       </c>
       <c r="R108" t="n">
-        <v>6953124</v>
+        <v>6953077</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12840,10 +12840,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111973708</v>
+        <v>111973673</v>
       </c>
       <c r="B109" t="n">
-        <v>90802</v>
+        <v>90800</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12852,25 +12852,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12889,10 +12889,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>438069</v>
+        <v>438127</v>
       </c>
       <c r="R109" t="n">
-        <v>6953093</v>
+        <v>6953244</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="AI109" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT109" t="inlineStr"/>
@@ -12960,10 +12960,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111973762</v>
+        <v>111973730</v>
       </c>
       <c r="B110" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12976,21 +12976,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -13009,10 +13009,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>437599</v>
+        <v>437842</v>
       </c>
       <c r="R110" t="n">
-        <v>6953281</v>
+        <v>6953303</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -13080,7 +13080,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111973695</v>
+        <v>111973706</v>
       </c>
       <c r="B111" t="n">
         <v>90800</v>
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>438290</v>
+        <v>438039</v>
       </c>
       <c r="R111" t="n">
-        <v>6953135</v>
+        <v>6953083</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13200,10 +13200,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111973686</v>
+        <v>111973707</v>
       </c>
       <c r="B112" t="n">
-        <v>90448</v>
+        <v>90808</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13216,21 +13216,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -13249,10 +13249,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>438557</v>
+        <v>438068</v>
       </c>
       <c r="R112" t="n">
-        <v>6953077</v>
+        <v>6953071</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13320,10 +13320,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111973660</v>
+        <v>111973715</v>
       </c>
       <c r="B113" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13332,25 +13332,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -13369,10 +13369,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>438118</v>
+        <v>437963</v>
       </c>
       <c r="R113" t="n">
-        <v>6953330</v>
+        <v>6953212</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13440,10 +13440,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111973733</v>
+        <v>111973738</v>
       </c>
       <c r="B114" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13456,21 +13456,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -13489,10 +13489,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>437876</v>
+        <v>437819</v>
       </c>
       <c r="R114" t="n">
-        <v>6953355</v>
+        <v>6953417</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13504,7 +13504,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr"/>
@@ -13560,10 +13560,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973713</v>
+        <v>111973687</v>
       </c>
       <c r="B115" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13576,21 +13576,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -13609,10 +13609,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>438002</v>
+        <v>438549</v>
       </c>
       <c r="R115" t="n">
-        <v>6953193</v>
+        <v>6953054</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13680,10 +13680,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973763</v>
+        <v>111973704</v>
       </c>
       <c r="B116" t="n">
-        <v>90800</v>
+        <v>90806</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13696,21 +13696,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>437630</v>
+        <v>438040</v>
       </c>
       <c r="R116" t="n">
-        <v>6953221</v>
+        <v>6953056</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13800,10 +13800,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973720</v>
+        <v>111973677</v>
       </c>
       <c r="B117" t="n">
-        <v>90800</v>
+        <v>90448</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13816,21 +13816,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3100</v>
+        <v>4745</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>437936</v>
+        <v>438218</v>
       </c>
       <c r="R117" t="n">
-        <v>6953114</v>
+        <v>6953251</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr"/>
@@ -13920,10 +13920,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973656</v>
+        <v>111973663</v>
       </c>
       <c r="B118" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13932,25 +13932,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -13969,10 +13969,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>438305</v>
+        <v>438170</v>
       </c>
       <c r="R118" t="n">
-        <v>6953417</v>
+        <v>6953367</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973734</v>
+        <v>111973736</v>
       </c>
       <c r="B119" t="n">
         <v>90808</v>
@@ -14089,10 +14089,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>437925</v>
+        <v>437843</v>
       </c>
       <c r="R119" t="n">
-        <v>6953362</v>
+        <v>6953498</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -14160,7 +14160,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973743</v>
+        <v>111973734</v>
       </c>
       <c r="B120" t="n">
         <v>90808</v>
@@ -14209,10 +14209,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>437633</v>
+        <v>437925</v>
       </c>
       <c r="R120" t="n">
-        <v>6953302</v>
+        <v>6953362</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="AI120" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT120" t="inlineStr"/>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973738</v>
+        <v>111973703</v>
       </c>
       <c r="B121" t="n">
-        <v>90800</v>
+        <v>88158</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14292,25 +14292,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>437819</v>
+        <v>438029</v>
       </c>
       <c r="R121" t="n">
-        <v>6953417</v>
+        <v>6953011</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14400,10 +14400,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973707</v>
+        <v>111973737</v>
       </c>
       <c r="B122" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14412,25 +14412,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14449,10 +14449,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>438068</v>
+        <v>437826</v>
       </c>
       <c r="R122" t="n">
-        <v>6953071</v>
+        <v>6953429</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14464,7 +14464,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr"/>
@@ -14520,10 +14520,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973666</v>
+        <v>111973767</v>
       </c>
       <c r="B123" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14536,21 +14536,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -14569,10 +14569,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>438214</v>
+        <v>437702</v>
       </c>
       <c r="R123" t="n">
-        <v>6953416</v>
+        <v>6953234</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14640,7 +14640,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973651</v>
+        <v>111973649</v>
       </c>
       <c r="B124" t="n">
         <v>90830</v>
@@ -14689,10 +14689,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>438595</v>
+        <v>438644</v>
       </c>
       <c r="R124" t="n">
-        <v>6953584</v>
+        <v>6953596</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14760,10 +14760,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973711</v>
+        <v>111973648</v>
       </c>
       <c r="B125" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14776,21 +14776,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -14809,10 +14809,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>438031</v>
+        <v>438637</v>
       </c>
       <c r="R125" t="n">
-        <v>6953140</v>
+        <v>6953601</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973698</v>
+        <v>111973729</v>
       </c>
       <c r="B127" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15016,21 +15016,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -15049,10 +15049,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>438207</v>
+        <v>437849</v>
       </c>
       <c r="R127" t="n">
-        <v>6953100</v>
+        <v>6953247</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15120,10 +15120,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973761</v>
+        <v>111973670</v>
       </c>
       <c r="B128" t="n">
-        <v>90448</v>
+        <v>90808</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15136,21 +15136,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15169,10 +15169,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>437571</v>
+        <v>437926</v>
       </c>
       <c r="R128" t="n">
-        <v>6953283</v>
+        <v>6953261</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15184,7 +15184,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
@@ -15240,10 +15240,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973680</v>
+        <v>111973741</v>
       </c>
       <c r="B129" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15256,21 +15256,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15289,10 +15289,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>438403</v>
+        <v>437771</v>
       </c>
       <c r="R129" t="n">
-        <v>6953181</v>
+        <v>6953335</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT129" t="inlineStr"/>
@@ -15360,10 +15360,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973658</v>
+        <v>111973656</v>
       </c>
       <c r="B130" t="n">
-        <v>90800</v>
+        <v>88180</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15372,25 +15372,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15409,10 +15409,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>438250</v>
+        <v>438305</v>
       </c>
       <c r="R130" t="n">
-        <v>6953325</v>
+        <v>6953417</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr"/>
@@ -15480,10 +15480,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111973671</v>
+        <v>111973684</v>
       </c>
       <c r="B131" t="n">
-        <v>88180</v>
+        <v>90830</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15492,25 +15492,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -15529,10 +15529,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>438033</v>
+        <v>438577</v>
       </c>
       <c r="R131" t="n">
-        <v>6953252</v>
+        <v>6953121</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15600,10 +15600,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111973722</v>
+        <v>111973698</v>
       </c>
       <c r="B132" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15612,25 +15612,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -15649,10 +15649,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>437914</v>
+        <v>438207</v>
       </c>
       <c r="R132" t="n">
-        <v>6953091</v>
+        <v>6953100</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -15720,10 +15720,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111973683</v>
+        <v>111973719</v>
       </c>
       <c r="B133" t="n">
-        <v>88158</v>
+        <v>90830</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15732,25 +15732,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1596</v>
+        <v>2059</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -15769,10 +15769,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>438570</v>
+        <v>437938</v>
       </c>
       <c r="R133" t="n">
-        <v>6953140</v>
+        <v>6953155</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -15840,10 +15840,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111973688</v>
+        <v>111973662</v>
       </c>
       <c r="B134" t="n">
-        <v>90826</v>
+        <v>88180</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15852,25 +15852,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -15889,10 +15889,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>438544</v>
+        <v>438148</v>
       </c>
       <c r="R134" t="n">
-        <v>6953037</v>
+        <v>6953350</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="AI134" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT134" t="inlineStr"/>
@@ -15960,7 +15960,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111973730</v>
+        <v>111973692</v>
       </c>
       <c r="B135" t="n">
         <v>90830</v>
@@ -16009,10 +16009,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>437842</v>
+        <v>438375</v>
       </c>
       <c r="R135" t="n">
-        <v>6953303</v>
+        <v>6953080</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16080,10 +16080,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973768</v>
+        <v>111973674</v>
       </c>
       <c r="B136" t="n">
-        <v>90830</v>
+        <v>90800</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16096,21 +16096,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -16129,10 +16129,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>437638</v>
+        <v>438161</v>
       </c>
       <c r="R136" t="n">
-        <v>6953149</v>
+        <v>6953263</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="AI136" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16200,10 +16200,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973648</v>
+        <v>111973731</v>
       </c>
       <c r="B137" t="n">
-        <v>90830</v>
+        <v>88158</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16212,25 +16212,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16249,10 +16249,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>438637</v>
+        <v>437842</v>
       </c>
       <c r="R137" t="n">
-        <v>6953601</v>
+        <v>6953303</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -16320,10 +16320,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973663</v>
+        <v>111973690</v>
       </c>
       <c r="B138" t="n">
-        <v>90808</v>
+        <v>88180</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16332,25 +16332,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16369,10 +16369,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>438170</v>
+        <v>438393</v>
       </c>
       <c r="R138" t="n">
-        <v>6953367</v>
+        <v>6953048</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16440,10 +16440,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973702</v>
+        <v>111973718</v>
       </c>
       <c r="B139" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16456,21 +16456,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16489,10 +16489,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>438082</v>
+        <v>437914</v>
       </c>
       <c r="R139" t="n">
-        <v>6953046</v>
+        <v>6953163</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16560,7 +16560,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973697</v>
+        <v>111973665</v>
       </c>
       <c r="B140" t="n">
         <v>88180</v>
@@ -16609,10 +16609,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438217</v>
+        <v>438215</v>
       </c>
       <c r="R140" t="n">
-        <v>6953090</v>
+        <v>6953403</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16680,10 +16680,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111973725</v>
+        <v>111973694</v>
       </c>
       <c r="B141" t="n">
-        <v>90808</v>
+        <v>88180</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16692,25 +16692,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -16729,10 +16729,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>437860</v>
+        <v>438326</v>
       </c>
       <c r="R141" t="n">
-        <v>6953090</v>
+        <v>6953164</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -16800,10 +16800,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111973694</v>
+        <v>111973680</v>
       </c>
       <c r="B142" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16812,25 +16812,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -16849,10 +16849,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>438326</v>
+        <v>438403</v>
       </c>
       <c r="R142" t="n">
-        <v>6953164</v>
+        <v>6953181</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -16920,10 +16920,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111973693</v>
+        <v>111973666</v>
       </c>
       <c r="B143" t="n">
-        <v>90830</v>
+        <v>90800</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16936,21 +16936,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -16969,10 +16969,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>438341</v>
+        <v>438214</v>
       </c>
       <c r="R143" t="n">
-        <v>6953145</v>
+        <v>6953416</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17040,10 +17040,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111973726</v>
+        <v>111973764</v>
       </c>
       <c r="B144" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17056,21 +17056,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -17089,10 +17089,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>437858</v>
+        <v>437776</v>
       </c>
       <c r="R144" t="n">
-        <v>6953132</v>
+        <v>6953124</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17160,10 +17160,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111973767</v>
+        <v>111973724</v>
       </c>
       <c r="B145" t="n">
-        <v>90808</v>
+        <v>88637</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17176,43 +17176,34 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>437702</v>
+        <v>437892</v>
       </c>
       <c r="R145" t="n">
-        <v>6953234</v>
+        <v>6953090</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17259,6 +17250,14 @@
       <c r="AI145" t="inlineStr">
         <is>
           <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AN145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO145" t="inlineStr">
+        <is>
+          <t>1 substratenheter # under gammal tallåga</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr"/>
@@ -17280,10 +17279,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111973731</v>
+        <v>111973735</v>
       </c>
       <c r="B146" t="n">
-        <v>88158</v>
+        <v>90808</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17292,25 +17291,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1596</v>
+        <v>4362</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -17329,10 +17328,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>437842</v>
+        <v>437908</v>
       </c>
       <c r="R146" t="n">
-        <v>6953303</v>
+        <v>6953423</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17344,7 +17343,7 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
@@ -17354,7 +17353,7 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -17378,7 +17377,7 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr"/>
@@ -17400,7 +17399,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111973740</v>
+        <v>111973696</v>
       </c>
       <c r="B147" t="n">
         <v>90808</v>
@@ -17449,10 +17448,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>437785</v>
+        <v>438244</v>
       </c>
       <c r="R147" t="n">
-        <v>6953387</v>
+        <v>6953109</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17464,7 +17463,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
@@ -17474,7 +17473,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
@@ -17498,7 +17497,7 @@
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr"/>
@@ -17520,10 +17519,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111973652</v>
+        <v>111973708</v>
       </c>
       <c r="B148" t="n">
-        <v>90808</v>
+        <v>90802</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17532,25 +17531,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -17569,10 +17568,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>438538</v>
+        <v>438069</v>
       </c>
       <c r="R148" t="n">
-        <v>6953550</v>
+        <v>6953093</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17618,7 +17617,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr"/>
@@ -17760,10 +17759,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111973724</v>
+        <v>111973650</v>
       </c>
       <c r="B150" t="n">
-        <v>88637</v>
+        <v>90800</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17776,34 +17775,43 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr"/>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P150" t="inlineStr">
         <is>
           <t>Aloppmoarnas västra del, Jmt</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>437892</v>
+        <v>438617</v>
       </c>
       <c r="R150" t="n">
-        <v>6953090</v>
+        <v>6953572</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -17849,15 +17857,7 @@
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
-        </is>
-      </c>
-      <c r="AN150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO150" t="inlineStr">
-        <is>
-          <t>1 substratenheter # under gammal tallåga</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111973679</v>
+        <v>111973740</v>
       </c>
       <c r="B151" t="n">
         <v>90808</v>
@@ -17928,10 +17928,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>438324</v>
+        <v>437785</v>
       </c>
       <c r="R151" t="n">
-        <v>6953231</v>
+        <v>6953387</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -17953,7 +17953,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111973721</v>
+        <v>111973655</v>
       </c>
       <c r="B152" t="n">
         <v>90808</v>
@@ -18048,10 +18048,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>437965</v>
+        <v>438489</v>
       </c>
       <c r="R152" t="n">
-        <v>6953078</v>
+        <v>6953526</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="AI152" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr"/>
@@ -18119,10 +18119,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111973649</v>
+        <v>111973745</v>
       </c>
       <c r="B153" t="n">
-        <v>90830</v>
+        <v>90800</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18135,21 +18135,21 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -18168,10 +18168,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>438644</v>
+        <v>437647</v>
       </c>
       <c r="R153" t="n">
-        <v>6953596</v>
+        <v>6953396</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="AI153" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr"/>
@@ -18239,10 +18239,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111973699</v>
+        <v>111973720</v>
       </c>
       <c r="B154" t="n">
-        <v>90802</v>
+        <v>90800</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18251,25 +18251,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -18288,10 +18288,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>438167</v>
+        <v>437936</v>
       </c>
       <c r="R154" t="n">
-        <v>6953105</v>
+        <v>6953114</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111973696</v>
+        <v>111973711</v>
       </c>
       <c r="B155" t="n">
         <v>90808</v>
@@ -18408,10 +18408,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>438244</v>
+        <v>438031</v>
       </c>
       <c r="R155" t="n">
-        <v>6953109</v>
+        <v>6953140</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111973687</v>
+        <v>111973658</v>
       </c>
       <c r="B156" t="n">
         <v>90800</v>
@@ -18528,10 +18528,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>438549</v>
+        <v>438250</v>
       </c>
       <c r="R156" t="n">
-        <v>6953054</v>
+        <v>6953325</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18577,7 +18577,7 @@
       </c>
       <c r="AI156" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr"/>
@@ -18599,10 +18599,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111973665</v>
+        <v>111973803</v>
       </c>
       <c r="B157" t="n">
-        <v>88180</v>
+        <v>90800</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18611,25 +18611,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -18648,10 +18648,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>438215</v>
+        <v>437809</v>
       </c>
       <c r="R157" t="n">
-        <v>6953403</v>
+        <v>6953100</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr"/>
@@ -18719,10 +18719,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111973745</v>
+        <v>111973713</v>
       </c>
       <c r="B158" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18735,21 +18735,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -18768,10 +18768,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>437647</v>
+        <v>438002</v>
       </c>
       <c r="R158" t="n">
-        <v>6953396</v>
+        <v>6953193</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
@@ -18793,7 +18793,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
@@ -18817,7 +18817,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>äldre renbetad blåbärstallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr"/>
@@ -18839,10 +18839,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973715</v>
+        <v>111973672</v>
       </c>
       <c r="B159" t="n">
-        <v>90826</v>
+        <v>90800</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18851,25 +18851,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -18888,10 +18888,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>437963</v>
+        <v>438162</v>
       </c>
       <c r="R159" t="n">
-        <v>6953212</v>
+        <v>6953218</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="AI159" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr"/>
@@ -18959,10 +18959,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973803</v>
+        <v>111973725</v>
       </c>
       <c r="B160" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -18975,21 +18975,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -19008,10 +19008,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>437809</v>
+        <v>437860</v>
       </c>
       <c r="R160" t="n">
-        <v>6953100</v>
+        <v>6953090</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973709</v>
+        <v>111973653</v>
       </c>
       <c r="B161" t="n">
-        <v>90830</v>
+        <v>88180</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19091,25 +19091,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19128,10 +19128,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>438062</v>
+        <v>438545</v>
       </c>
       <c r="R161" t="n">
-        <v>6953112</v>
+        <v>6953546</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="AI161" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -19199,10 +19199,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973737</v>
+        <v>111973763</v>
       </c>
       <c r="B162" t="n">
-        <v>90826</v>
+        <v>90800</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19211,25 +19211,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -19248,10 +19248,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>437826</v>
+        <v>437630</v>
       </c>
       <c r="R162" t="n">
-        <v>6953429</v>
+        <v>6953221</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19263,7 +19263,7 @@
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
@@ -19273,7 +19273,7 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -19319,10 +19319,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973678</v>
+        <v>111973733</v>
       </c>
       <c r="B163" t="n">
-        <v>90802</v>
+        <v>90808</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19331,25 +19331,25 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -19368,10 +19368,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>438245</v>
+        <v>437876</v>
       </c>
       <c r="R163" t="n">
-        <v>6953250</v>
+        <v>6953355</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="AI163" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -19439,10 +19439,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973684</v>
+        <v>111973716</v>
       </c>
       <c r="B164" t="n">
-        <v>90830</v>
+        <v>90808</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -19455,21 +19455,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -19488,10 +19488,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>438577</v>
+        <v>437942</v>
       </c>
       <c r="R164" t="n">
-        <v>6953121</v>
+        <v>6953189</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -19559,10 +19559,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>111973723</v>
+        <v>111973743</v>
       </c>
       <c r="B165" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -19575,21 +19575,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -19608,10 +19608,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>437904</v>
+        <v>437633</v>
       </c>
       <c r="R165" t="n">
-        <v>6953092</v>
+        <v>6953302</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
@@ -19633,7 +19633,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
@@ -19657,7 +19657,7 @@
       </c>
       <c r="AI165" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr"/>
@@ -19679,10 +19679,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>111973742</v>
+        <v>111973699</v>
       </c>
       <c r="B166" t="n">
-        <v>90800</v>
+        <v>90802</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -19691,25 +19691,25 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -19728,10 +19728,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>437769</v>
+        <v>438167</v>
       </c>
       <c r="R166" t="n">
-        <v>6953320</v>
+        <v>6953105</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -19777,7 +19777,7 @@
       </c>
       <c r="AI166" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr"/>
@@ -19799,10 +19799,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>111973674</v>
+        <v>111973701</v>
       </c>
       <c r="B167" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -19815,21 +19815,21 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -19848,10 +19848,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>438161</v>
+        <v>438134</v>
       </c>
       <c r="R167" t="n">
-        <v>6953263</v>
+        <v>6953093</v>
       </c>
       <c r="S167" t="n">
         <v>10</v>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr"/>
@@ -19919,10 +19919,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>111973662</v>
+        <v>111973705</v>
       </c>
       <c r="B168" t="n">
-        <v>88180</v>
+        <v>90830</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -19931,25 +19931,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -19968,10 +19968,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>438148</v>
+        <v>438040</v>
       </c>
       <c r="R168" t="n">
-        <v>6953350</v>
+        <v>6953070</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -20017,7 +20017,7 @@
       </c>
       <c r="AI168" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr"/>
@@ -20039,10 +20039,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111973706</v>
+        <v>111973761</v>
       </c>
       <c r="B169" t="n">
-        <v>90800</v>
+        <v>90448</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -20055,21 +20055,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3100</v>
+        <v>4745</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -20088,10 +20088,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>438039</v>
+        <v>437571</v>
       </c>
       <c r="R169" t="n">
-        <v>6953083</v>
+        <v>6953283</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
@@ -20113,7 +20113,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
@@ -20159,7 +20159,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111973691</v>
+        <v>111973742</v>
       </c>
       <c r="B170" t="n">
         <v>90800</v>
@@ -20208,10 +20208,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>438380</v>
+        <v>437769</v>
       </c>
       <c r="R170" t="n">
-        <v>6953076</v>
+        <v>6953320</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -20257,7 +20257,7 @@
       </c>
       <c r="AI170" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr"/>
@@ -20279,10 +20279,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111973705</v>
+        <v>111973683</v>
       </c>
       <c r="B171" t="n">
-        <v>90830</v>
+        <v>88158</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20291,25 +20291,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2059</v>
+        <v>1596</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -20328,10 +20328,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>438040</v>
+        <v>438570</v>
       </c>
       <c r="R171" t="n">
-        <v>6953070</v>
+        <v>6953140</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -20399,10 +20399,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>111973703</v>
+        <v>111973768</v>
       </c>
       <c r="B172" t="n">
-        <v>88158</v>
+        <v>90830</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -20411,25 +20411,25 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1596</v>
+        <v>2059</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -20448,10 +20448,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>438029</v>
+        <v>437638</v>
       </c>
       <c r="R172" t="n">
-        <v>6953011</v>
+        <v>6953149</v>
       </c>
       <c r="S172" t="n">
         <v>10</v>
@@ -20519,10 +20519,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111973701</v>
+        <v>111973702</v>
       </c>
       <c r="B173" t="n">
-        <v>90830</v>
+        <v>90808</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -20535,21 +20535,21 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -20568,10 +20568,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>438134</v>
+        <v>438082</v>
       </c>
       <c r="R173" t="n">
-        <v>6953093</v>
+        <v>6953046</v>
       </c>
       <c r="S173" t="n">
         <v>10</v>
@@ -20639,10 +20639,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973719</v>
+        <v>111973660</v>
       </c>
       <c r="B174" t="n">
-        <v>90830</v>
+        <v>90808</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -20655,21 +20655,21 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -20688,10 +20688,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>437938</v>
+        <v>438118</v>
       </c>
       <c r="R174" t="n">
-        <v>6953155</v>
+        <v>6953330</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="AI174" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr"/>
@@ -20759,7 +20759,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973712</v>
+        <v>111973726</v>
       </c>
       <c r="B175" t="n">
         <v>90800</v>
@@ -20808,10 +20808,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>438007</v>
+        <v>437858</v>
       </c>
       <c r="R175" t="n">
-        <v>6953194</v>
+        <v>6953132</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -20879,10 +20879,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973670</v>
+        <v>111973671</v>
       </c>
       <c r="B176" t="n">
-        <v>90808</v>
+        <v>88180</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -20891,25 +20891,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -20928,10 +20928,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>437926</v>
+        <v>438033</v>
       </c>
       <c r="R176" t="n">
-        <v>6953261</v>
+        <v>6953252</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -20999,10 +20999,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973690</v>
+        <v>111973678</v>
       </c>
       <c r="B177" t="n">
-        <v>88180</v>
+        <v>90802</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21015,21 +21015,21 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>6276</v>
+        <v>149</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21048,10 +21048,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>438393</v>
+        <v>438245</v>
       </c>
       <c r="R177" t="n">
-        <v>6953048</v>
+        <v>6953250</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr"/>
@@ -21119,10 +21119,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973714</v>
+        <v>111973693</v>
       </c>
       <c r="B178" t="n">
-        <v>90806</v>
+        <v>90830</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21135,21 +21135,21 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21168,10 +21168,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>437975</v>
+        <v>438341</v>
       </c>
       <c r="R178" t="n">
-        <v>6953221</v>
+        <v>6953145</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21239,7 +21239,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973729</v>
+        <v>111973691</v>
       </c>
       <c r="B179" t="n">
         <v>90800</v>
@@ -21288,10 +21288,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>437849</v>
+        <v>438380</v>
       </c>
       <c r="R179" t="n">
-        <v>6953247</v>
+        <v>6953076</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -21359,10 +21359,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973802</v>
+        <v>111973651</v>
       </c>
       <c r="B180" t="n">
-        <v>90826</v>
+        <v>90830</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -21371,25 +21371,25 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -21408,10 +21408,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>437786</v>
+        <v>438595</v>
       </c>
       <c r="R180" t="n">
-        <v>6953084</v>
+        <v>6953584</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT180" t="inlineStr"/>
@@ -21479,10 +21479,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973718</v>
+        <v>111973721</v>
       </c>
       <c r="B181" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -21495,21 +21495,21 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -21528,10 +21528,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>437914</v>
+        <v>437965</v>
       </c>
       <c r="R181" t="n">
-        <v>6953163</v>
+        <v>6953078</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -21599,10 +21599,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973673</v>
+        <v>111973722</v>
       </c>
       <c r="B182" t="n">
-        <v>90800</v>
+        <v>88180</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21611,25 +21611,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -21648,10 +21648,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>438127</v>
+        <v>437914</v>
       </c>
       <c r="R182" t="n">
-        <v>6953244</v>
+        <v>6953091</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21697,7 +21697,7 @@
       </c>
       <c r="AI182" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr"/>
@@ -21719,10 +21719,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973735</v>
+        <v>111973700</v>
       </c>
       <c r="B183" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -21735,21 +21735,21 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -21768,10 +21768,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>437908</v>
+        <v>438151</v>
       </c>
       <c r="R183" t="n">
-        <v>6953423</v>
+        <v>6953097</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -21783,7 +21783,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="AI183" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr"/>
@@ -21959,10 +21959,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973655</v>
+        <v>111973697</v>
       </c>
       <c r="B185" t="n">
-        <v>90808</v>
+        <v>88180</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -21971,25 +21971,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22008,10 +22008,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438489</v>
+        <v>438217</v>
       </c>
       <c r="R185" t="n">
-        <v>6953526</v>
+        <v>6953090</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
@@ -22057,7 +22057,7 @@
       </c>
       <c r="AI185" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr"/>
@@ -22079,10 +22079,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>111973717</v>
+        <v>111973654</v>
       </c>
       <c r="B186" t="n">
-        <v>88158</v>
+        <v>90830</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -22091,25 +22091,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1596</v>
+        <v>2059</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -22128,10 +22128,10 @@
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>437925</v>
+        <v>438507</v>
       </c>
       <c r="R186" t="n">
-        <v>6953182</v>
+        <v>6953527</v>
       </c>
       <c r="S186" t="n">
         <v>10</v>
@@ -22177,7 +22177,7 @@
       </c>
       <c r="AI186" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr"/>
@@ -22199,10 +22199,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>111973766</v>
+        <v>111973727</v>
       </c>
       <c r="B187" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -22215,21 +22215,21 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -22248,10 +22248,10 @@
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>437708</v>
+        <v>437871</v>
       </c>
       <c r="R187" t="n">
-        <v>6953239</v>
+        <v>6953178</v>
       </c>
       <c r="S187" t="n">
         <v>10</v>
@@ -22319,10 +22319,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>111973700</v>
+        <v>111973800</v>
       </c>
       <c r="B188" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -22335,21 +22335,21 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -22368,10 +22368,10 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>438151</v>
+        <v>437772</v>
       </c>
       <c r="R188" t="n">
-        <v>6953097</v>
+        <v>6953072</v>
       </c>
       <c r="S188" t="n">
         <v>10</v>
@@ -22439,10 +22439,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111973676</v>
+        <v>111973695</v>
       </c>
       <c r="B189" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -22455,21 +22455,21 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -22488,10 +22488,10 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>438195</v>
+        <v>438290</v>
       </c>
       <c r="R189" t="n">
-        <v>6953263</v>
+        <v>6953135</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr"/>
@@ -22559,10 +22559,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>111973681</v>
+        <v>111973717</v>
       </c>
       <c r="B190" t="n">
-        <v>90800</v>
+        <v>88158</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -22571,25 +22571,25 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3100</v>
+        <v>1596</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -22608,7 +22608,7 @@
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>438493</v>
+        <v>437925</v>
       </c>
       <c r="R190" t="n">
         <v>6953182</v>
@@ -22679,10 +22679,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>111973727</v>
+        <v>111973681</v>
       </c>
       <c r="B191" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -22695,21 +22695,21 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -22728,10 +22728,10 @@
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>437871</v>
+        <v>438493</v>
       </c>
       <c r="R191" t="n">
-        <v>6953178</v>
+        <v>6953182</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -22799,10 +22799,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111973692</v>
+        <v>111973652</v>
       </c>
       <c r="B192" t="n">
-        <v>90830</v>
+        <v>90808</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -22815,21 +22815,21 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -22848,10 +22848,10 @@
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>438375</v>
+        <v>438538</v>
       </c>
       <c r="R192" t="n">
-        <v>6953080</v>
+        <v>6953550</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="AI192" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr"/>
@@ -22919,10 +22919,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111973654</v>
+        <v>111973802</v>
       </c>
       <c r="B193" t="n">
-        <v>90830</v>
+        <v>90826</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -22931,25 +22931,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -22968,10 +22968,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>438507</v>
+        <v>437786</v>
       </c>
       <c r="R193" t="n">
-        <v>6953527</v>
+        <v>6953084</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr"/>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>111973672</v>
+        <v>111973712</v>
       </c>
       <c r="B194" t="n">
         <v>90800</v>
@@ -23088,10 +23088,10 @@
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>438162</v>
+        <v>438007</v>
       </c>
       <c r="R194" t="n">
-        <v>6953218</v>
+        <v>6953194</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="AI194" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr"/>
@@ -23159,10 +23159,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>111973653</v>
+        <v>111973675</v>
       </c>
       <c r="B195" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -23171,25 +23171,25 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -23208,10 +23208,10 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>438545</v>
+        <v>438161</v>
       </c>
       <c r="R195" t="n">
-        <v>6953546</v>
+        <v>6953263</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr"/>
@@ -23279,10 +23279,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>111973732</v>
+        <v>111973676</v>
       </c>
       <c r="B196" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -23295,21 +23295,21 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -23328,10 +23328,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>437870</v>
+        <v>438195</v>
       </c>
       <c r="R196" t="n">
-        <v>6953355</v>
+        <v>6953263</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="AI196" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr"/>
@@ -23399,7 +23399,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111973801</v>
+        <v>111973689</v>
       </c>
       <c r="B197" t="n">
         <v>90808</v>
@@ -23448,10 +23448,10 @@
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>437775</v>
+        <v>438478</v>
       </c>
       <c r="R197" t="n">
-        <v>6953075</v>
+        <v>6953008</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="AI197" t="inlineStr">
         <is>
-          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT197" t="inlineStr"/>
@@ -23519,10 +23519,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111973677</v>
+        <v>111973801</v>
       </c>
       <c r="B198" t="n">
-        <v>90448</v>
+        <v>90808</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -23535,21 +23535,21 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -23568,10 +23568,10 @@
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>438218</v>
+        <v>437775</v>
       </c>
       <c r="R198" t="n">
-        <v>6953251</v>
+        <v>6953075</v>
       </c>
       <c r="S198" t="n">
         <v>10</v>
@@ -23617,7 +23617,7 @@
       </c>
       <c r="AI198" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad lingon- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr"/>
@@ -23639,10 +23639,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111973667</v>
+        <v>111973732</v>
       </c>
       <c r="B199" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23655,21 +23655,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -23688,10 +23688,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>438214</v>
+        <v>437870</v>
       </c>
       <c r="R199" t="n">
-        <v>6953416</v>
+        <v>6953355</v>
       </c>
       <c r="S199" t="n">
         <v>10</v>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="AI199" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr"/>
@@ -23759,7 +23759,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111973716</v>
+        <v>111973667</v>
       </c>
       <c r="B200" t="n">
         <v>90808</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>437942</v>
+        <v>438214</v>
       </c>
       <c r="R200" t="n">
-        <v>6953189</v>
+        <v>6953416</v>
       </c>
       <c r="S200" t="n">
         <v>10</v>
@@ -23879,10 +23879,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111973675</v>
+        <v>111973709</v>
       </c>
       <c r="B201" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23895,21 +23895,21 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -23928,10 +23928,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>438161</v>
+        <v>438062</v>
       </c>
       <c r="R201" t="n">
-        <v>6953263</v>
+        <v>6953112</v>
       </c>
       <c r="S201" t="n">
         <v>10</v>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="AI201" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr"/>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>111973689</v>
+        <v>111973679</v>
       </c>
       <c r="B202" t="n">
         <v>90808</v>
@@ -24048,10 +24048,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>438478</v>
+        <v>438324</v>
       </c>
       <c r="R202" t="n">
-        <v>6953008</v>
+        <v>6953231</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -24097,7 +24097,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr"/>
@@ -24119,10 +24119,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>111973736</v>
+        <v>111973714</v>
       </c>
       <c r="B203" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -24135,21 +24135,21 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -24168,10 +24168,10 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>437843</v>
+        <v>437975</v>
       </c>
       <c r="R203" t="n">
-        <v>6953498</v>
+        <v>6953221</v>
       </c>
       <c r="S203" t="n">
         <v>10</v>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
@@ -24193,7 +24193,7 @@
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y203" t="inlineStr">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr"/>
@@ -24239,10 +24239,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>111973800</v>
+        <v>111973688</v>
       </c>
       <c r="B204" t="n">
-        <v>90830</v>
+        <v>90826</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -24251,25 +24251,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -24288,10 +24288,10 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>437772</v>
+        <v>438544</v>
       </c>
       <c r="R204" t="n">
-        <v>6953072</v>
+        <v>6953037</v>
       </c>
       <c r="S204" t="n">
         <v>10</v>
@@ -24359,10 +24359,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>111973741</v>
+        <v>111973762</v>
       </c>
       <c r="B205" t="n">
-        <v>90830</v>
+        <v>90808</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -24375,21 +24375,21 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -24408,10 +24408,10 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>437771</v>
+        <v>437599</v>
       </c>
       <c r="R205" t="n">
-        <v>6953335</v>
+        <v>6953281</v>
       </c>
       <c r="S205" t="n">
         <v>10</v>
@@ -24457,7 +24457,7 @@
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT205" t="inlineStr"/>
@@ -24479,7 +24479,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>111973650</v>
+        <v>111973766</v>
       </c>
       <c r="B206" t="n">
         <v>90800</v>
@@ -24528,10 +24528,10 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>438617</v>
+        <v>437708</v>
       </c>
       <c r="R206" t="n">
-        <v>6953572</v>
+        <v>6953239</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -24577,7 +24577,7 @@
       </c>
       <c r="AI206" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr"/>
@@ -24599,10 +24599,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111973704</v>
+        <v>111973723</v>
       </c>
       <c r="B207" t="n">
-        <v>90806</v>
+        <v>90800</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -24615,21 +24615,21 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -24648,10 +24648,10 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>438040</v>
+        <v>437904</v>
       </c>
       <c r="R207" t="n">
-        <v>6953056</v>
+        <v>6953092</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>

--- a/artfynd/A 38591-2021.xlsx
+++ b/artfynd/A 38591-2021.xlsx
@@ -13560,10 +13560,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111973687</v>
+        <v>111973704</v>
       </c>
       <c r="B115" t="n">
-        <v>90800</v>
+        <v>90806</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13576,21 +13576,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -13609,10 +13609,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>438549</v>
+        <v>438040</v>
       </c>
       <c r="R115" t="n">
-        <v>6953054</v>
+        <v>6953056</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -13680,10 +13680,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111973704</v>
+        <v>111973677</v>
       </c>
       <c r="B116" t="n">
-        <v>90806</v>
+        <v>90448</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13696,21 +13696,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>438040</v>
+        <v>438218</v>
       </c>
       <c r="R116" t="n">
-        <v>6953056</v>
+        <v>6953251</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -13800,10 +13800,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111973677</v>
+        <v>111973663</v>
       </c>
       <c r="B117" t="n">
-        <v>90448</v>
+        <v>90808</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13816,21 +13816,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -13849,10 +13849,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>438218</v>
+        <v>438170</v>
       </c>
       <c r="R117" t="n">
-        <v>6953251</v>
+        <v>6953367</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr"/>
@@ -13920,7 +13920,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111973663</v>
+        <v>111973736</v>
       </c>
       <c r="B118" t="n">
         <v>90808</v>
@@ -13969,10 +13969,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>438170</v>
+        <v>437843</v>
       </c>
       <c r="R118" t="n">
-        <v>6953367</v>
+        <v>6953498</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -13984,7 +13984,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -13994,7 +13994,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111973736</v>
+        <v>111973734</v>
       </c>
       <c r="B119" t="n">
         <v>90808</v>
@@ -14089,10 +14089,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>437843</v>
+        <v>437925</v>
       </c>
       <c r="R119" t="n">
-        <v>6953498</v>
+        <v>6953362</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -14160,10 +14160,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111973734</v>
+        <v>111973703</v>
       </c>
       <c r="B120" t="n">
-        <v>90808</v>
+        <v>88158</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14172,25 +14172,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4362</v>
+        <v>1596</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -14209,10 +14209,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>437925</v>
+        <v>438029</v>
       </c>
       <c r="R120" t="n">
-        <v>6953362</v>
+        <v>6953011</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="AI120" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT120" t="inlineStr"/>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111973703</v>
+        <v>111973737</v>
       </c>
       <c r="B121" t="n">
-        <v>88158</v>
+        <v>90826</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14292,25 +14292,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1596</v>
+        <v>4366</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>438029</v>
+        <v>437826</v>
       </c>
       <c r="R121" t="n">
-        <v>6953011</v>
+        <v>6953429</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14400,10 +14400,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111973737</v>
+        <v>111973767</v>
       </c>
       <c r="B122" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14412,25 +14412,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -14449,10 +14449,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>437826</v>
+        <v>437702</v>
       </c>
       <c r="R122" t="n">
-        <v>6953429</v>
+        <v>6953234</v>
       </c>
       <c r="S122" t="n">
         <v>10</v>
@@ -14464,7 +14464,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark, på gammal uppgrävd vall</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr"/>
@@ -14520,10 +14520,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111973767</v>
+        <v>111973687</v>
       </c>
       <c r="B123" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14536,21 +14536,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -14569,10 +14569,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>437702</v>
+        <v>438549</v>
       </c>
       <c r="R123" t="n">
-        <v>6953234</v>
+        <v>6953054</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -14640,10 +14640,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111973649</v>
+        <v>111973656</v>
       </c>
       <c r="B124" t="n">
-        <v>90830</v>
+        <v>88180</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14652,25 +14652,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -14689,10 +14689,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>438644</v>
+        <v>438305</v>
       </c>
       <c r="R124" t="n">
-        <v>6953596</v>
+        <v>6953417</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -14760,7 +14760,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111973648</v>
+        <v>111973649</v>
       </c>
       <c r="B125" t="n">
         <v>90830</v>
@@ -14809,10 +14809,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>438637</v>
+        <v>438644</v>
       </c>
       <c r="R125" t="n">
-        <v>6953601</v>
+        <v>6953596</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111973744</v>
+        <v>111973648</v>
       </c>
       <c r="B126" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14896,21 +14896,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -14929,10 +14929,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>437687</v>
+        <v>438637</v>
       </c>
       <c r="R126" t="n">
-        <v>6953383</v>
+        <v>6953601</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="AI126" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr"/>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111973729</v>
+        <v>111973744</v>
       </c>
       <c r="B127" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15016,21 +15016,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -15049,10 +15049,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>437849</v>
+        <v>437687</v>
       </c>
       <c r="R127" t="n">
-        <v>6953247</v>
+        <v>6953383</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15064,7 +15064,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15120,10 +15120,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111973670</v>
+        <v>111973729</v>
       </c>
       <c r="B128" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15136,21 +15136,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -15169,10 +15169,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>437926</v>
+        <v>437849</v>
       </c>
       <c r="R128" t="n">
-        <v>6953261</v>
+        <v>6953247</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111973741</v>
+        <v>111973670</v>
       </c>
       <c r="B129" t="n">
-        <v>90830</v>
+        <v>90808</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15256,21 +15256,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -15289,10 +15289,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>437771</v>
+        <v>437926</v>
       </c>
       <c r="R129" t="n">
-        <v>6953335</v>
+        <v>6953261</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Berg</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Åsarne</t>
+          <t>Vemdalen</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT129" t="inlineStr"/>
@@ -15360,10 +15360,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111973656</v>
+        <v>111973741</v>
       </c>
       <c r="B130" t="n">
-        <v>88180</v>
+        <v>90830</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15372,25 +15372,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -15409,10 +15409,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>438305</v>
+        <v>437771</v>
       </c>
       <c r="R130" t="n">
-        <v>6953417</v>
+        <v>6953335</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15424,7 +15424,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>Härjedalen</t>
+          <t>Berg</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
@@ -15434,7 +15434,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Vemdalen</t>
+          <t>Åsarne</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr"/>
@@ -16080,10 +16080,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111973674</v>
+        <v>111973665</v>
       </c>
       <c r="B136" t="n">
-        <v>90800</v>
+        <v>88180</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16092,25 +16092,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -16129,10 +16129,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>438161</v>
+        <v>438215</v>
       </c>
       <c r="R136" t="n">
-        <v>6953263</v>
+        <v>6953403</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="AI136" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16200,10 +16200,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111973731</v>
+        <v>111973674</v>
       </c>
       <c r="B137" t="n">
-        <v>88158</v>
+        <v>90800</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16212,25 +16212,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1596</v>
+        <v>3100</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -16249,10 +16249,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>437842</v>
+        <v>438161</v>
       </c>
       <c r="R137" t="n">
-        <v>6953303</v>
+        <v>6953263</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -16320,10 +16320,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111973690</v>
+        <v>111973731</v>
       </c>
       <c r="B138" t="n">
-        <v>88180</v>
+        <v>88158</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16336,21 +16336,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6276</v>
+        <v>1596</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -16369,10 +16369,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>438393</v>
+        <v>437842</v>
       </c>
       <c r="R138" t="n">
-        <v>6953048</v>
+        <v>6953303</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16440,10 +16440,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111973718</v>
+        <v>111973690</v>
       </c>
       <c r="B139" t="n">
-        <v>90800</v>
+        <v>88180</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16452,25 +16452,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -16489,10 +16489,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>437914</v>
+        <v>438393</v>
       </c>
       <c r="R139" t="n">
-        <v>6953163</v>
+        <v>6953048</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16560,10 +16560,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111973665</v>
+        <v>111973718</v>
       </c>
       <c r="B140" t="n">
-        <v>88180</v>
+        <v>90800</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16572,25 +16572,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -16609,10 +16609,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>438215</v>
+        <v>437914</v>
       </c>
       <c r="R140" t="n">
-        <v>6953403</v>
+        <v>6953163</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111973672</v>
+        <v>111973763</v>
       </c>
       <c r="B159" t="n">
         <v>90800</v>
@@ -18888,10 +18888,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>438162</v>
+        <v>437630</v>
       </c>
       <c r="R159" t="n">
-        <v>6953218</v>
+        <v>6953221</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="AI159" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr"/>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111973725</v>
+        <v>111973733</v>
       </c>
       <c r="B160" t="n">
         <v>90808</v>
@@ -19008,10 +19008,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>437860</v>
+        <v>437876</v>
       </c>
       <c r="R160" t="n">
-        <v>6953090</v>
+        <v>6953355</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr"/>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111973653</v>
+        <v>111973716</v>
       </c>
       <c r="B161" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19091,25 +19091,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -19128,10 +19128,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>438545</v>
+        <v>437942</v>
       </c>
       <c r="R161" t="n">
-        <v>6953546</v>
+        <v>6953189</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="AI161" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr"/>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>111973763</v>
+        <v>111973672</v>
       </c>
       <c r="B162" t="n">
         <v>90800</v>
@@ -19248,10 +19248,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>437630</v>
+        <v>438162</v>
       </c>
       <c r="R162" t="n">
-        <v>6953221</v>
+        <v>6953218</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="AI162" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr"/>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111973733</v>
+        <v>111973725</v>
       </c>
       <c r="B163" t="n">
         <v>90808</v>
@@ -19368,10 +19368,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>437876</v>
+        <v>437860</v>
       </c>
       <c r="R163" t="n">
-        <v>6953355</v>
+        <v>6953090</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="AI163" t="inlineStr">
         <is>
-          <t>äldre renbetad lingontallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr"/>
@@ -19439,10 +19439,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>111973716</v>
+        <v>111973653</v>
       </c>
       <c r="B164" t="n">
-        <v>90808</v>
+        <v>88180</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -19451,25 +19451,25 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -19488,10 +19488,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>437942</v>
+        <v>438545</v>
       </c>
       <c r="R164" t="n">
-        <v>6953189</v>
+        <v>6953546</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="AI164" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT164" t="inlineStr"/>
@@ -20639,10 +20639,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>111973660</v>
+        <v>111973697</v>
       </c>
       <c r="B174" t="n">
-        <v>90808</v>
+        <v>88180</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -20651,25 +20651,25 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -20688,10 +20688,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>438118</v>
+        <v>438217</v>
       </c>
       <c r="R174" t="n">
-        <v>6953330</v>
+        <v>6953090</v>
       </c>
       <c r="S174" t="n">
         <v>10</v>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="AI174" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr"/>
@@ -20759,10 +20759,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>111973726</v>
+        <v>111973660</v>
       </c>
       <c r="B175" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -20775,21 +20775,21 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -20808,10 +20808,10 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>437858</v>
+        <v>438118</v>
       </c>
       <c r="R175" t="n">
-        <v>6953132</v>
+        <v>6953330</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="AI175" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT175" t="inlineStr"/>
@@ -20879,10 +20879,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>111973671</v>
+        <v>111973726</v>
       </c>
       <c r="B176" t="n">
-        <v>88180</v>
+        <v>90800</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -20891,25 +20891,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -20928,10 +20928,10 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>438033</v>
+        <v>437858</v>
       </c>
       <c r="R176" t="n">
-        <v>6953252</v>
+        <v>6953132</v>
       </c>
       <c r="S176" t="n">
         <v>10</v>
@@ -20999,10 +20999,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>111973678</v>
+        <v>111973671</v>
       </c>
       <c r="B177" t="n">
-        <v>90802</v>
+        <v>88180</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -21015,21 +21015,21 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -21048,10 +21048,10 @@
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>438245</v>
+        <v>438033</v>
       </c>
       <c r="R177" t="n">
-        <v>6953250</v>
+        <v>6953252</v>
       </c>
       <c r="S177" t="n">
         <v>10</v>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="AI177" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr"/>
@@ -21119,10 +21119,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>111973693</v>
+        <v>111973678</v>
       </c>
       <c r="B178" t="n">
-        <v>90830</v>
+        <v>90802</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -21131,25 +21131,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -21168,10 +21168,10 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>438341</v>
+        <v>438245</v>
       </c>
       <c r="R178" t="n">
-        <v>6953145</v>
+        <v>6953250</v>
       </c>
       <c r="S178" t="n">
         <v>10</v>
@@ -21217,7 +21217,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre renbetad fattigristallskog med lavfläck på torr moränmark</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr"/>
@@ -21239,10 +21239,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>111973691</v>
+        <v>111973693</v>
       </c>
       <c r="B179" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -21255,21 +21255,21 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -21288,10 +21288,10 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>438380</v>
+        <v>438341</v>
       </c>
       <c r="R179" t="n">
-        <v>6953076</v>
+        <v>6953145</v>
       </c>
       <c r="S179" t="n">
         <v>10</v>
@@ -21359,10 +21359,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>111973651</v>
+        <v>111973691</v>
       </c>
       <c r="B180" t="n">
-        <v>90830</v>
+        <v>90800</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -21375,21 +21375,21 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -21408,10 +21408,10 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>438595</v>
+        <v>438380</v>
       </c>
       <c r="R180" t="n">
-        <v>6953584</v>
+        <v>6953076</v>
       </c>
       <c r="S180" t="n">
         <v>10</v>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="AI180" t="inlineStr">
         <is>
-          <t>äldre fattigristallskog på torr moränmark</t>
+          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT180" t="inlineStr"/>
@@ -21479,10 +21479,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>111973721</v>
+        <v>111973651</v>
       </c>
       <c r="B181" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -21495,21 +21495,21 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -21528,10 +21528,10 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>437965</v>
+        <v>438595</v>
       </c>
       <c r="R181" t="n">
-        <v>6953078</v>
+        <v>6953584</v>
       </c>
       <c r="S181" t="n">
         <v>10</v>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>äldre renbetad fattigris- och lavtallskog på torr moränmark</t>
+          <t>äldre fattigristallskog på torr moränmark</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr"/>
@@ -21599,10 +21599,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>111973722</v>
+        <v>111973721</v>
       </c>
       <c r="B182" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -21611,25 +21611,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -21648,10 +21648,10 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>437914</v>
+        <v>437965</v>
       </c>
       <c r="R182" t="n">
-        <v>6953091</v>
+        <v>6953078</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
@@ -21719,10 +21719,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>111973700</v>
+        <v>111973722</v>
       </c>
       <c r="B183" t="n">
-        <v>90800</v>
+        <v>88180</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -21731,25 +21731,25 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -21768,10 +21768,10 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>438151</v>
+        <v>437914</v>
       </c>
       <c r="R183" t="n">
-        <v>6953097</v>
+        <v>6953091</v>
       </c>
       <c r="S183" t="n">
         <v>10</v>
@@ -21839,10 +21839,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>111973669</v>
+        <v>111973700</v>
       </c>
       <c r="B184" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -21855,21 +21855,21 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -21888,10 +21888,10 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>437913</v>
+        <v>438151</v>
       </c>
       <c r="R184" t="n">
-        <v>6953242</v>
+        <v>6953097</v>
       </c>
       <c r="S184" t="n">
         <v>10</v>
@@ -21959,10 +21959,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>111973697</v>
+        <v>111973669</v>
       </c>
       <c r="B185" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -21971,25 +21971,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -22008,10 +22008,10 @@
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>438217</v>
+        <v>437913</v>
       </c>
       <c r="R185" t="n">
-        <v>6953090</v>
+        <v>6953242</v>
       </c>
       <c r="S185" t="n">
         <v>10</v>
